--- a/src/main/resources/template/employee.xlsx
+++ b/src/main/resources/template/employee.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ArchivesManagementSystem\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848F12E4-1C63-4219-AC83-BA9D57F55653}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F2F4B4-C03A-43BF-8A66-BDE91A2DDE14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">汇总表!$A$2:$AS$150</definedName>
-    <definedName name="_GoBack" localSheetId="0">汇总表!$AD$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">汇总表!$A$2:$AS$148</definedName>
+    <definedName name="_GoBack" localSheetId="0">汇总表!$AD$145</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">汇总表!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD107" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AD105" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -315,73 +315,7 @@
     <t>工作结束时间待定，可能影响退休工龄，具体由社保局核定</t>
   </si>
   <si>
-    <t>1、 学生登记表为一般性材料,经组织研究认定其具有华东工学院电子工程系电子工程专业全日制本科学历。
-2、 本人无法补充华南理工大学无线电工程系通信与电子系统专业研究生研究生登记表、成绩单，本人提供研究生学历鉴定报告，经组织研究认定其具有研究生学历。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充相关材料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息化营销中心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集客线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通员工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lzz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、档案记载1985.09-1989.07就读华东工学院电子工程系电子工程专业全日制本科，缺少学生登记表。
-2、档案记载1992.09-1995.04就读华南理工大学无线电工程系通信与电子系统专业研究生，缺少研究生登记表、成绩单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件饿哦网球拍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">rejwpqo </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">jfodsajp </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">rl;qrjeowpqjwq </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i4329014u</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本科</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>出生认定结果描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyj</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -389,40 +323,66 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>flase</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>大胆小芳</t>
   </si>
   <si>
     <t>信息集成中心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>老蔡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>集客线</t>
+  </si>
+  <si>
+    <t>普通员工</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>不存在任何问题</t>
   </si>
   <si>
     <t>经过调查，该同志思想觉悟很高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不存在任何问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t xml:space="preserve">rejwpqo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jfodsajp </t>
   </si>
   <si>
     <t>参加工作时间与实际不太一致</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rl;qrjeowpqjwq </t>
+  </si>
+  <si>
+    <t>i4329014u</t>
   </si>
   <si>
     <t>暂无任何问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、档案记载1985.09-1989.07就读华东工学院电子工程系电子工程专业全日制本科，缺少学生登记表。
+2、档案记载1992.09-1995.04就读华南理工大学无线电工程系通信与电子系统专业研究生，缺少研究生登记表、成绩单</t>
+  </si>
+  <si>
+    <t>1、 学生登记表为一般性材料,经组织研究认定其具有华东工学院电子工程系电子工程专业全日制本科学历。
+2、 本人无法补充华南理工大学无线电工程系通信与电子系统专业研究生研究生登记表、成绩单，本人提供研究生学历鉴定报告，经组织研究认定其具有研究生学历。</t>
+  </si>
+  <si>
+    <t>本科</t>
+  </si>
+  <si>
+    <t>学士</t>
+  </si>
+  <si>
+    <t>补充相关材料</t>
+  </si>
+  <si>
+    <t>lzz</t>
   </si>
 </sst>
 </file>
@@ -665,7 +625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,9 +710,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -774,6 +731,21 @@
     <xf numFmtId="14" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -786,12 +758,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -799,12 +765,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,9 +792,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1121,13 +1078,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR150"/>
+  <dimension ref="A1:AR148"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -1150,9 +1107,9 @@
     <col min="16" max="16" width="18.625" style="24" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="34.875" style="24" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="35" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="19.875" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="19.875" style="33" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="19.875" style="27" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="19.875" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="19.875" style="33" customWidth="1" outlineLevel="1"/>
     <col min="22" max="22" width="15.625" style="24" customWidth="1" outlineLevel="1"/>
     <col min="23" max="23" width="36.625" style="24" customWidth="1"/>
     <col min="24" max="24" width="33" style="24" bestFit="1" customWidth="1"/>
@@ -1178,39 +1135,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="38"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="42"/>
       <c r="P1" s="47" t="s">
         <v>8</v>
       </c>
@@ -1220,14 +1177,14 @@
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
       <c r="V1" s="49"/>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="38"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="42"/>
       <c r="AC1" s="50" t="s">
         <v>10</v>
       </c>
@@ -1241,36 +1198,36 @@
       </c>
       <c r="AJ1" s="54"/>
       <c r="AK1" s="55"/>
-      <c r="AL1" s="36" t="s">
+      <c r="AL1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="39" t="s">
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AQ1" s="39" t="s">
+      <c r="AQ1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AR1" s="42" t="s">
+      <c r="AR1" s="44" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:44" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="46"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>17</v>
@@ -1296,13 +1253,13 @@
       <c r="R2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="35" t="s">
+      <c r="U2" s="34" t="s">
         <v>28</v>
       </c>
       <c r="V2" s="2" t="s">
@@ -1344,13 +1301,13 @@
       <c r="AH2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="30" t="s">
+      <c r="AI2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AJ2" s="30" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="30" t="s">
+      <c r="AK2" s="29" t="s">
         <v>30</v>
       </c>
       <c r="AL2" s="2" t="s">
@@ -1365,34 +1322,34 @@
       <c r="AO2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="42"/>
-    </row>
-    <row r="3" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="44"/>
+    </row>
+    <row r="3" spans="1:44" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>998</v>
+        <v>2008</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>35</v>
@@ -1416,31 +1373,31 @@
         <v>34</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="S3" s="23">
         <v>44166</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U3" s="23">
         <v>44166</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y3" s="23">
         <v>36192</v>
@@ -1449,195 +1406,107 @@
         <v>36192</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="AI3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AK3" s="9" t="s">
         <v>41</v>
       </c>
       <c r="AL3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AM3" s="9" t="s">
+      <c r="AM3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AN3" s="9" t="s">
+      <c r="AN3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="AO3" s="9" t="s">
         <v>45</v>
       </c>
       <c r="AP3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AQ3" s="28" t="b">
-        <v>0</v>
-      </c>
       <c r="AR3" s="9" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>955</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="23">
-        <v>24290</v>
-      </c>
-      <c r="L4" s="23">
-        <v>35248</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" s="23">
-        <v>44166</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="U4" s="23">
-        <v>44166</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y4" s="23">
-        <v>36192</v>
-      </c>
-      <c r="Z4" s="23">
-        <v>36192</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ4" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+    </row>
+    <row r="5" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="6"/>
@@ -1678,22 +1547,22 @@
       <c r="AL5" s="9"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
-      <c r="AO5" s="9"/>
+      <c r="AO5" s="21"/>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
     </row>
-    <row r="6" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:44" s="12" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="3"/>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -1701,17 +1570,17 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
       <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="17"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="9"/>
@@ -1721,10 +1590,10 @@
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
       <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="9"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="17"/>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
@@ -1770,40 +1639,40 @@
       <c r="AL7" s="9"/>
       <c r="AM7" s="11"/>
       <c r="AN7" s="11"/>
-      <c r="AO7" s="21"/>
+      <c r="AO7" s="9"/>
       <c r="AP7" s="9"/>
       <c r="AQ7" s="9"/>
       <c r="AR7" s="9"/>
     </row>
-    <row r="8" spans="1:44" s="12" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="17"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
@@ -1813,10 +1682,10 @@
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
       <c r="AK8" s="9"/>
-      <c r="AL8" s="15"/>
+      <c r="AL8" s="11"/>
       <c r="AM8" s="15"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="17"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="9"/>
       <c r="AP8" s="9"/>
       <c r="AQ8" s="9"/>
       <c r="AR8" s="9"/>
@@ -1824,7 +1693,7 @@
     <row r="9" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -1850,10 +1719,10 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
       <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
       <c r="AI9" s="9"/>
@@ -1870,7 +1739,7 @@
     <row r="10" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -1881,7 +1750,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="17"/>
+      <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -1905,18 +1774,18 @@
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="15"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
+      <c r="AQ10" s="28"/>
       <c r="AR10" s="9"/>
     </row>
     <row r="11" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
       <c r="F11" s="3"/>
@@ -1942,10 +1811,10 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
@@ -1962,7 +1831,7 @@
     <row r="12" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
       <c r="F12" s="3"/>
@@ -1973,7 +1842,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="N12" s="17"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -1981,7 +1850,7 @@
       <c r="S12" s="23"/>
       <c r="T12" s="10"/>
       <c r="U12" s="23"/>
-      <c r="V12" s="9"/>
+      <c r="V12" s="11"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
@@ -1999,16 +1868,16 @@
       <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
+      <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
       <c r="AP12" s="9"/>
-      <c r="AQ12" s="29"/>
+      <c r="AQ12" s="9"/>
       <c r="AR12" s="9"/>
     </row>
     <row r="13" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
       <c r="F13" s="3"/>
@@ -2030,22 +1899,22 @@
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
+      <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
       <c r="AQ13" s="9"/>
@@ -2065,7 +1934,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="17"/>
+      <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
@@ -2073,11 +1942,11 @@
       <c r="S14" s="23"/>
       <c r="T14" s="10"/>
       <c r="U14" s="23"/>
-      <c r="V14" s="11"/>
+      <c r="V14" s="9"/>
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="16"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
@@ -2089,8 +1958,8 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="11"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="22"/>
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
       <c r="AP14" s="9"/>
@@ -2100,7 +1969,7 @@
     <row r="15" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
       <c r="F15" s="3"/>
@@ -2114,41 +1983,41 @@
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="18"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
       <c r="AE15" s="15"/>
       <c r="AF15" s="15"/>
       <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="11"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
       <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
+      <c r="AO15" s="17"/>
       <c r="AP15" s="9"/>
       <c r="AQ15" s="9"/>
       <c r="AR15" s="9"/>
     </row>
-    <row r="16" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="3"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
@@ -2166,12 +2035,12 @@
       <c r="T16" s="10"/>
       <c r="U16" s="23"/>
       <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
@@ -2181,15 +2050,15 @@
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="22"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
       <c r="AQ16" s="9"/>
       <c r="AR16" s="9"/>
     </row>
-    <row r="17" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="6"/>
@@ -2206,31 +2075,31 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="17"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
-      <c r="AL17" s="15"/>
-      <c r="AM17" s="15"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="11"/>
       <c r="AN17" s="9"/>
-      <c r="AO17" s="17"/>
+      <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
       <c r="AQ17" s="9"/>
       <c r="AR17" s="9"/>
@@ -2240,14 +2109,14 @@
       <c r="B18" s="3"/>
       <c r="C18" s="6"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="3"/>
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="L18" s="13"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -2258,12 +2127,12 @@
       <c r="T18" s="10"/>
       <c r="U18" s="23"/>
       <c r="V18" s="9"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
@@ -2273,7 +2142,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
-      <c r="AL18" s="11"/>
+      <c r="AL18" s="9"/>
       <c r="AM18" s="11"/>
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
@@ -2306,8 +2175,8 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
@@ -2339,9 +2208,9 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="13"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="N20" s="17"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
@@ -2378,7 +2247,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="3"/>
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
@@ -2398,8 +2267,8 @@
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
@@ -2433,7 +2302,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="17"/>
+      <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
@@ -2470,7 +2339,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="6"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="3"/>
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
@@ -2483,11 +2352,11 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="9"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="11"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
@@ -2504,7 +2373,7 @@
       <c r="AJ23" s="9"/>
       <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
-      <c r="AM23" s="11"/>
+      <c r="AM23" s="9"/>
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
@@ -2529,11 +2398,11 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="9"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="11"/>
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
@@ -2550,7 +2419,7 @@
       <c r="AJ24" s="9"/>
       <c r="AK24" s="9"/>
       <c r="AL24" s="9"/>
-      <c r="AM24" s="11"/>
+      <c r="AM24" s="9"/>
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
@@ -2575,11 +2444,11 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="11"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
@@ -2606,7 +2475,7 @@
     <row r="26" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="3"/>
       <c r="E26" s="6"/>
       <c r="F26" s="3"/>
@@ -2621,26 +2490,26 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="11"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="9"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
       <c r="AL26" s="9"/>
       <c r="AM26" s="9"/>
       <c r="AN26" s="9"/>
@@ -2695,44 +2564,44 @@
       <c r="AQ27" s="9"/>
       <c r="AR27" s="9"/>
     </row>
-    <row r="28" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+    <row r="28" spans="1:44" s="12" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="15"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
       <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="9"/>
       <c r="AL28" s="9"/>
       <c r="AM28" s="9"/>
       <c r="AN28" s="9"/>
@@ -2746,7 +2615,7 @@
       <c r="B29" s="4"/>
       <c r="C29" s="6"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="6"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="3"/>
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
@@ -2755,7 +2624,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
+      <c r="N29" s="17"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
@@ -2787,39 +2656,39 @@
       <c r="AQ29" s="9"/>
       <c r="AR29" s="9"/>
     </row>
-    <row r="30" spans="1:44" s="12" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="4"/>
+    <row r="30" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
       <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
       <c r="AG30" s="9"/>
       <c r="AH30" s="9"/>
       <c r="AI30" s="9"/>
@@ -2838,16 +2707,16 @@
       <c r="B31" s="4"/>
       <c r="C31" s="6"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="3"/>
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+      <c r="L31" s="13"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="17"/>
+      <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
@@ -2890,10 +2759,10 @@
       <c r="H32" s="8"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="23"/>
+      <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
-      <c r="N32" s="17"/>
+      <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
@@ -2913,10 +2782,10 @@
       <c r="AE32" s="9"/>
       <c r="AF32" s="9"/>
       <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="9"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
       <c r="AL32" s="9"/>
       <c r="AM32" s="9"/>
       <c r="AN32" s="9"/>
@@ -2939,7 +2808,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="13"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
+      <c r="N33" s="17"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
@@ -2994,7 +2863,7 @@
       <c r="T34" s="10"/>
       <c r="U34" s="23"/>
       <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
+      <c r="W34" s="17"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -3005,10 +2874,10 @@
       <c r="AE34" s="9"/>
       <c r="AF34" s="9"/>
       <c r="AG34" s="9"/>
-      <c r="AH34" s="17"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="9"/>
       <c r="AL34" s="9"/>
       <c r="AM34" s="9"/>
       <c r="AN34" s="9"/>
@@ -3022,17 +2891,17 @@
       <c r="B35" s="4"/>
       <c r="C35" s="6"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="3"/>
       <c r="G35" s="7"/>
       <c r="H35" s="8"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="J35" s="17"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="13"/>
+      <c r="L35" s="17"/>
       <c r="M35" s="9"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="9"/>
+      <c r="O35" s="17"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
@@ -3068,7 +2937,7 @@
       <c r="B36" s="3"/>
       <c r="C36" s="6"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="3"/>
       <c r="G36" s="7"/>
       <c r="H36" s="8"/>
@@ -3086,7 +2955,7 @@
       <c r="T36" s="10"/>
       <c r="U36" s="23"/>
       <c r="V36" s="9"/>
-      <c r="W36" s="17"/>
+      <c r="W36" s="9"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -3114,17 +2983,17 @@
       <c r="B37" s="4"/>
       <c r="C37" s="6"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="3"/>
       <c r="G37" s="7"/>
       <c r="H37" s="8"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="17"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="17"/>
+      <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
@@ -3132,10 +3001,10 @@
       <c r="T37" s="10"/>
       <c r="U37" s="23"/>
       <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
+      <c r="W37" s="17"/>
       <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="17"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
@@ -3160,7 +3029,7 @@
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="3"/>
       <c r="G38" s="7"/>
       <c r="H38" s="8"/>
@@ -3206,14 +3075,14 @@
       <c r="B39" s="4"/>
       <c r="C39" s="6"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="6"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="3"/>
       <c r="G39" s="7"/>
       <c r="H39" s="8"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
+      <c r="L39" s="13"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
@@ -3224,10 +3093,10 @@
       <c r="T39" s="10"/>
       <c r="U39" s="23"/>
       <c r="V39" s="9"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="17"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
@@ -3247,7 +3116,7 @@
       <c r="AQ39" s="9"/>
       <c r="AR39" s="9"/>
     </row>
-    <row r="40" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:44" s="12" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="6"/>
@@ -3298,14 +3167,14 @@
       <c r="B41" s="4"/>
       <c r="C41" s="6"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="3"/>
       <c r="G41" s="7"/>
       <c r="H41" s="8"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="13"/>
+      <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
@@ -3317,7 +3186,7 @@
       <c r="U41" s="23"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
-      <c r="X41" s="11"/>
+      <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
@@ -3339,7 +3208,7 @@
       <c r="AQ41" s="9"/>
       <c r="AR41" s="9"/>
     </row>
-    <row r="42" spans="1:44" s="12" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="6"/>
@@ -3362,8 +3231,8 @@
       <c r="T42" s="10"/>
       <c r="U42" s="23"/>
       <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
@@ -3409,7 +3278,7 @@
       <c r="U43" s="23"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
+      <c r="X43" s="11"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
@@ -3454,10 +3323,10 @@
       <c r="T44" s="10"/>
       <c r="U44" s="23"/>
       <c r="V44" s="9"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
@@ -3501,7 +3370,7 @@
       <c r="U45" s="23"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
-      <c r="X45" s="11"/>
+      <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
@@ -3548,8 +3417,8 @@
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="17"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
@@ -3574,7 +3443,7 @@
       <c r="B47" s="4"/>
       <c r="C47" s="6"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="6"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="3"/>
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
@@ -3666,7 +3535,7 @@
       <c r="B49" s="4"/>
       <c r="C49" s="6"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="6"/>
       <c r="F49" s="3"/>
       <c r="G49" s="7"/>
       <c r="H49" s="8"/>
@@ -3746,9 +3615,9 @@
       <c r="AJ50" s="9"/>
       <c r="AK50" s="9"/>
       <c r="AL50" s="9"/>
-      <c r="AM50" s="9"/>
+      <c r="AM50" s="15"/>
       <c r="AN50" s="9"/>
-      <c r="AO50" s="9"/>
+      <c r="AO50" s="17"/>
       <c r="AP50" s="9"/>
       <c r="AQ50" s="9"/>
       <c r="AR50" s="9"/>
@@ -3787,10 +3656,10 @@
       <c r="AE51" s="9"/>
       <c r="AF51" s="9"/>
       <c r="AG51" s="9"/>
-      <c r="AH51" s="9"/>
-      <c r="AI51" s="9"/>
-      <c r="AJ51" s="9"/>
-      <c r="AK51" s="9"/>
+      <c r="AH51" s="17"/>
+      <c r="AI51" s="17"/>
+      <c r="AJ51" s="17"/>
+      <c r="AK51" s="17"/>
       <c r="AL51" s="9"/>
       <c r="AM51" s="9"/>
       <c r="AN51" s="9"/>
@@ -3813,7 +3682,7 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
+      <c r="N52" s="17"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
@@ -3838,9 +3707,9 @@
       <c r="AJ52" s="9"/>
       <c r="AK52" s="9"/>
       <c r="AL52" s="9"/>
-      <c r="AM52" s="15"/>
+      <c r="AM52" s="9"/>
       <c r="AN52" s="9"/>
-      <c r="AO52" s="17"/>
+      <c r="AO52" s="9"/>
       <c r="AP52" s="9"/>
       <c r="AQ52" s="9"/>
       <c r="AR52" s="9"/>
@@ -3856,10 +3725,10 @@
       <c r="H53" s="8"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+      <c r="K53" s="23"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
+      <c r="N53" s="17"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
@@ -3879,10 +3748,10 @@
       <c r="AE53" s="9"/>
       <c r="AF53" s="9"/>
       <c r="AG53" s="9"/>
-      <c r="AH53" s="17"/>
-      <c r="AI53" s="17"/>
-      <c r="AJ53" s="17"/>
-      <c r="AK53" s="17"/>
+      <c r="AH53" s="9"/>
+      <c r="AI53" s="9"/>
+      <c r="AJ53" s="9"/>
+      <c r="AK53" s="9"/>
       <c r="AL53" s="9"/>
       <c r="AM53" s="9"/>
       <c r="AN53" s="9"/>
@@ -3896,13 +3765,13 @@
       <c r="B54" s="3"/>
       <c r="C54" s="6"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="6"/>
+      <c r="E54" s="5"/>
       <c r="F54" s="3"/>
       <c r="G54" s="7"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="23"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="17"/>
@@ -3948,10 +3817,10 @@
       <c r="H55" s="8"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
-      <c r="K55" s="23"/>
+      <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
-      <c r="N55" s="17"/>
+      <c r="N55" s="9"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
@@ -3992,12 +3861,12 @@
       <c r="F56" s="3"/>
       <c r="G56" s="7"/>
       <c r="H56" s="8"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="23"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
-      <c r="N56" s="17"/>
+      <c r="N56" s="9"/>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
@@ -4080,7 +3949,7 @@
       <c r="B58" s="3"/>
       <c r="C58" s="6"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="5"/>
+      <c r="E58" s="6"/>
       <c r="F58" s="3"/>
       <c r="G58" s="7"/>
       <c r="H58" s="8"/>
@@ -4354,7 +4223,7 @@
     <row r="64" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="6"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="3"/>
       <c r="E64" s="6"/>
       <c r="F64" s="3"/>
@@ -4446,7 +4315,7 @@
     <row r="66" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="5"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="3"/>
       <c r="E66" s="6"/>
       <c r="F66" s="3"/>
@@ -4518,16 +4387,16 @@
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
-      <c r="AC67" s="9"/>
-      <c r="AD67" s="9"/>
-      <c r="AE67" s="9"/>
-      <c r="AF67" s="9"/>
+      <c r="AC67" s="11"/>
+      <c r="AD67" s="11"/>
+      <c r="AE67" s="11"/>
+      <c r="AF67" s="11"/>
       <c r="AG67" s="9"/>
       <c r="AH67" s="9"/>
       <c r="AI67" s="9"/>
       <c r="AJ67" s="9"/>
       <c r="AK67" s="9"/>
-      <c r="AL67" s="9"/>
+      <c r="AL67" s="17"/>
       <c r="AM67" s="9"/>
       <c r="AN67" s="9"/>
       <c r="AO67" s="9"/>
@@ -4540,7 +4409,7 @@
       <c r="B68" s="3"/>
       <c r="C68" s="6"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="6"/>
+      <c r="E68" s="5"/>
       <c r="F68" s="3"/>
       <c r="G68" s="7"/>
       <c r="H68" s="8"/>
@@ -4610,16 +4479,16 @@
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
-      <c r="AC69" s="11"/>
-      <c r="AD69" s="11"/>
-      <c r="AE69" s="11"/>
-      <c r="AF69" s="11"/>
+      <c r="AC69" s="9"/>
+      <c r="AD69" s="9"/>
+      <c r="AE69" s="9"/>
+      <c r="AF69" s="9"/>
       <c r="AG69" s="9"/>
       <c r="AH69" s="9"/>
       <c r="AI69" s="9"/>
       <c r="AJ69" s="9"/>
       <c r="AK69" s="9"/>
-      <c r="AL69" s="17"/>
+      <c r="AL69" s="9"/>
       <c r="AM69" s="9"/>
       <c r="AN69" s="9"/>
       <c r="AO69" s="9"/>
@@ -4632,7 +4501,7 @@
       <c r="B70" s="3"/>
       <c r="C70" s="6"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="5"/>
+      <c r="E70" s="6"/>
       <c r="F70" s="3"/>
       <c r="G70" s="7"/>
       <c r="H70" s="8"/>
@@ -4811,7 +4680,7 @@
       <c r="AQ73" s="9"/>
       <c r="AR73" s="9"/>
     </row>
-    <row r="74" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:44" s="12" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="6"/>
@@ -4903,12 +4772,12 @@
       <c r="AQ75" s="9"/>
       <c r="AR75" s="9"/>
     </row>
-    <row r="76" spans="1:44" s="12" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="6"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="6"/>
+      <c r="E76" s="5"/>
       <c r="F76" s="3"/>
       <c r="G76" s="7"/>
       <c r="H76" s="8"/>
@@ -5000,7 +4869,7 @@
       <c r="B78" s="3"/>
       <c r="C78" s="6"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="5"/>
+      <c r="E78" s="6"/>
       <c r="F78" s="3"/>
       <c r="G78" s="7"/>
       <c r="H78" s="8"/>
@@ -5225,7 +5094,7 @@
       <c r="AQ82" s="9"/>
       <c r="AR82" s="9"/>
     </row>
-    <row r="83" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:44" s="12" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="6"/>
@@ -5276,7 +5145,7 @@
       <c r="B84" s="3"/>
       <c r="C84" s="6"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="6"/>
+      <c r="E84" s="5"/>
       <c r="F84" s="3"/>
       <c r="G84" s="7"/>
       <c r="H84" s="8"/>
@@ -5317,7 +5186,7 @@
       <c r="AQ84" s="9"/>
       <c r="AR84" s="9"/>
     </row>
-    <row r="85" spans="1:44" s="12" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="6"/>
@@ -5368,7 +5237,7 @@
       <c r="B86" s="3"/>
       <c r="C86" s="6"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="5"/>
+      <c r="E86" s="6"/>
       <c r="F86" s="3"/>
       <c r="G86" s="7"/>
       <c r="H86" s="8"/>
@@ -5576,10 +5445,10 @@
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
-      <c r="AC90" s="9"/>
-      <c r="AD90" s="9"/>
-      <c r="AE90" s="9"/>
-      <c r="AF90" s="9"/>
+      <c r="AC90" s="11"/>
+      <c r="AD90" s="11"/>
+      <c r="AE90" s="11"/>
+      <c r="AF90" s="11"/>
       <c r="AG90" s="9"/>
       <c r="AH90" s="9"/>
       <c r="AI90" s="9"/>
@@ -5668,10 +5537,10 @@
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
       <c r="AB92" s="9"/>
-      <c r="AC92" s="11"/>
-      <c r="AD92" s="11"/>
-      <c r="AE92" s="11"/>
-      <c r="AF92" s="11"/>
+      <c r="AC92" s="9"/>
+      <c r="AD92" s="9"/>
+      <c r="AE92" s="9"/>
+      <c r="AF92" s="9"/>
       <c r="AG92" s="9"/>
       <c r="AH92" s="9"/>
       <c r="AI92" s="9"/>
@@ -5777,7 +5646,7 @@
       <c r="AQ94" s="9"/>
       <c r="AR94" s="9"/>
     </row>
-    <row r="95" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:44" s="12" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="6"/>
@@ -5869,7 +5738,7 @@
       <c r="AQ96" s="9"/>
       <c r="AR96" s="9"/>
     </row>
-    <row r="97" spans="1:44" s="12" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="6"/>
@@ -6150,7 +6019,7 @@
       <c r="B103" s="4"/>
       <c r="C103" s="6"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="6"/>
+      <c r="E103" s="5"/>
       <c r="F103" s="3"/>
       <c r="G103" s="7"/>
       <c r="H103" s="8"/>
@@ -6266,10 +6135,10 @@
       <c r="Z105" s="9"/>
       <c r="AA105" s="9"/>
       <c r="AB105" s="9"/>
-      <c r="AC105" s="9"/>
-      <c r="AD105" s="9"/>
-      <c r="AE105" s="9"/>
-      <c r="AF105" s="9"/>
+      <c r="AC105" s="11"/>
+      <c r="AD105" s="11"/>
+      <c r="AE105" s="11"/>
+      <c r="AF105" s="11"/>
       <c r="AG105" s="9"/>
       <c r="AH105" s="9"/>
       <c r="AI105" s="9"/>
@@ -6334,7 +6203,7 @@
       <c r="B107" s="4"/>
       <c r="C107" s="6"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="5"/>
+      <c r="E107" s="6"/>
       <c r="F107" s="3"/>
       <c r="G107" s="7"/>
       <c r="H107" s="8"/>
@@ -6352,16 +6221,16 @@
       <c r="T107" s="10"/>
       <c r="U107" s="23"/>
       <c r="V107" s="9"/>
-      <c r="W107" s="9"/>
+      <c r="W107" s="17"/>
       <c r="X107" s="9"/>
-      <c r="Y107" s="9"/>
-      <c r="Z107" s="9"/>
+      <c r="Y107" s="19"/>
+      <c r="Z107" s="17"/>
       <c r="AA107" s="9"/>
-      <c r="AB107" s="9"/>
-      <c r="AC107" s="11"/>
-      <c r="AD107" s="11"/>
-      <c r="AE107" s="11"/>
-      <c r="AF107" s="11"/>
+      <c r="AB107" s="17"/>
+      <c r="AC107" s="9"/>
+      <c r="AD107" s="9"/>
+      <c r="AE107" s="9"/>
+      <c r="AF107" s="9"/>
       <c r="AG107" s="9"/>
       <c r="AH107" s="9"/>
       <c r="AI107" s="9"/>
@@ -6399,20 +6268,20 @@
       <c r="U108" s="23"/>
       <c r="V108" s="9"/>
       <c r="W108" s="9"/>
-      <c r="X108" s="9"/>
+      <c r="X108" s="11"/>
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
       <c r="AB108" s="9"/>
-      <c r="AC108" s="9"/>
-      <c r="AD108" s="9"/>
-      <c r="AE108" s="9"/>
-      <c r="AF108" s="9"/>
-      <c r="AG108" s="9"/>
-      <c r="AH108" s="9"/>
-      <c r="AI108" s="9"/>
-      <c r="AJ108" s="9"/>
-      <c r="AK108" s="9"/>
+      <c r="AC108" s="17"/>
+      <c r="AD108" s="17"/>
+      <c r="AE108" s="17"/>
+      <c r="AF108" s="17"/>
+      <c r="AG108" s="17"/>
+      <c r="AH108" s="17"/>
+      <c r="AI108" s="17"/>
+      <c r="AJ108" s="17"/>
+      <c r="AK108" s="17"/>
       <c r="AL108" s="9"/>
       <c r="AM108" s="9"/>
       <c r="AN108" s="9"/>
@@ -6424,7 +6293,7 @@
     <row r="109" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="6"/>
+      <c r="C109" s="5"/>
       <c r="D109" s="3"/>
       <c r="E109" s="6"/>
       <c r="F109" s="3"/>
@@ -6444,12 +6313,12 @@
       <c r="T109" s="10"/>
       <c r="U109" s="23"/>
       <c r="V109" s="9"/>
-      <c r="W109" s="17"/>
+      <c r="W109" s="9"/>
       <c r="X109" s="9"/>
-      <c r="Y109" s="19"/>
-      <c r="Z109" s="17"/>
+      <c r="Y109" s="9"/>
+      <c r="Z109" s="9"/>
       <c r="AA109" s="9"/>
-      <c r="AB109" s="17"/>
+      <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
       <c r="AD109" s="9"/>
       <c r="AE109" s="9"/>
@@ -6491,20 +6360,20 @@
       <c r="U110" s="23"/>
       <c r="V110" s="9"/>
       <c r="W110" s="9"/>
-      <c r="X110" s="11"/>
+      <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
       <c r="AB110" s="9"/>
-      <c r="AC110" s="17"/>
-      <c r="AD110" s="17"/>
-      <c r="AE110" s="17"/>
-      <c r="AF110" s="17"/>
-      <c r="AG110" s="17"/>
-      <c r="AH110" s="17"/>
-      <c r="AI110" s="17"/>
-      <c r="AJ110" s="17"/>
-      <c r="AK110" s="17"/>
+      <c r="AC110" s="9"/>
+      <c r="AD110" s="9"/>
+      <c r="AE110" s="9"/>
+      <c r="AF110" s="9"/>
+      <c r="AG110" s="9"/>
+      <c r="AH110" s="9"/>
+      <c r="AI110" s="9"/>
+      <c r="AJ110" s="9"/>
+      <c r="AK110" s="9"/>
       <c r="AL110" s="9"/>
       <c r="AM110" s="9"/>
       <c r="AN110" s="9"/>
@@ -6516,9 +6385,9 @@
     <row r="111" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="5"/>
+      <c r="C111" s="6"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="6"/>
+      <c r="E111" s="5"/>
       <c r="F111" s="3"/>
       <c r="G111" s="7"/>
       <c r="H111" s="8"/>
@@ -6538,8 +6407,8 @@
       <c r="V111" s="9"/>
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
-      <c r="Y111" s="9"/>
-      <c r="Z111" s="9"/>
+      <c r="Y111" s="17"/>
+      <c r="Z111" s="17"/>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
@@ -6564,7 +6433,7 @@
       <c r="B112" s="3"/>
       <c r="C112" s="6"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="6"/>
+      <c r="E112" s="5"/>
       <c r="F112" s="3"/>
       <c r="G112" s="7"/>
       <c r="H112" s="8"/>
@@ -6610,7 +6479,7 @@
       <c r="B113" s="4"/>
       <c r="C113" s="6"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="5"/>
+      <c r="E113" s="6"/>
       <c r="F113" s="3"/>
       <c r="G113" s="7"/>
       <c r="H113" s="8"/>
@@ -6630,8 +6499,8 @@
       <c r="V113" s="9"/>
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
-      <c r="Y113" s="17"/>
-      <c r="Z113" s="17"/>
+      <c r="Y113" s="9"/>
+      <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
@@ -6665,7 +6534,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
       <c r="M114" s="9"/>
-      <c r="N114" s="9"/>
+      <c r="N114" s="17"/>
       <c r="O114" s="9"/>
       <c r="P114" s="9"/>
       <c r="Q114" s="9"/>
@@ -6708,10 +6577,10 @@
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
+      <c r="K115" s="23"/>
       <c r="L115" s="9"/>
       <c r="M115" s="9"/>
-      <c r="N115" s="9"/>
+      <c r="N115" s="17"/>
       <c r="O115" s="9"/>
       <c r="P115" s="9"/>
       <c r="Q115" s="9"/>
@@ -6748,7 +6617,7 @@
       <c r="B116" s="3"/>
       <c r="C116" s="6"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="5"/>
+      <c r="E116" s="6"/>
       <c r="F116" s="3"/>
       <c r="G116" s="7"/>
       <c r="H116" s="8"/>
@@ -6757,7 +6626,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
       <c r="M116" s="9"/>
-      <c r="N116" s="17"/>
+      <c r="N116" s="9"/>
       <c r="O116" s="9"/>
       <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
@@ -6800,10 +6669,10 @@
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
-      <c r="K117" s="23"/>
+      <c r="K117" s="9"/>
       <c r="L117" s="9"/>
       <c r="M117" s="9"/>
-      <c r="N117" s="17"/>
+      <c r="N117" s="9"/>
       <c r="O117" s="9"/>
       <c r="P117" s="9"/>
       <c r="Q117" s="9"/>
@@ -6930,7 +6799,7 @@
     <row r="120" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
-      <c r="C120" s="6"/>
+      <c r="C120" s="5"/>
       <c r="D120" s="3"/>
       <c r="E120" s="6"/>
       <c r="F120" s="3"/>
@@ -6939,7 +6808,7 @@
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
+      <c r="L120" s="13"/>
       <c r="M120" s="9"/>
       <c r="N120" s="9"/>
       <c r="O120" s="9"/>
@@ -6976,7 +6845,7 @@
     <row r="121" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="6"/>
+      <c r="C121" s="5"/>
       <c r="D121" s="3"/>
       <c r="E121" s="6"/>
       <c r="F121" s="3"/>
@@ -7031,7 +6900,7 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
-      <c r="L122" s="13"/>
+      <c r="L122" s="9"/>
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
       <c r="O122" s="9"/>
@@ -7162,7 +7031,7 @@
       <c r="B125" s="4"/>
       <c r="C125" s="5"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="6"/>
+      <c r="E125" s="5"/>
       <c r="F125" s="3"/>
       <c r="G125" s="7"/>
       <c r="H125" s="8"/>
@@ -7208,7 +7077,7 @@
       <c r="B126" s="3"/>
       <c r="C126" s="5"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="6"/>
+      <c r="E126" s="5"/>
       <c r="F126" s="3"/>
       <c r="G126" s="7"/>
       <c r="H126" s="8"/>
@@ -7254,7 +7123,7 @@
       <c r="B127" s="4"/>
       <c r="C127" s="5"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="5"/>
+      <c r="E127" s="6"/>
       <c r="F127" s="3"/>
       <c r="G127" s="7"/>
       <c r="H127" s="8"/>
@@ -7346,7 +7215,7 @@
       <c r="B129" s="4"/>
       <c r="C129" s="5"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="6"/>
+      <c r="E129" s="5"/>
       <c r="F129" s="3"/>
       <c r="G129" s="7"/>
       <c r="H129" s="8"/>
@@ -7392,7 +7261,7 @@
       <c r="B130" s="3"/>
       <c r="C130" s="5"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="5"/>
+      <c r="E130" s="6"/>
       <c r="F130" s="3"/>
       <c r="G130" s="7"/>
       <c r="H130" s="8"/>
@@ -7438,7 +7307,7 @@
       <c r="B131" s="4"/>
       <c r="C131" s="5"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="5"/>
+      <c r="E131" s="6"/>
       <c r="F131" s="3"/>
       <c r="G131" s="7"/>
       <c r="H131" s="8"/>
@@ -7596,7 +7465,7 @@
       <c r="V134" s="9"/>
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
-      <c r="Y134" s="9"/>
+      <c r="Y134" s="23"/>
       <c r="Z134" s="9"/>
       <c r="AA134" s="9"/>
       <c r="AB134" s="9"/>
@@ -7620,7 +7489,7 @@
     <row r="135" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="5"/>
+      <c r="C135" s="6"/>
       <c r="D135" s="3"/>
       <c r="E135" s="6"/>
       <c r="F135" s="3"/>
@@ -7666,7 +7535,7 @@
     <row r="136" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="5"/>
+      <c r="C136" s="6"/>
       <c r="D136" s="3"/>
       <c r="E136" s="6"/>
       <c r="F136" s="3"/>
@@ -7688,7 +7557,7 @@
       <c r="V136" s="9"/>
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
-      <c r="Y136" s="23"/>
+      <c r="Y136" s="9"/>
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
       <c r="AB136" s="9"/>
@@ -7709,7 +7578,7 @@
       <c r="AQ136" s="9"/>
       <c r="AR136" s="9"/>
     </row>
-    <row r="137" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:44" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="6"/>
@@ -7758,9 +7627,9 @@
     <row r="138" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="6"/>
+      <c r="C138" s="5"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="6"/>
+      <c r="E138" s="5"/>
       <c r="F138" s="3"/>
       <c r="G138" s="7"/>
       <c r="H138" s="8"/>
@@ -7801,7 +7670,7 @@
       <c r="AQ138" s="9"/>
       <c r="AR138" s="9"/>
     </row>
-    <row r="139" spans="1:44" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="6"/>
@@ -7850,7 +7719,7 @@
     <row r="140" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
-      <c r="C140" s="5"/>
+      <c r="C140" s="6"/>
       <c r="D140" s="3"/>
       <c r="E140" s="5"/>
       <c r="F140" s="3"/>
@@ -7944,7 +7813,7 @@
       <c r="B142" s="3"/>
       <c r="C142" s="6"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="5"/>
+      <c r="E142" s="6"/>
       <c r="F142" s="3"/>
       <c r="G142" s="7"/>
       <c r="H142" s="8"/>
@@ -8261,111 +8130,13 @@
       <c r="AQ148" s="9"/>
       <c r="AR148" s="9"/>
     </row>
-    <row r="149" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="9"/>
-      <c r="J149" s="9"/>
-      <c r="K149" s="9"/>
-      <c r="L149" s="9"/>
-      <c r="M149" s="9"/>
-      <c r="N149" s="9"/>
-      <c r="O149" s="9"/>
-      <c r="P149" s="9"/>
-      <c r="Q149" s="9"/>
-      <c r="R149" s="9"/>
-      <c r="S149" s="23"/>
-      <c r="T149" s="10"/>
-      <c r="U149" s="23"/>
-      <c r="V149" s="9"/>
-      <c r="W149" s="9"/>
-      <c r="X149" s="9"/>
-      <c r="Y149" s="9"/>
-      <c r="Z149" s="9"/>
-      <c r="AA149" s="9"/>
-      <c r="AB149" s="9"/>
-      <c r="AC149" s="9"/>
-      <c r="AD149" s="9"/>
-      <c r="AE149" s="9"/>
-      <c r="AF149" s="9"/>
-      <c r="AG149" s="9"/>
-      <c r="AH149" s="9"/>
-      <c r="AI149" s="9"/>
-      <c r="AJ149" s="9"/>
-      <c r="AK149" s="9"/>
-      <c r="AL149" s="9"/>
-      <c r="AM149" s="9"/>
-      <c r="AN149" s="9"/>
-      <c r="AO149" s="9"/>
-      <c r="AP149" s="9"/>
-      <c r="AQ149" s="9"/>
-      <c r="AR149" s="9"/>
-    </row>
-    <row r="150" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="9"/>
-      <c r="J150" s="9"/>
-      <c r="K150" s="9"/>
-      <c r="L150" s="9"/>
-      <c r="M150" s="9"/>
-      <c r="N150" s="9"/>
-      <c r="O150" s="9"/>
-      <c r="P150" s="9"/>
-      <c r="Q150" s="9"/>
-      <c r="R150" s="9"/>
-      <c r="S150" s="23"/>
-      <c r="T150" s="10"/>
-      <c r="U150" s="23"/>
-      <c r="V150" s="9"/>
-      <c r="W150" s="9"/>
-      <c r="X150" s="9"/>
-      <c r="Y150" s="9"/>
-      <c r="Z150" s="9"/>
-      <c r="AA150" s="9"/>
-      <c r="AB150" s="9"/>
-      <c r="AC150" s="9"/>
-      <c r="AD150" s="9"/>
-      <c r="AE150" s="9"/>
-      <c r="AF150" s="9"/>
-      <c r="AG150" s="9"/>
-      <c r="AH150" s="9"/>
-      <c r="AI150" s="9"/>
-      <c r="AJ150" s="9"/>
-      <c r="AK150" s="9"/>
-      <c r="AL150" s="9"/>
-      <c r="AM150" s="9"/>
-      <c r="AN150" s="9"/>
-      <c r="AO150" s="9"/>
-      <c r="AP150" s="9"/>
-      <c r="AQ150" s="9"/>
-      <c r="AR150" s="9"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AS150" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AN150">
-      <sortCondition ref="A2:A150"/>
+  <autoFilter ref="A2:AS148" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AN148">
+      <sortCondition ref="A2:A148"/>
     </sortState>
   </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AP1:AP2"/>
     <mergeCell ref="AQ1:AQ2"/>
@@ -8377,6 +8148,12 @@
     <mergeCell ref="W1:AB1"/>
     <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/src/main/resources/template/employee.xlsx
+++ b/src/main/resources/template/employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B8E606-BC4D-4403-9914-8415558B2F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB36347-5FA6-4F2E-ACDE-F124CEEB2156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="汇总表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">汇总表!$A$2:$AR$150</definedName>
-    <definedName name="_GoBack" localSheetId="0">汇总表!$AC$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">汇总表!$A$2:$AS$150</definedName>
+    <definedName name="_GoBack" localSheetId="0">汇总表!$AD$147</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">汇总表!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -36,7 +36,7 @@
     <author>李嘉敏</author>
   </authors>
   <commentList>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC107" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AD107" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -414,6 +414,10 @@
   </si>
   <si>
     <t>yyj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -754,13 +758,16 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,6 +797,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -808,16 +821,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1104,520 +1108,531 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ150"/>
+  <dimension ref="A1:AR150"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="25" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="30.88671875" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="25.33203125" style="24" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="14.109375" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="14.88671875" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="16.33203125" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="17.109375" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="21.77734375" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="18.6640625" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="34.88671875" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="35" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="19.88671875" style="52" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="19.88671875" style="27" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="19.88671875" style="52" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="15.6640625" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="36.6640625" style="24" customWidth="1"/>
-    <col min="23" max="23" width="33" style="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.33203125" style="24" customWidth="1"/>
-    <col min="26" max="26" width="12.109375" style="24" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="48.33203125" style="24" customWidth="1"/>
-    <col min="29" max="29" width="36.77734375" style="24" customWidth="1"/>
-    <col min="30" max="31" width="11.109375" style="24" customWidth="1"/>
-    <col min="32" max="32" width="8" style="24" customWidth="1"/>
-    <col min="33" max="33" width="22.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.21875" style="24" customWidth="1"/>
-    <col min="35" max="36" width="22.21875" style="24" customWidth="1"/>
-    <col min="37" max="37" width="37.33203125" style="24" customWidth="1"/>
-    <col min="38" max="38" width="32.21875" style="24" customWidth="1"/>
-    <col min="39" max="39" width="12.6640625" style="24" customWidth="1"/>
-    <col min="40" max="40" width="21.21875" style="24" customWidth="1"/>
-    <col min="41" max="41" width="32.6640625" style="24" customWidth="1"/>
-    <col min="42" max="42" width="11.88671875" style="24" customWidth="1"/>
-    <col min="43" max="43" width="9" style="24" customWidth="1"/>
-    <col min="44" max="16384" width="9" style="24"/>
+    <col min="2" max="2" width="8.5546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="30.88671875" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="25.33203125" style="24" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="14.109375" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="14.88671875" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="16.33203125" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="17.109375" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="21.77734375" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="18.6640625" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="34.88671875" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="35" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="19.88671875" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="19.88671875" style="27" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="19.88671875" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="15.6640625" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="36.6640625" style="24" customWidth="1"/>
+    <col min="24" max="24" width="33" style="24" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.21875" style="24" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.33203125" style="24" customWidth="1"/>
+    <col min="27" max="27" width="12.109375" style="24" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="48.33203125" style="24" customWidth="1"/>
+    <col min="30" max="30" width="36.77734375" style="24" customWidth="1"/>
+    <col min="31" max="32" width="11.109375" style="24" customWidth="1"/>
+    <col min="33" max="33" width="8" style="24" customWidth="1"/>
+    <col min="34" max="34" width="22.21875" style="24" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.21875" style="24" customWidth="1"/>
+    <col min="36" max="37" width="22.21875" style="24" customWidth="1"/>
+    <col min="38" max="38" width="37.33203125" style="24" customWidth="1"/>
+    <col min="39" max="39" width="32.21875" style="24" customWidth="1"/>
+    <col min="40" max="40" width="12.6640625" style="24" customWidth="1"/>
+    <col min="41" max="41" width="21.21875" style="24" customWidth="1"/>
+    <col min="42" max="42" width="32.6640625" style="24" customWidth="1"/>
+    <col min="43" max="43" width="11.88671875" style="24" customWidth="1"/>
+    <col min="44" max="44" width="9" style="24" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:44" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="G1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="37"/>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="38"/>
+      <c r="P1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="35" t="s">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
       <c r="AA1" s="37"/>
-      <c r="AB1" s="44" t="s">
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="47" t="s">
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="35" t="s">
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
+      <c r="AM1" s="37"/>
       <c r="AN1" s="37"/>
-      <c r="AO1" s="38" t="s">
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AP1" s="38" t="s">
+      <c r="AQ1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AQ1" s="41" t="s">
+      <c r="AR1" s="42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="2" t="s">
+    <row r="2" spans="1:44" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="53"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="S2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="T2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="53" t="s">
+      <c r="U2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="30" t="s">
+      <c r="AI2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AI2" s="30" t="s">
+      <c r="AJ2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AJ2" s="30" t="s">
+      <c r="AK2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AO2" s="39"/>
       <c r="AP2" s="40"/>
       <c r="AQ2" s="41"/>
-    </row>
-    <row r="3" spans="1:43" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR2" s="42"/>
+    </row>
+    <row r="3" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4">
+        <v>12514</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="23">
+      <c r="K3" s="23">
         <v>24290</v>
       </c>
-      <c r="K3" s="23">
+      <c r="L3" s="23">
         <v>35248</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="S3" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="T3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="U3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="W3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="X3" s="23">
-        <v>36192</v>
       </c>
       <c r="Y3" s="23">
         <v>36192</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="23">
+        <v>36192</v>
+      </c>
+      <c r="AA3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AB3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AC3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AD3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AE3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AF3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AG3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AH3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AI3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AK3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AL3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AL3" s="9" t="s">
+      <c r="AM3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AM3" s="9" t="s">
+      <c r="AN3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AN3" s="9" t="s">
+      <c r="AO3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AO3" s="9" t="s">
+      <c r="AP3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP3" s="28" t="b">
+      <c r="AQ3" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="AQ3" s="9" t="s">
+      <c r="AR3" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:43" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4">
+        <v>43532</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="23">
+      <c r="K4" s="23">
         <v>24290</v>
       </c>
-      <c r="K4" s="23">
+      <c r="L4" s="23">
         <v>35248</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="S4" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="U4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="X4" s="23">
-        <v>36192</v>
       </c>
       <c r="Y4" s="23">
         <v>36192</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="Z4" s="23">
+        <v>36192</v>
+      </c>
+      <c r="AA4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AD4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AH4" s="11" t="s">
+      <c r="AI4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AK4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AL4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AM4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AN4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AO4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AP4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP4" s="28" t="b">
+      <c r="AQ4" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="AQ4" s="9" t="s">
+      <c r="AR4" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:43" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -1627,10 +1642,10 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="23"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
@@ -1647,22 +1662,23 @@
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
-      <c r="AL5" s="11"/>
+      <c r="AL5" s="9"/>
       <c r="AM5" s="11"/>
-      <c r="AN5" s="9"/>
+      <c r="AN5" s="11"/>
       <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
-    </row>
-    <row r="6" spans="1:43" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR5" s="9"/>
+    </row>
+    <row r="6" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -1672,10 +1688,10 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="23"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
@@ -1692,22 +1708,23 @@
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
       <c r="AK6" s="9"/>
-      <c r="AL6" s="11"/>
+      <c r="AL6" s="9"/>
       <c r="AM6" s="11"/>
-      <c r="AN6" s="9"/>
+      <c r="AN6" s="11"/>
       <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="9"/>
-    </row>
-    <row r="7" spans="1:43" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR6" s="9"/>
+    </row>
+    <row r="7" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -1717,10 +1734,10 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="23"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
@@ -1737,42 +1754,43 @@
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9"/>
-      <c r="AL7" s="11"/>
+      <c r="AL7" s="9"/>
       <c r="AM7" s="11"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="9"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="21"/>
       <c r="AP7" s="9"/>
       <c r="AQ7" s="9"/>
-    </row>
-    <row r="8" spans="1:43" s="12" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR7" s="9"/>
+    </row>
+    <row r="8" spans="1:44" s="12" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="9"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="15"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="11"/>
       <c r="W8" s="15"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="9"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="17"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
@@ -1781,23 +1799,24 @@
       <c r="AH8" s="9"/>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
-      <c r="AK8" s="15"/>
+      <c r="AK8" s="9"/>
       <c r="AL8" s="15"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="9"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="17"/>
       <c r="AP8" s="9"/>
       <c r="AQ8" s="9"/>
-    </row>
-    <row r="9" spans="1:43" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR8" s="9"/>
+    </row>
+    <row r="9" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -1807,10 +1826,10 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="23"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
@@ -1827,35 +1846,36 @@
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
-      <c r="AL9" s="11"/>
+      <c r="AL9" s="9"/>
       <c r="AM9" s="11"/>
-      <c r="AN9" s="9"/>
+      <c r="AN9" s="11"/>
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
       <c r="AQ9" s="9"/>
-    </row>
-    <row r="10" spans="1:43" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR9" s="9"/>
+    </row>
+    <row r="10" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="17"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="23"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
@@ -1871,23 +1891,24 @@
       <c r="AH10" s="9"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="11"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
       <c r="AQ10" s="9"/>
-    </row>
-    <row r="11" spans="1:43" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR10" s="9"/>
+    </row>
+    <row r="11" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -1897,42 +1918,43 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="23"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
-      <c r="AB11" s="17"/>
+      <c r="AB11" s="9"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
       <c r="AE11" s="17"/>
-      <c r="AF11" s="9"/>
+      <c r="AF11" s="17"/>
       <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
-      <c r="AL11" s="11"/>
+      <c r="AL11" s="9"/>
       <c r="AM11" s="11"/>
-      <c r="AN11" s="9"/>
+      <c r="AN11" s="11"/>
       <c r="AO11" s="9"/>
       <c r="AP11" s="9"/>
       <c r="AQ11" s="9"/>
-    </row>
-    <row r="12" spans="1:43" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR11" s="9"/>
+    </row>
+    <row r="12" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -1942,10 +1964,10 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="23"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -1962,22 +1984,23 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9"/>
-      <c r="AL12" s="11"/>
+      <c r="AL12" s="9"/>
       <c r="AM12" s="11"/>
-      <c r="AN12" s="9"/>
+      <c r="AN12" s="11"/>
       <c r="AO12" s="9"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="9"/>
-    </row>
-    <row r="13" spans="1:43" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="9"/>
+    </row>
+    <row r="13" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -1987,10 +2010,10 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="23"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
@@ -2007,36 +2030,37 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9"/>
-      <c r="AL13" s="11"/>
+      <c r="AL13" s="9"/>
       <c r="AM13" s="11"/>
-      <c r="AN13" s="9"/>
+      <c r="AN13" s="11"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
       <c r="AQ13" s="9"/>
-    </row>
-    <row r="14" spans="1:43" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR13" s="9"/>
+    </row>
+    <row r="14" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="11"/>
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
@@ -2052,22 +2076,23 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="11"/>
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
       <c r="AP14" s="9"/>
       <c r="AQ14" s="9"/>
-    </row>
-    <row r="15" spans="1:43" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR14" s="9"/>
+    </row>
+    <row r="15" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -2077,42 +2102,43 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="23"/>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
-      <c r="X15" s="17"/>
+      <c r="X15" s="9"/>
       <c r="Y15" s="17"/>
-      <c r="Z15" s="9"/>
+      <c r="Z15" s="17"/>
       <c r="AA15" s="9"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="15"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="18"/>
       <c r="AD15" s="15"/>
       <c r="AE15" s="15"/>
-      <c r="AF15" s="17"/>
+      <c r="AF15" s="15"/>
       <c r="AG15" s="17"/>
       <c r="AH15" s="17"/>
       <c r="AI15" s="17"/>
       <c r="AJ15" s="17"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="9"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="11"/>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
       <c r="AQ15" s="9"/>
-    </row>
-    <row r="16" spans="1:43" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR15" s="9"/>
+    </row>
+    <row r="16" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -2122,15 +2148,15 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="23"/>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="16"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
@@ -2141,23 +2167,24 @@
       <c r="AH16" s="9"/>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="22"/>
-      <c r="AM16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="22"/>
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
       <c r="AQ16" s="9"/>
-    </row>
-    <row r="17" spans="1:43" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR16" s="9"/>
+    </row>
+    <row r="17" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -2165,44 +2192,45 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="17"/>
+      <c r="P17" s="9"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="15"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="17"/>
       <c r="W17" s="15"/>
-      <c r="X17" s="9"/>
+      <c r="X17" s="15"/>
       <c r="Y17" s="9"/>
-      <c r="Z17" s="17"/>
+      <c r="Z17" s="9"/>
       <c r="AA17" s="17"/>
-      <c r="AB17" s="15"/>
+      <c r="AB17" s="17"/>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
       <c r="AE17" s="15"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="9"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="17"/>
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
       <c r="AJ17" s="9"/>
-      <c r="AK17" s="15"/>
+      <c r="AK17" s="9"/>
       <c r="AL17" s="15"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="9"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="17"/>
       <c r="AP17" s="9"/>
       <c r="AQ17" s="9"/>
-    </row>
-    <row r="18" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR17" s="9"/>
+    </row>
+    <row r="18" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -2212,17 +2240,17 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="17"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="9"/>
       <c r="W18" s="17"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="9"/>
       <c r="Z18" s="17"/>
       <c r="AA18" s="17"/>
-      <c r="AB18" s="9"/>
+      <c r="AB18" s="17"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
@@ -2231,23 +2259,24 @@
       <c r="AH18" s="9"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
-      <c r="AK18" s="11"/>
+      <c r="AK18" s="9"/>
       <c r="AL18" s="11"/>
-      <c r="AM18" s="9"/>
+      <c r="AM18" s="11"/>
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
       <c r="AP18" s="9"/>
       <c r="AQ18" s="9"/>
-    </row>
-    <row r="19" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR18" s="9"/>
+    </row>
+    <row r="19" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -2257,10 +2286,10 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="23"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
@@ -2277,35 +2306,36 @@
       <c r="AI19" s="9"/>
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="11"/>
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
       <c r="AP19" s="9"/>
       <c r="AQ19" s="9"/>
-    </row>
-    <row r="20" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR19" s="9"/>
+    </row>
+    <row r="20" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="23"/>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
@@ -2322,22 +2352,23 @@
       <c r="AI20" s="9"/>
       <c r="AJ20" s="9"/>
       <c r="AK20" s="9"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="11"/>
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
       <c r="AP20" s="9"/>
       <c r="AQ20" s="9"/>
-    </row>
-    <row r="21" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR20" s="9"/>
+    </row>
+    <row r="21" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -2347,15 +2378,15 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="23"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
-      <c r="X21" s="17"/>
+      <c r="X21" s="9"/>
       <c r="Y21" s="17"/>
-      <c r="Z21" s="9"/>
+      <c r="Z21" s="17"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
@@ -2367,35 +2398,36 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="11"/>
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
       <c r="AQ21" s="9"/>
-    </row>
-    <row r="22" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR21" s="9"/>
+    </row>
+    <row r="22" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="17"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="23"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
@@ -2412,22 +2444,23 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
       <c r="AK22" s="9"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="11"/>
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
       <c r="AQ22" s="9"/>
-    </row>
-    <row r="23" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR22" s="9"/>
+    </row>
+    <row r="23" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -2437,10 +2470,10 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="23"/>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
@@ -2457,22 +2490,23 @@
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
       <c r="AK23" s="9"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="11"/>
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
       <c r="AQ23" s="9"/>
-    </row>
-    <row r="24" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR23" s="9"/>
+    </row>
+    <row r="24" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -2482,10 +2516,10 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="23"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
@@ -2502,22 +2536,23 @@
       <c r="AI24" s="9"/>
       <c r="AJ24" s="9"/>
       <c r="AK24" s="9"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="9"/>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="11"/>
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
       <c r="AQ24" s="9"/>
-    </row>
-    <row r="25" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR24" s="9"/>
+    </row>
+    <row r="25" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -2526,12 +2561,12 @@
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="11"/>
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
@@ -2553,16 +2588,17 @@
       <c r="AO25" s="9"/>
       <c r="AP25" s="9"/>
       <c r="AQ25" s="9"/>
-    </row>
-    <row r="26" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR25" s="9"/>
+    </row>
+    <row r="26" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -2571,12 +2607,12 @@
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="11"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
@@ -2598,16 +2634,17 @@
       <c r="AO26" s="9"/>
       <c r="AP26" s="9"/>
       <c r="AQ26" s="9"/>
-    </row>
-    <row r="27" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR26" s="9"/>
+    </row>
+    <row r="27" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -2617,10 +2654,10 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="23"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
@@ -2643,16 +2680,17 @@
       <c r="AO27" s="9"/>
       <c r="AP27" s="9"/>
       <c r="AQ27" s="9"/>
-    </row>
-    <row r="28" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR27" s="9"/>
+    </row>
+    <row r="28" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -2662,18 +2700,18 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="23"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="17"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="15"/>
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
       <c r="AF28" s="17"/>
@@ -2681,23 +2719,24 @@
       <c r="AH28" s="17"/>
       <c r="AI28" s="17"/>
       <c r="AJ28" s="17"/>
-      <c r="AK28" s="9"/>
+      <c r="AK28" s="17"/>
       <c r="AL28" s="9"/>
       <c r="AM28" s="9"/>
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
       <c r="AP28" s="9"/>
       <c r="AQ28" s="9"/>
-    </row>
-    <row r="29" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR28" s="9"/>
+    </row>
+    <row r="29" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -2707,10 +2746,10 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="23"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
@@ -2733,16 +2772,17 @@
       <c r="AO29" s="9"/>
       <c r="AP29" s="9"/>
       <c r="AQ29" s="9"/>
-    </row>
-    <row r="30" spans="1:43" s="12" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR29" s="9"/>
+    </row>
+    <row r="30" spans="1:44" s="12" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="7"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="17"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -2752,10 +2792,10 @@
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="19"/>
       <c r="V30" s="17"/>
       <c r="W30" s="17"/>
       <c r="X30" s="17"/>
@@ -2766,7 +2806,7 @@
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
       <c r="AE30" s="17"/>
-      <c r="AF30" s="9"/>
+      <c r="AF30" s="17"/>
       <c r="AG30" s="9"/>
       <c r="AH30" s="9"/>
       <c r="AI30" s="9"/>
@@ -2778,29 +2818,30 @@
       <c r="AO30" s="9"/>
       <c r="AP30" s="9"/>
       <c r="AQ30" s="9"/>
-    </row>
-    <row r="31" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR30" s="9"/>
+    </row>
+    <row r="31" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="17"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="23"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
@@ -2823,29 +2864,30 @@
       <c r="AO31" s="9"/>
       <c r="AP31" s="9"/>
       <c r="AQ31" s="9"/>
-    </row>
-    <row r="32" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR31" s="9"/>
+    </row>
+    <row r="32" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="23"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="17"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="23"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
@@ -2868,29 +2910,30 @@
       <c r="AO32" s="9"/>
       <c r="AP32" s="9"/>
       <c r="AQ32" s="9"/>
-    </row>
-    <row r="33" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR32" s="9"/>
+    </row>
+    <row r="33" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="13"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="23"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -2913,16 +2956,17 @@
       <c r="AO33" s="9"/>
       <c r="AP33" s="9"/>
       <c r="AQ33" s="9"/>
-    </row>
-    <row r="34" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR33" s="9"/>
+    </row>
+    <row r="34" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -2932,10 +2976,10 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="23"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
@@ -2947,40 +2991,41 @@
       <c r="AD34" s="9"/>
       <c r="AE34" s="9"/>
       <c r="AF34" s="9"/>
-      <c r="AG34" s="17"/>
+      <c r="AG34" s="9"/>
       <c r="AH34" s="17"/>
       <c r="AI34" s="17"/>
       <c r="AJ34" s="17"/>
-      <c r="AK34" s="9"/>
+      <c r="AK34" s="17"/>
       <c r="AL34" s="9"/>
       <c r="AM34" s="9"/>
       <c r="AN34" s="9"/>
       <c r="AO34" s="9"/>
       <c r="AP34" s="9"/>
       <c r="AQ34" s="9"/>
-    </row>
-    <row r="35" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR34" s="9"/>
+    </row>
+    <row r="35" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="17"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="23"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
@@ -3003,16 +3048,17 @@
       <c r="AO35" s="9"/>
       <c r="AP35" s="9"/>
       <c r="AQ35" s="9"/>
-    </row>
-    <row r="36" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR35" s="9"/>
+    </row>
+    <row r="36" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -3022,12 +3068,12 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="17"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -3048,29 +3094,30 @@
       <c r="AO36" s="9"/>
       <c r="AP36" s="9"/>
       <c r="AQ36" s="9"/>
-    </row>
-    <row r="37" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR36" s="9"/>
+    </row>
+    <row r="37" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="17"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="9"/>
       <c r="N37" s="17"/>
-      <c r="O37" s="9"/>
+      <c r="O37" s="17"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="23"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
@@ -3093,16 +3140,17 @@
       <c r="AO37" s="9"/>
       <c r="AP37" s="9"/>
       <c r="AQ37" s="9"/>
-    </row>
-    <row r="38" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR37" s="9"/>
+    </row>
+    <row r="38" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -3112,10 +3160,10 @@
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="23"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
@@ -3138,16 +3186,17 @@
       <c r="AO38" s="9"/>
       <c r="AP38" s="9"/>
       <c r="AQ38" s="9"/>
-    </row>
-    <row r="39" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR38" s="9"/>
+    </row>
+    <row r="39" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -3157,15 +3206,15 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="17"/>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
@@ -3183,16 +3232,17 @@
       <c r="AO39" s="9"/>
       <c r="AP39" s="9"/>
       <c r="AQ39" s="9"/>
-    </row>
-    <row r="40" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR39" s="9"/>
+    </row>
+    <row r="40" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -3202,10 +3252,10 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="23"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
@@ -3228,32 +3278,33 @@
       <c r="AO40" s="9"/>
       <c r="AP40" s="9"/>
       <c r="AQ40" s="9"/>
-    </row>
-    <row r="41" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR40" s="9"/>
+    </row>
+    <row r="41" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="13"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="23"/>
       <c r="V41" s="9"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="11"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
@@ -3273,16 +3324,17 @@
       <c r="AO41" s="9"/>
       <c r="AP41" s="9"/>
       <c r="AQ41" s="9"/>
-    </row>
-    <row r="42" spans="1:43" s="12" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR41" s="9"/>
+    </row>
+    <row r="42" spans="1:44" s="12" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -3292,10 +3344,10 @@
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="23"/>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
@@ -3318,16 +3370,17 @@
       <c r="AO42" s="9"/>
       <c r="AP42" s="9"/>
       <c r="AQ42" s="9"/>
-    </row>
-    <row r="43" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR42" s="9"/>
+    </row>
+    <row r="43" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -3337,10 +3390,10 @@
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="23"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
@@ -3363,16 +3416,17 @@
       <c r="AO43" s="9"/>
       <c r="AP43" s="9"/>
       <c r="AQ43" s="9"/>
-    </row>
-    <row r="44" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR43" s="9"/>
+    </row>
+    <row r="44" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="8"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -3382,13 +3436,13 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="11"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="9"/>
       <c r="W44" s="11"/>
-      <c r="X44" s="9"/>
+      <c r="X44" s="11"/>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
@@ -3408,16 +3462,17 @@
       <c r="AO44" s="9"/>
       <c r="AP44" s="9"/>
       <c r="AQ44" s="9"/>
-    </row>
-    <row r="45" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR44" s="9"/>
+    </row>
+    <row r="45" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="8"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -3427,13 +3482,13 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="23"/>
       <c r="V45" s="9"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="11"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
@@ -3453,16 +3508,17 @@
       <c r="AO45" s="9"/>
       <c r="AP45" s="9"/>
       <c r="AQ45" s="9"/>
-    </row>
-    <row r="46" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR45" s="9"/>
+    </row>
+    <row r="46" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="8"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -3472,15 +3528,15 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="23"/>
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
-      <c r="X46" s="17"/>
+      <c r="X46" s="9"/>
       <c r="Y46" s="17"/>
-      <c r="Z46" s="9"/>
+      <c r="Z46" s="17"/>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
@@ -3498,16 +3554,17 @@
       <c r="AO46" s="9"/>
       <c r="AP46" s="9"/>
       <c r="AQ46" s="9"/>
-    </row>
-    <row r="47" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR46" s="9"/>
+    </row>
+    <row r="47" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="8"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -3517,10 +3574,10 @@
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="23"/>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
@@ -3543,16 +3600,17 @@
       <c r="AO47" s="9"/>
       <c r="AP47" s="9"/>
       <c r="AQ47" s="9"/>
-    </row>
-    <row r="48" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR47" s="9"/>
+    </row>
+    <row r="48" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -3562,10 +3620,10 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="23"/>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
@@ -3588,16 +3646,17 @@
       <c r="AO48" s="9"/>
       <c r="AP48" s="9"/>
       <c r="AQ48" s="9"/>
-    </row>
-    <row r="49" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR48" s="9"/>
+    </row>
+    <row r="49" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="8"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -3607,10 +3666,10 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="23"/>
       <c r="V49" s="9"/>
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
@@ -3633,16 +3692,17 @@
       <c r="AO49" s="9"/>
       <c r="AP49" s="9"/>
       <c r="AQ49" s="9"/>
-    </row>
-    <row r="50" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR49" s="9"/>
+    </row>
+    <row r="50" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="8"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -3652,10 +3712,10 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="23"/>
       <c r="V50" s="9"/>
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
@@ -3678,16 +3738,17 @@
       <c r="AO50" s="9"/>
       <c r="AP50" s="9"/>
       <c r="AQ50" s="9"/>
-    </row>
-    <row r="51" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR50" s="9"/>
+    </row>
+    <row r="51" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -3697,10 +3758,10 @@
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="23"/>
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
@@ -3723,16 +3784,17 @@
       <c r="AO51" s="9"/>
       <c r="AP51" s="9"/>
       <c r="AQ51" s="9"/>
-    </row>
-    <row r="52" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR51" s="9"/>
+    </row>
+    <row r="52" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="8"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -3742,10 +3804,10 @@
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="23"/>
       <c r="V52" s="9"/>
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
@@ -3762,22 +3824,23 @@
       <c r="AI52" s="9"/>
       <c r="AJ52" s="9"/>
       <c r="AK52" s="9"/>
-      <c r="AL52" s="15"/>
-      <c r="AM52" s="9"/>
-      <c r="AN52" s="17"/>
-      <c r="AO52" s="9"/>
+      <c r="AL52" s="9"/>
+      <c r="AM52" s="15"/>
+      <c r="AN52" s="9"/>
+      <c r="AO52" s="17"/>
       <c r="AP52" s="9"/>
       <c r="AQ52" s="9"/>
-    </row>
-    <row r="53" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR52" s="9"/>
+    </row>
+    <row r="53" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="8"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -3787,10 +3850,10 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="23"/>
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
@@ -3802,40 +3865,41 @@
       <c r="AD53" s="9"/>
       <c r="AE53" s="9"/>
       <c r="AF53" s="9"/>
-      <c r="AG53" s="17"/>
+      <c r="AG53" s="9"/>
       <c r="AH53" s="17"/>
       <c r="AI53" s="17"/>
       <c r="AJ53" s="17"/>
-      <c r="AK53" s="9"/>
+      <c r="AK53" s="17"/>
       <c r="AL53" s="9"/>
       <c r="AM53" s="9"/>
       <c r="AN53" s="9"/>
       <c r="AO53" s="9"/>
       <c r="AP53" s="9"/>
       <c r="AQ53" s="9"/>
-    </row>
-    <row r="54" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR53" s="9"/>
+    </row>
+    <row r="54" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="8"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="17"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="23"/>
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
@@ -3858,29 +3922,30 @@
       <c r="AO54" s="9"/>
       <c r="AP54" s="9"/>
       <c r="AQ54" s="9"/>
-    </row>
-    <row r="55" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR54" s="9"/>
+    </row>
+    <row r="55" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="8"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="23"/>
       <c r="L55" s="9"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="17"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="23"/>
       <c r="V55" s="9"/>
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
@@ -3903,29 +3968,30 @@
       <c r="AO55" s="9"/>
       <c r="AP55" s="9"/>
       <c r="AQ55" s="9"/>
-    </row>
-    <row r="56" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR55" s="9"/>
+    </row>
+    <row r="56" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="11"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="8"/>
       <c r="I56" s="11"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="9"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="23"/>
       <c r="L56" s="9"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="17"/>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="23"/>
       <c r="V56" s="9"/>
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
@@ -3948,16 +4014,17 @@
       <c r="AO56" s="9"/>
       <c r="AP56" s="9"/>
       <c r="AQ56" s="9"/>
-    </row>
-    <row r="57" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR56" s="9"/>
+    </row>
+    <row r="57" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="8"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -3967,10 +4034,10 @@
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="23"/>
       <c r="V57" s="9"/>
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
@@ -3993,16 +4060,17 @@
       <c r="AO57" s="9"/>
       <c r="AP57" s="9"/>
       <c r="AQ57" s="9"/>
-    </row>
-    <row r="58" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR57" s="9"/>
+    </row>
+    <row r="58" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="8"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -4012,10 +4080,10 @@
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="23"/>
       <c r="V58" s="9"/>
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
@@ -4038,16 +4106,17 @@
       <c r="AO58" s="9"/>
       <c r="AP58" s="9"/>
       <c r="AQ58" s="9"/>
-    </row>
-    <row r="59" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR58" s="9"/>
+    </row>
+    <row r="59" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="8"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -4057,10 +4126,10 @@
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="23"/>
       <c r="V59" s="9"/>
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
@@ -4083,16 +4152,17 @@
       <c r="AO59" s="9"/>
       <c r="AP59" s="9"/>
       <c r="AQ59" s="9"/>
-    </row>
-    <row r="60" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR59" s="9"/>
+    </row>
+    <row r="60" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="8"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -4102,10 +4172,10 @@
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="23"/>
-      <c r="U60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="23"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="23"/>
       <c r="V60" s="9"/>
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
@@ -4128,16 +4198,17 @@
       <c r="AO60" s="9"/>
       <c r="AP60" s="9"/>
       <c r="AQ60" s="9"/>
-    </row>
-    <row r="61" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR60" s="9"/>
+    </row>
+    <row r="61" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="8"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
@@ -4147,10 +4218,10 @@
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
-      <c r="R61" s="23"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="23"/>
-      <c r="U61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="23"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="23"/>
       <c r="V61" s="9"/>
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
@@ -4173,16 +4244,17 @@
       <c r="AO61" s="9"/>
       <c r="AP61" s="9"/>
       <c r="AQ61" s="9"/>
-    </row>
-    <row r="62" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR61" s="9"/>
+    </row>
+    <row r="62" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="8"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -4192,10 +4264,10 @@
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="23"/>
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
@@ -4218,16 +4290,17 @@
       <c r="AO62" s="9"/>
       <c r="AP62" s="9"/>
       <c r="AQ62" s="9"/>
-    </row>
-    <row r="63" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR62" s="9"/>
+    </row>
+    <row r="63" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="8"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -4237,10 +4310,10 @@
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
-      <c r="R63" s="23"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="23"/>
-      <c r="U63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="23"/>
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
@@ -4263,16 +4336,17 @@
       <c r="AO63" s="9"/>
       <c r="AP63" s="9"/>
       <c r="AQ63" s="9"/>
-    </row>
-    <row r="64" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR63" s="9"/>
+    </row>
+    <row r="64" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="8"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -4282,10 +4356,10 @@
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
       <c r="Q64" s="9"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="23"/>
-      <c r="U64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="23"/>
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
@@ -4308,16 +4382,17 @@
       <c r="AO64" s="9"/>
       <c r="AP64" s="9"/>
       <c r="AQ64" s="9"/>
-    </row>
-    <row r="65" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR64" s="9"/>
+    </row>
+    <row r="65" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="8"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -4327,10 +4402,10 @@
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
       <c r="Q65" s="9"/>
-      <c r="R65" s="23"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="23"/>
-      <c r="U65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="23"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="23"/>
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
@@ -4353,16 +4428,17 @@
       <c r="AO65" s="9"/>
       <c r="AP65" s="9"/>
       <c r="AQ65" s="9"/>
-    </row>
-    <row r="66" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR65" s="9"/>
+    </row>
+    <row r="66" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="8"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -4372,10 +4448,10 @@
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
-      <c r="R66" s="23"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="23"/>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
@@ -4398,16 +4474,17 @@
       <c r="AO66" s="9"/>
       <c r="AP66" s="9"/>
       <c r="AQ66" s="9"/>
-    </row>
-    <row r="67" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR66" s="9"/>
+    </row>
+    <row r="67" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="9"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="8"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -4417,10 +4494,10 @@
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
       <c r="Q67" s="9"/>
-      <c r="R67" s="23"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="23"/>
-      <c r="U67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="23"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="23"/>
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
@@ -4443,16 +4520,17 @@
       <c r="AO67" s="9"/>
       <c r="AP67" s="9"/>
       <c r="AQ67" s="9"/>
-    </row>
-    <row r="68" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR67" s="9"/>
+    </row>
+    <row r="68" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="9"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="8"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -4462,10 +4540,10 @@
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
-      <c r="R68" s="23"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="23"/>
-      <c r="U68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="23"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="23"/>
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
@@ -4488,16 +4566,17 @@
       <c r="AO68" s="9"/>
       <c r="AP68" s="9"/>
       <c r="AQ68" s="9"/>
-    </row>
-    <row r="69" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR68" s="9"/>
+    </row>
+    <row r="69" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="9"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="8"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -4507,42 +4586,43 @@
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
       <c r="Q69" s="9"/>
-      <c r="R69" s="23"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="23"/>
-      <c r="U69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="23"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="23"/>
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
-      <c r="AB69" s="11"/>
+      <c r="AB69" s="9"/>
       <c r="AC69" s="11"/>
       <c r="AD69" s="11"/>
       <c r="AE69" s="11"/>
-      <c r="AF69" s="9"/>
+      <c r="AF69" s="11"/>
       <c r="AG69" s="9"/>
       <c r="AH69" s="9"/>
       <c r="AI69" s="9"/>
       <c r="AJ69" s="9"/>
-      <c r="AK69" s="17"/>
-      <c r="AL69" s="9"/>
+      <c r="AK69" s="9"/>
+      <c r="AL69" s="17"/>
       <c r="AM69" s="9"/>
       <c r="AN69" s="9"/>
       <c r="AO69" s="9"/>
       <c r="AP69" s="9"/>
       <c r="AQ69" s="9"/>
-    </row>
-    <row r="70" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR69" s="9"/>
+    </row>
+    <row r="70" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="8"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -4552,10 +4632,10 @@
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
       <c r="Q70" s="9"/>
-      <c r="R70" s="23"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="23"/>
-      <c r="U70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="23"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="23"/>
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
@@ -4578,16 +4658,17 @@
       <c r="AO70" s="9"/>
       <c r="AP70" s="9"/>
       <c r="AQ70" s="9"/>
-    </row>
-    <row r="71" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR70" s="9"/>
+    </row>
+    <row r="71" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="8"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
@@ -4597,10 +4678,10 @@
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
       <c r="Q71" s="9"/>
-      <c r="R71" s="23"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="23"/>
-      <c r="U71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="23"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="23"/>
       <c r="V71" s="9"/>
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
@@ -4623,16 +4704,17 @@
       <c r="AO71" s="9"/>
       <c r="AP71" s="9"/>
       <c r="AQ71" s="9"/>
-    </row>
-    <row r="72" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR71" s="9"/>
+    </row>
+    <row r="72" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="9"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="8"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -4642,10 +4724,10 @@
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
-      <c r="R72" s="23"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="23"/>
-      <c r="U72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="23"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="23"/>
       <c r="V72" s="9"/>
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
@@ -4668,16 +4750,17 @@
       <c r="AO72" s="9"/>
       <c r="AP72" s="9"/>
       <c r="AQ72" s="9"/>
-    </row>
-    <row r="73" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR72" s="9"/>
+    </row>
+    <row r="73" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="9"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="8"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -4687,10 +4770,10 @@
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
-      <c r="R73" s="23"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="23"/>
-      <c r="U73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="23"/>
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
@@ -4713,16 +4796,17 @@
       <c r="AO73" s="9"/>
       <c r="AP73" s="9"/>
       <c r="AQ73" s="9"/>
-    </row>
-    <row r="74" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR73" s="9"/>
+    </row>
+    <row r="74" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="9"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="8"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -4732,10 +4816,10 @@
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
       <c r="Q74" s="9"/>
-      <c r="R74" s="23"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="23"/>
-      <c r="U74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="23"/>
       <c r="V74" s="9"/>
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
@@ -4758,16 +4842,17 @@
       <c r="AO74" s="9"/>
       <c r="AP74" s="9"/>
       <c r="AQ74" s="9"/>
-    </row>
-    <row r="75" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR74" s="9"/>
+    </row>
+    <row r="75" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="9"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="8"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -4777,10 +4862,10 @@
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
-      <c r="R75" s="23"/>
-      <c r="S75" s="10"/>
-      <c r="T75" s="23"/>
-      <c r="U75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="23"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="23"/>
       <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
@@ -4803,16 +4888,17 @@
       <c r="AO75" s="9"/>
       <c r="AP75" s="9"/>
       <c r="AQ75" s="9"/>
-    </row>
-    <row r="76" spans="1:43" s="12" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR75" s="9"/>
+    </row>
+    <row r="76" spans="1:44" s="12" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="9"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="8"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -4822,10 +4908,10 @@
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
       <c r="Q76" s="9"/>
-      <c r="R76" s="23"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="23"/>
-      <c r="U76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="23"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="23"/>
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
@@ -4848,16 +4934,17 @@
       <c r="AO76" s="9"/>
       <c r="AP76" s="9"/>
       <c r="AQ76" s="9"/>
-    </row>
-    <row r="77" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR76" s="9"/>
+    </row>
+    <row r="77" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="9"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="8"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
@@ -4867,10 +4954,10 @@
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
-      <c r="R77" s="23"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="23"/>
-      <c r="U77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="23"/>
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
@@ -4893,16 +4980,17 @@
       <c r="AO77" s="9"/>
       <c r="AP77" s="9"/>
       <c r="AQ77" s="9"/>
-    </row>
-    <row r="78" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR77" s="9"/>
+    </row>
+    <row r="78" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="9"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="8"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -4912,10 +5000,10 @@
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
       <c r="Q78" s="9"/>
-      <c r="R78" s="23"/>
-      <c r="S78" s="10"/>
-      <c r="T78" s="23"/>
-      <c r="U78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="23"/>
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
@@ -4938,16 +5026,17 @@
       <c r="AO78" s="9"/>
       <c r="AP78" s="9"/>
       <c r="AQ78" s="9"/>
-    </row>
-    <row r="79" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR78" s="9"/>
+    </row>
+    <row r="79" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="9"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="8"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
@@ -4957,10 +5046,10 @@
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
-      <c r="R79" s="23"/>
-      <c r="S79" s="10"/>
-      <c r="T79" s="23"/>
-      <c r="U79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="23"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="23"/>
       <c r="V79" s="9"/>
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
@@ -4983,16 +5072,17 @@
       <c r="AO79" s="9"/>
       <c r="AP79" s="9"/>
       <c r="AQ79" s="9"/>
-    </row>
-    <row r="80" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR79" s="9"/>
+    </row>
+    <row r="80" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="9"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="8"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
@@ -5002,10 +5092,10 @@
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
-      <c r="R80" s="23"/>
-      <c r="S80" s="10"/>
-      <c r="T80" s="23"/>
-      <c r="U80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="23"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="23"/>
       <c r="V80" s="9"/>
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
@@ -5028,16 +5118,17 @@
       <c r="AO80" s="9"/>
       <c r="AP80" s="9"/>
       <c r="AQ80" s="9"/>
-    </row>
-    <row r="81" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR80" s="9"/>
+    </row>
+    <row r="81" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="9"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="8"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
@@ -5047,10 +5138,10 @@
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
       <c r="Q81" s="9"/>
-      <c r="R81" s="23"/>
-      <c r="S81" s="10"/>
-      <c r="T81" s="23"/>
-      <c r="U81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="23"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="23"/>
       <c r="V81" s="9"/>
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
@@ -5073,16 +5164,17 @@
       <c r="AO81" s="9"/>
       <c r="AP81" s="9"/>
       <c r="AQ81" s="9"/>
-    </row>
-    <row r="82" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR81" s="9"/>
+    </row>
+    <row r="82" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="9"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="8"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
@@ -5092,10 +5184,10 @@
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
       <c r="Q82" s="9"/>
-      <c r="R82" s="23"/>
-      <c r="S82" s="10"/>
-      <c r="T82" s="23"/>
-      <c r="U82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="23"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="23"/>
       <c r="V82" s="9"/>
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
@@ -5118,16 +5210,17 @@
       <c r="AO82" s="9"/>
       <c r="AP82" s="9"/>
       <c r="AQ82" s="9"/>
-    </row>
-    <row r="83" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR82" s="9"/>
+    </row>
+    <row r="83" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="9"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="8"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
@@ -5137,10 +5230,10 @@
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
       <c r="Q83" s="9"/>
-      <c r="R83" s="23"/>
-      <c r="S83" s="10"/>
-      <c r="T83" s="23"/>
-      <c r="U83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="23"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="23"/>
       <c r="V83" s="9"/>
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
@@ -5163,16 +5256,17 @@
       <c r="AO83" s="9"/>
       <c r="AP83" s="9"/>
       <c r="AQ83" s="9"/>
-    </row>
-    <row r="84" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR83" s="9"/>
+    </row>
+    <row r="84" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="9"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="8"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
@@ -5182,10 +5276,10 @@
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
       <c r="Q84" s="9"/>
-      <c r="R84" s="23"/>
-      <c r="S84" s="10"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="23"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="23"/>
       <c r="V84" s="9"/>
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
@@ -5208,16 +5302,17 @@
       <c r="AO84" s="9"/>
       <c r="AP84" s="9"/>
       <c r="AQ84" s="9"/>
-    </row>
-    <row r="85" spans="1:43" s="12" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR84" s="9"/>
+    </row>
+    <row r="85" spans="1:44" s="12" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="9"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="8"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
@@ -5227,10 +5322,10 @@
       <c r="O85" s="9"/>
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
-      <c r="R85" s="23"/>
-      <c r="S85" s="10"/>
-      <c r="T85" s="23"/>
-      <c r="U85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="23"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="23"/>
       <c r="V85" s="9"/>
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
@@ -5253,16 +5348,17 @@
       <c r="AO85" s="9"/>
       <c r="AP85" s="9"/>
       <c r="AQ85" s="9"/>
-    </row>
-    <row r="86" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR85" s="9"/>
+    </row>
+    <row r="86" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="9"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="8"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -5272,10 +5368,10 @@
       <c r="O86" s="9"/>
       <c r="P86" s="9"/>
       <c r="Q86" s="9"/>
-      <c r="R86" s="23"/>
-      <c r="S86" s="10"/>
-      <c r="T86" s="23"/>
-      <c r="U86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="23"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="23"/>
       <c r="V86" s="9"/>
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
@@ -5298,16 +5394,17 @@
       <c r="AO86" s="9"/>
       <c r="AP86" s="9"/>
       <c r="AQ86" s="9"/>
-    </row>
-    <row r="87" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR86" s="9"/>
+    </row>
+    <row r="87" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="9"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="8"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
@@ -5317,10 +5414,10 @@
       <c r="O87" s="9"/>
       <c r="P87" s="9"/>
       <c r="Q87" s="9"/>
-      <c r="R87" s="23"/>
-      <c r="S87" s="10"/>
-      <c r="T87" s="23"/>
-      <c r="U87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="23"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="23"/>
       <c r="V87" s="9"/>
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
@@ -5343,16 +5440,17 @@
       <c r="AO87" s="9"/>
       <c r="AP87" s="9"/>
       <c r="AQ87" s="9"/>
-    </row>
-    <row r="88" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR87" s="9"/>
+    </row>
+    <row r="88" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="9"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="8"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -5362,10 +5460,10 @@
       <c r="O88" s="9"/>
       <c r="P88" s="9"/>
       <c r="Q88" s="9"/>
-      <c r="R88" s="23"/>
-      <c r="S88" s="10"/>
-      <c r="T88" s="23"/>
-      <c r="U88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="23"/>
+      <c r="T88" s="10"/>
+      <c r="U88" s="23"/>
       <c r="V88" s="9"/>
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
@@ -5388,16 +5486,17 @@
       <c r="AO88" s="9"/>
       <c r="AP88" s="9"/>
       <c r="AQ88" s="9"/>
-    </row>
-    <row r="89" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR88" s="9"/>
+    </row>
+    <row r="89" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="9"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="8"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
@@ -5407,10 +5506,10 @@
       <c r="O89" s="9"/>
       <c r="P89" s="9"/>
       <c r="Q89" s="9"/>
-      <c r="R89" s="23"/>
-      <c r="S89" s="10"/>
-      <c r="T89" s="23"/>
-      <c r="U89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="23"/>
+      <c r="T89" s="10"/>
+      <c r="U89" s="23"/>
       <c r="V89" s="9"/>
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
@@ -5433,16 +5532,17 @@
       <c r="AO89" s="9"/>
       <c r="AP89" s="9"/>
       <c r="AQ89" s="9"/>
-    </row>
-    <row r="90" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR89" s="9"/>
+    </row>
+    <row r="90" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="9"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="8"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -5452,10 +5552,10 @@
       <c r="O90" s="9"/>
       <c r="P90" s="9"/>
       <c r="Q90" s="9"/>
-      <c r="R90" s="23"/>
-      <c r="S90" s="10"/>
-      <c r="T90" s="23"/>
-      <c r="U90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="23"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="23"/>
       <c r="V90" s="9"/>
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
@@ -5478,16 +5578,17 @@
       <c r="AO90" s="9"/>
       <c r="AP90" s="9"/>
       <c r="AQ90" s="9"/>
-    </row>
-    <row r="91" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR90" s="9"/>
+    </row>
+    <row r="91" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="9"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="8"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
@@ -5497,10 +5598,10 @@
       <c r="O91" s="9"/>
       <c r="P91" s="9"/>
       <c r="Q91" s="9"/>
-      <c r="R91" s="23"/>
-      <c r="S91" s="10"/>
-      <c r="T91" s="23"/>
-      <c r="U91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="23"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="23"/>
       <c r="V91" s="9"/>
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
@@ -5523,16 +5624,17 @@
       <c r="AO91" s="9"/>
       <c r="AP91" s="9"/>
       <c r="AQ91" s="9"/>
-    </row>
-    <row r="92" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR91" s="9"/>
+    </row>
+    <row r="92" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="9"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="8"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
@@ -5542,21 +5644,21 @@
       <c r="O92" s="9"/>
       <c r="P92" s="9"/>
       <c r="Q92" s="9"/>
-      <c r="R92" s="23"/>
-      <c r="S92" s="10"/>
-      <c r="T92" s="23"/>
-      <c r="U92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="23"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="23"/>
       <c r="V92" s="9"/>
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
-      <c r="AB92" s="11"/>
+      <c r="AB92" s="9"/>
       <c r="AC92" s="11"/>
       <c r="AD92" s="11"/>
       <c r="AE92" s="11"/>
-      <c r="AF92" s="9"/>
+      <c r="AF92" s="11"/>
       <c r="AG92" s="9"/>
       <c r="AH92" s="9"/>
       <c r="AI92" s="9"/>
@@ -5568,16 +5670,17 @@
       <c r="AO92" s="9"/>
       <c r="AP92" s="9"/>
       <c r="AQ92" s="9"/>
-    </row>
-    <row r="93" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR92" s="9"/>
+    </row>
+    <row r="93" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="9"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="8"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
@@ -5587,10 +5690,10 @@
       <c r="O93" s="9"/>
       <c r="P93" s="9"/>
       <c r="Q93" s="9"/>
-      <c r="R93" s="23"/>
-      <c r="S93" s="10"/>
-      <c r="T93" s="23"/>
-      <c r="U93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="23"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="23"/>
       <c r="V93" s="9"/>
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
@@ -5613,16 +5716,17 @@
       <c r="AO93" s="9"/>
       <c r="AP93" s="9"/>
       <c r="AQ93" s="9"/>
-    </row>
-    <row r="94" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR93" s="9"/>
+    </row>
+    <row r="94" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="9"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="8"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
@@ -5632,10 +5736,10 @@
       <c r="O94" s="9"/>
       <c r="P94" s="9"/>
       <c r="Q94" s="9"/>
-      <c r="R94" s="23"/>
-      <c r="S94" s="10"/>
-      <c r="T94" s="23"/>
-      <c r="U94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="23"/>
+      <c r="T94" s="10"/>
+      <c r="U94" s="23"/>
       <c r="V94" s="9"/>
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
@@ -5658,16 +5762,17 @@
       <c r="AO94" s="9"/>
       <c r="AP94" s="9"/>
       <c r="AQ94" s="9"/>
-    </row>
-    <row r="95" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR94" s="9"/>
+    </row>
+    <row r="95" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="9"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="8"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
@@ -5677,10 +5782,10 @@
       <c r="O95" s="9"/>
       <c r="P95" s="9"/>
       <c r="Q95" s="9"/>
-      <c r="R95" s="23"/>
-      <c r="S95" s="10"/>
-      <c r="T95" s="23"/>
-      <c r="U95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="23"/>
+      <c r="T95" s="10"/>
+      <c r="U95" s="23"/>
       <c r="V95" s="9"/>
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
@@ -5703,16 +5808,17 @@
       <c r="AO95" s="9"/>
       <c r="AP95" s="9"/>
       <c r="AQ95" s="9"/>
-    </row>
-    <row r="96" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR95" s="9"/>
+    </row>
+    <row r="96" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="9"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="8"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -5722,10 +5828,10 @@
       <c r="O96" s="9"/>
       <c r="P96" s="9"/>
       <c r="Q96" s="9"/>
-      <c r="R96" s="23"/>
-      <c r="S96" s="10"/>
-      <c r="T96" s="23"/>
-      <c r="U96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="23"/>
+      <c r="T96" s="10"/>
+      <c r="U96" s="23"/>
       <c r="V96" s="9"/>
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
@@ -5748,16 +5854,17 @@
       <c r="AO96" s="9"/>
       <c r="AP96" s="9"/>
       <c r="AQ96" s="9"/>
-    </row>
-    <row r="97" spans="1:43" s="12" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR96" s="9"/>
+    </row>
+    <row r="97" spans="1:44" s="12" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="9"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="8"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
@@ -5767,10 +5874,10 @@
       <c r="O97" s="9"/>
       <c r="P97" s="9"/>
       <c r="Q97" s="9"/>
-      <c r="R97" s="23"/>
-      <c r="S97" s="10"/>
-      <c r="T97" s="23"/>
-      <c r="U97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="23"/>
+      <c r="T97" s="10"/>
+      <c r="U97" s="23"/>
       <c r="V97" s="9"/>
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
@@ -5793,16 +5900,17 @@
       <c r="AO97" s="9"/>
       <c r="AP97" s="9"/>
       <c r="AQ97" s="9"/>
-    </row>
-    <row r="98" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR97" s="9"/>
+    </row>
+    <row r="98" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="9"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="8"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -5812,10 +5920,10 @@
       <c r="O98" s="9"/>
       <c r="P98" s="9"/>
       <c r="Q98" s="9"/>
-      <c r="R98" s="23"/>
-      <c r="S98" s="10"/>
-      <c r="T98" s="23"/>
-      <c r="U98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="23"/>
+      <c r="T98" s="10"/>
+      <c r="U98" s="23"/>
       <c r="V98" s="9"/>
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
@@ -5838,16 +5946,17 @@
       <c r="AO98" s="9"/>
       <c r="AP98" s="9"/>
       <c r="AQ98" s="9"/>
-    </row>
-    <row r="99" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR98" s="9"/>
+    </row>
+    <row r="99" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="9"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="8"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
@@ -5857,10 +5966,10 @@
       <c r="O99" s="9"/>
       <c r="P99" s="9"/>
       <c r="Q99" s="9"/>
-      <c r="R99" s="23"/>
-      <c r="S99" s="10"/>
-      <c r="T99" s="23"/>
-      <c r="U99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="23"/>
+      <c r="T99" s="10"/>
+      <c r="U99" s="23"/>
       <c r="V99" s="9"/>
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
@@ -5883,16 +5992,17 @@
       <c r="AO99" s="9"/>
       <c r="AP99" s="9"/>
       <c r="AQ99" s="9"/>
-    </row>
-    <row r="100" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR99" s="9"/>
+    </row>
+    <row r="100" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="9"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="8"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -5902,10 +6012,10 @@
       <c r="O100" s="9"/>
       <c r="P100" s="9"/>
       <c r="Q100" s="9"/>
-      <c r="R100" s="23"/>
-      <c r="S100" s="10"/>
-      <c r="T100" s="23"/>
-      <c r="U100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="23"/>
+      <c r="T100" s="10"/>
+      <c r="U100" s="23"/>
       <c r="V100" s="9"/>
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
@@ -5928,16 +6038,17 @@
       <c r="AO100" s="9"/>
       <c r="AP100" s="9"/>
       <c r="AQ100" s="9"/>
-    </row>
-    <row r="101" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR100" s="9"/>
+    </row>
+    <row r="101" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="9"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="8"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
@@ -5947,10 +6058,10 @@
       <c r="O101" s="9"/>
       <c r="P101" s="9"/>
       <c r="Q101" s="9"/>
-      <c r="R101" s="23"/>
-      <c r="S101" s="10"/>
-      <c r="T101" s="23"/>
-      <c r="U101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="23"/>
+      <c r="T101" s="10"/>
+      <c r="U101" s="23"/>
       <c r="V101" s="9"/>
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
@@ -5973,16 +6084,17 @@
       <c r="AO101" s="9"/>
       <c r="AP101" s="9"/>
       <c r="AQ101" s="9"/>
-    </row>
-    <row r="102" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR101" s="9"/>
+    </row>
+    <row r="102" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="9"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="8"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -5992,10 +6104,10 @@
       <c r="O102" s="9"/>
       <c r="P102" s="9"/>
       <c r="Q102" s="9"/>
-      <c r="R102" s="23"/>
-      <c r="S102" s="10"/>
-      <c r="T102" s="23"/>
-      <c r="U102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="23"/>
+      <c r="T102" s="10"/>
+      <c r="U102" s="23"/>
       <c r="V102" s="9"/>
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
@@ -6018,16 +6130,17 @@
       <c r="AO102" s="9"/>
       <c r="AP102" s="9"/>
       <c r="AQ102" s="9"/>
-    </row>
-    <row r="103" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR102" s="9"/>
+    </row>
+    <row r="103" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="9"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="8"/>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
@@ -6037,10 +6150,10 @@
       <c r="O103" s="9"/>
       <c r="P103" s="9"/>
       <c r="Q103" s="9"/>
-      <c r="R103" s="23"/>
-      <c r="S103" s="10"/>
-      <c r="T103" s="23"/>
-      <c r="U103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="23"/>
+      <c r="T103" s="10"/>
+      <c r="U103" s="23"/>
       <c r="V103" s="9"/>
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
@@ -6063,16 +6176,17 @@
       <c r="AO103" s="9"/>
       <c r="AP103" s="9"/>
       <c r="AQ103" s="9"/>
-    </row>
-    <row r="104" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR103" s="9"/>
+    </row>
+    <row r="104" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="9"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="8"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -6082,10 +6196,10 @@
       <c r="O104" s="9"/>
       <c r="P104" s="9"/>
       <c r="Q104" s="9"/>
-      <c r="R104" s="23"/>
-      <c r="S104" s="10"/>
-      <c r="T104" s="23"/>
-      <c r="U104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="23"/>
+      <c r="T104" s="10"/>
+      <c r="U104" s="23"/>
       <c r="V104" s="9"/>
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
@@ -6108,16 +6222,17 @@
       <c r="AO104" s="9"/>
       <c r="AP104" s="9"/>
       <c r="AQ104" s="9"/>
-    </row>
-    <row r="105" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR104" s="9"/>
+    </row>
+    <row r="105" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="9"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="8"/>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
@@ -6127,10 +6242,10 @@
       <c r="O105" s="9"/>
       <c r="P105" s="9"/>
       <c r="Q105" s="9"/>
-      <c r="R105" s="23"/>
-      <c r="S105" s="10"/>
-      <c r="T105" s="23"/>
-      <c r="U105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="23"/>
+      <c r="T105" s="10"/>
+      <c r="U105" s="23"/>
       <c r="V105" s="9"/>
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
@@ -6153,16 +6268,17 @@
       <c r="AO105" s="9"/>
       <c r="AP105" s="9"/>
       <c r="AQ105" s="9"/>
-    </row>
-    <row r="106" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR105" s="9"/>
+    </row>
+    <row r="106" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="9"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="8"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
@@ -6172,10 +6288,10 @@
       <c r="O106" s="9"/>
       <c r="P106" s="9"/>
       <c r="Q106" s="9"/>
-      <c r="R106" s="23"/>
-      <c r="S106" s="10"/>
-      <c r="T106" s="23"/>
-      <c r="U106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="23"/>
+      <c r="T106" s="10"/>
+      <c r="U106" s="23"/>
       <c r="V106" s="9"/>
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
@@ -6198,16 +6314,17 @@
       <c r="AO106" s="9"/>
       <c r="AP106" s="9"/>
       <c r="AQ106" s="9"/>
-    </row>
-    <row r="107" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR106" s="9"/>
+    </row>
+    <row r="107" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="9"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="8"/>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
@@ -6217,21 +6334,21 @@
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
       <c r="Q107" s="9"/>
-      <c r="R107" s="23"/>
-      <c r="S107" s="10"/>
-      <c r="T107" s="23"/>
-      <c r="U107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="23"/>
+      <c r="T107" s="10"/>
+      <c r="U107" s="23"/>
       <c r="V107" s="9"/>
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
-      <c r="AB107" s="11"/>
+      <c r="AB107" s="9"/>
       <c r="AC107" s="11"/>
       <c r="AD107" s="11"/>
       <c r="AE107" s="11"/>
-      <c r="AF107" s="9"/>
+      <c r="AF107" s="11"/>
       <c r="AG107" s="9"/>
       <c r="AH107" s="9"/>
       <c r="AI107" s="9"/>
@@ -6243,16 +6360,17 @@
       <c r="AO107" s="9"/>
       <c r="AP107" s="9"/>
       <c r="AQ107" s="9"/>
-    </row>
-    <row r="108" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR107" s="9"/>
+    </row>
+    <row r="108" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="9"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="8"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
@@ -6262,10 +6380,10 @@
       <c r="O108" s="9"/>
       <c r="P108" s="9"/>
       <c r="Q108" s="9"/>
-      <c r="R108" s="23"/>
-      <c r="S108" s="10"/>
-      <c r="T108" s="23"/>
-      <c r="U108" s="9"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="23"/>
+      <c r="T108" s="10"/>
+      <c r="U108" s="23"/>
       <c r="V108" s="9"/>
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
@@ -6288,16 +6406,17 @@
       <c r="AO108" s="9"/>
       <c r="AP108" s="9"/>
       <c r="AQ108" s="9"/>
-    </row>
-    <row r="109" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR108" s="9"/>
+    </row>
+    <row r="109" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="9"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="8"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
@@ -6307,17 +6426,17 @@
       <c r="O109" s="9"/>
       <c r="P109" s="9"/>
       <c r="Q109" s="9"/>
-      <c r="R109" s="23"/>
-      <c r="S109" s="10"/>
-      <c r="T109" s="23"/>
-      <c r="U109" s="9"/>
-      <c r="V109" s="17"/>
-      <c r="W109" s="9"/>
-      <c r="X109" s="19"/>
-      <c r="Y109" s="17"/>
-      <c r="Z109" s="9"/>
-      <c r="AA109" s="17"/>
-      <c r="AB109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="23"/>
+      <c r="T109" s="10"/>
+      <c r="U109" s="23"/>
+      <c r="V109" s="9"/>
+      <c r="W109" s="17"/>
+      <c r="X109" s="9"/>
+      <c r="Y109" s="19"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="9"/>
+      <c r="AB109" s="17"/>
       <c r="AC109" s="9"/>
       <c r="AD109" s="9"/>
       <c r="AE109" s="9"/>
@@ -6333,16 +6452,17 @@
       <c r="AO109" s="9"/>
       <c r="AP109" s="9"/>
       <c r="AQ109" s="9"/>
-    </row>
-    <row r="110" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR109" s="9"/>
+    </row>
+    <row r="110" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="9"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="8"/>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
@@ -6352,17 +6472,17 @@
       <c r="O110" s="9"/>
       <c r="P110" s="9"/>
       <c r="Q110" s="9"/>
-      <c r="R110" s="23"/>
-      <c r="S110" s="10"/>
-      <c r="T110" s="23"/>
-      <c r="U110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="23"/>
+      <c r="T110" s="10"/>
+      <c r="U110" s="23"/>
       <c r="V110" s="9"/>
-      <c r="W110" s="11"/>
-      <c r="X110" s="9"/>
+      <c r="W110" s="9"/>
+      <c r="X110" s="11"/>
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
-      <c r="AB110" s="17"/>
+      <c r="AB110" s="9"/>
       <c r="AC110" s="17"/>
       <c r="AD110" s="17"/>
       <c r="AE110" s="17"/>
@@ -6371,23 +6491,24 @@
       <c r="AH110" s="17"/>
       <c r="AI110" s="17"/>
       <c r="AJ110" s="17"/>
-      <c r="AK110" s="9"/>
+      <c r="AK110" s="17"/>
       <c r="AL110" s="9"/>
       <c r="AM110" s="9"/>
       <c r="AN110" s="9"/>
       <c r="AO110" s="9"/>
       <c r="AP110" s="9"/>
       <c r="AQ110" s="9"/>
-    </row>
-    <row r="111" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR110" s="9"/>
+    </row>
+    <row r="111" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="9"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="8"/>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
@@ -6397,10 +6518,10 @@
       <c r="O111" s="9"/>
       <c r="P111" s="9"/>
       <c r="Q111" s="9"/>
-      <c r="R111" s="23"/>
-      <c r="S111" s="10"/>
-      <c r="T111" s="23"/>
-      <c r="U111" s="9"/>
+      <c r="R111" s="9"/>
+      <c r="S111" s="23"/>
+      <c r="T111" s="10"/>
+      <c r="U111" s="23"/>
       <c r="V111" s="9"/>
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
@@ -6423,16 +6544,17 @@
       <c r="AO111" s="9"/>
       <c r="AP111" s="9"/>
       <c r="AQ111" s="9"/>
-    </row>
-    <row r="112" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR111" s="9"/>
+    </row>
+    <row r="112" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="9"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="8"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -6442,10 +6564,10 @@
       <c r="O112" s="9"/>
       <c r="P112" s="9"/>
       <c r="Q112" s="9"/>
-      <c r="R112" s="23"/>
-      <c r="S112" s="10"/>
-      <c r="T112" s="23"/>
-      <c r="U112" s="9"/>
+      <c r="R112" s="9"/>
+      <c r="S112" s="23"/>
+      <c r="T112" s="10"/>
+      <c r="U112" s="23"/>
       <c r="V112" s="9"/>
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
@@ -6468,16 +6590,17 @@
       <c r="AO112" s="9"/>
       <c r="AP112" s="9"/>
       <c r="AQ112" s="9"/>
-    </row>
-    <row r="113" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR112" s="9"/>
+    </row>
+    <row r="113" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="9"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="8"/>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
@@ -6487,15 +6610,15 @@
       <c r="O113" s="9"/>
       <c r="P113" s="9"/>
       <c r="Q113" s="9"/>
-      <c r="R113" s="23"/>
-      <c r="S113" s="10"/>
-      <c r="T113" s="23"/>
-      <c r="U113" s="9"/>
+      <c r="R113" s="9"/>
+      <c r="S113" s="23"/>
+      <c r="T113" s="10"/>
+      <c r="U113" s="23"/>
       <c r="V113" s="9"/>
       <c r="W113" s="9"/>
-      <c r="X113" s="17"/>
+      <c r="X113" s="9"/>
       <c r="Y113" s="17"/>
-      <c r="Z113" s="9"/>
+      <c r="Z113" s="17"/>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
@@ -6513,16 +6636,17 @@
       <c r="AO113" s="9"/>
       <c r="AP113" s="9"/>
       <c r="AQ113" s="9"/>
-    </row>
-    <row r="114" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR113" s="9"/>
+    </row>
+    <row r="114" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="9"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="8"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
@@ -6532,10 +6656,10 @@
       <c r="O114" s="9"/>
       <c r="P114" s="9"/>
       <c r="Q114" s="9"/>
-      <c r="R114" s="23"/>
-      <c r="S114" s="10"/>
-      <c r="T114" s="23"/>
-      <c r="U114" s="9"/>
+      <c r="R114" s="9"/>
+      <c r="S114" s="23"/>
+      <c r="T114" s="10"/>
+      <c r="U114" s="23"/>
       <c r="V114" s="9"/>
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
@@ -6558,16 +6682,17 @@
       <c r="AO114" s="9"/>
       <c r="AP114" s="9"/>
       <c r="AQ114" s="9"/>
-    </row>
-    <row r="115" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR114" s="9"/>
+    </row>
+    <row r="115" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="9"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="8"/>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
@@ -6577,10 +6702,10 @@
       <c r="O115" s="9"/>
       <c r="P115" s="9"/>
       <c r="Q115" s="9"/>
-      <c r="R115" s="23"/>
-      <c r="S115" s="10"/>
-      <c r="T115" s="23"/>
-      <c r="U115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="23"/>
+      <c r="T115" s="10"/>
+      <c r="U115" s="23"/>
       <c r="V115" s="9"/>
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
@@ -6603,29 +6728,30 @@
       <c r="AO115" s="9"/>
       <c r="AP115" s="9"/>
       <c r="AQ115" s="9"/>
-    </row>
-    <row r="116" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR115" s="9"/>
+    </row>
+    <row r="116" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="9"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="8"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="17"/>
       <c r="O116" s="9"/>
       <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
-      <c r="R116" s="23"/>
-      <c r="S116" s="10"/>
-      <c r="T116" s="23"/>
-      <c r="U116" s="9"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="23"/>
+      <c r="T116" s="10"/>
+      <c r="U116" s="23"/>
       <c r="V116" s="9"/>
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
@@ -6648,29 +6774,30 @@
       <c r="AO116" s="9"/>
       <c r="AP116" s="9"/>
       <c r="AQ116" s="9"/>
-    </row>
-    <row r="117" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR116" s="9"/>
+    </row>
+    <row r="117" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="9"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="8"/>
       <c r="I117" s="9"/>
-      <c r="J117" s="23"/>
-      <c r="K117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="23"/>
       <c r="L117" s="9"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="17"/>
       <c r="O117" s="9"/>
       <c r="P117" s="9"/>
       <c r="Q117" s="9"/>
-      <c r="R117" s="23"/>
-      <c r="S117" s="10"/>
-      <c r="T117" s="23"/>
-      <c r="U117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="23"/>
+      <c r="T117" s="10"/>
+      <c r="U117" s="23"/>
       <c r="V117" s="9"/>
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
@@ -6693,16 +6820,17 @@
       <c r="AO117" s="9"/>
       <c r="AP117" s="9"/>
       <c r="AQ117" s="9"/>
-    </row>
-    <row r="118" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR117" s="9"/>
+    </row>
+    <row r="118" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="9"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="8"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
@@ -6712,10 +6840,10 @@
       <c r="O118" s="9"/>
       <c r="P118" s="9"/>
       <c r="Q118" s="9"/>
-      <c r="R118" s="23"/>
-      <c r="S118" s="10"/>
-      <c r="T118" s="23"/>
-      <c r="U118" s="9"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="23"/>
+      <c r="T118" s="10"/>
+      <c r="U118" s="23"/>
       <c r="V118" s="9"/>
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
@@ -6738,16 +6866,17 @@
       <c r="AO118" s="9"/>
       <c r="AP118" s="9"/>
       <c r="AQ118" s="9"/>
-    </row>
-    <row r="119" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR118" s="9"/>
+    </row>
+    <row r="119" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="9"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="8"/>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
@@ -6757,10 +6886,10 @@
       <c r="O119" s="9"/>
       <c r="P119" s="9"/>
       <c r="Q119" s="9"/>
-      <c r="R119" s="23"/>
-      <c r="S119" s="10"/>
-      <c r="T119" s="23"/>
-      <c r="U119" s="9"/>
+      <c r="R119" s="9"/>
+      <c r="S119" s="23"/>
+      <c r="T119" s="10"/>
+      <c r="U119" s="23"/>
       <c r="V119" s="9"/>
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
@@ -6783,16 +6912,17 @@
       <c r="AO119" s="9"/>
       <c r="AP119" s="9"/>
       <c r="AQ119" s="9"/>
-    </row>
-    <row r="120" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR119" s="9"/>
+    </row>
+    <row r="120" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="9"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="8"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
@@ -6802,10 +6932,10 @@
       <c r="O120" s="9"/>
       <c r="P120" s="9"/>
       <c r="Q120" s="9"/>
-      <c r="R120" s="23"/>
-      <c r="S120" s="10"/>
-      <c r="T120" s="23"/>
-      <c r="U120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="23"/>
+      <c r="T120" s="10"/>
+      <c r="U120" s="23"/>
       <c r="V120" s="9"/>
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
@@ -6828,16 +6958,17 @@
       <c r="AO120" s="9"/>
       <c r="AP120" s="9"/>
       <c r="AQ120" s="9"/>
-    </row>
-    <row r="121" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR120" s="9"/>
+    </row>
+    <row r="121" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="9"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="8"/>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
@@ -6847,10 +6978,10 @@
       <c r="O121" s="9"/>
       <c r="P121" s="9"/>
       <c r="Q121" s="9"/>
-      <c r="R121" s="23"/>
-      <c r="S121" s="10"/>
-      <c r="T121" s="23"/>
-      <c r="U121" s="9"/>
+      <c r="R121" s="9"/>
+      <c r="S121" s="23"/>
+      <c r="T121" s="10"/>
+      <c r="U121" s="23"/>
       <c r="V121" s="9"/>
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
@@ -6873,29 +7004,30 @@
       <c r="AO121" s="9"/>
       <c r="AP121" s="9"/>
       <c r="AQ121" s="9"/>
-    </row>
-    <row r="122" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR121" s="9"/>
+    </row>
+    <row r="122" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="9"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="8"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
-      <c r="K122" s="13"/>
-      <c r="L122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="13"/>
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
       <c r="O122" s="9"/>
       <c r="P122" s="9"/>
       <c r="Q122" s="9"/>
-      <c r="R122" s="23"/>
-      <c r="S122" s="10"/>
-      <c r="T122" s="23"/>
-      <c r="U122" s="9"/>
+      <c r="R122" s="9"/>
+      <c r="S122" s="23"/>
+      <c r="T122" s="10"/>
+      <c r="U122" s="23"/>
       <c r="V122" s="9"/>
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
@@ -6918,16 +7050,17 @@
       <c r="AO122" s="9"/>
       <c r="AP122" s="9"/>
       <c r="AQ122" s="9"/>
-    </row>
-    <row r="123" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR122" s="9"/>
+    </row>
+    <row r="123" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="9"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="8"/>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
@@ -6937,10 +7070,10 @@
       <c r="O123" s="9"/>
       <c r="P123" s="9"/>
       <c r="Q123" s="9"/>
-      <c r="R123" s="23"/>
-      <c r="S123" s="10"/>
-      <c r="T123" s="23"/>
-      <c r="U123" s="9"/>
+      <c r="R123" s="9"/>
+      <c r="S123" s="23"/>
+      <c r="T123" s="10"/>
+      <c r="U123" s="23"/>
       <c r="V123" s="9"/>
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
@@ -6963,16 +7096,17 @@
       <c r="AO123" s="9"/>
       <c r="AP123" s="9"/>
       <c r="AQ123" s="9"/>
-    </row>
-    <row r="124" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR123" s="9"/>
+    </row>
+    <row r="124" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="9"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="8"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
@@ -6982,10 +7116,10 @@
       <c r="O124" s="9"/>
       <c r="P124" s="9"/>
       <c r="Q124" s="9"/>
-      <c r="R124" s="23"/>
-      <c r="S124" s="10"/>
-      <c r="T124" s="23"/>
-      <c r="U124" s="9"/>
+      <c r="R124" s="9"/>
+      <c r="S124" s="23"/>
+      <c r="T124" s="10"/>
+      <c r="U124" s="23"/>
       <c r="V124" s="9"/>
       <c r="W124" s="9"/>
       <c r="X124" s="9"/>
@@ -7008,16 +7142,17 @@
       <c r="AO124" s="9"/>
       <c r="AP124" s="9"/>
       <c r="AQ124" s="9"/>
-    </row>
-    <row r="125" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR124" s="9"/>
+    </row>
+    <row r="125" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="9"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="8"/>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
@@ -7027,10 +7162,10 @@
       <c r="O125" s="9"/>
       <c r="P125" s="9"/>
       <c r="Q125" s="9"/>
-      <c r="R125" s="23"/>
-      <c r="S125" s="10"/>
-      <c r="T125" s="23"/>
-      <c r="U125" s="9"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="23"/>
+      <c r="T125" s="10"/>
+      <c r="U125" s="23"/>
       <c r="V125" s="9"/>
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
@@ -7053,16 +7188,17 @@
       <c r="AO125" s="9"/>
       <c r="AP125" s="9"/>
       <c r="AQ125" s="9"/>
-    </row>
-    <row r="126" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR125" s="9"/>
+    </row>
+    <row r="126" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="9"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="8"/>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
@@ -7072,10 +7208,10 @@
       <c r="O126" s="9"/>
       <c r="P126" s="9"/>
       <c r="Q126" s="9"/>
-      <c r="R126" s="23"/>
-      <c r="S126" s="10"/>
-      <c r="T126" s="23"/>
-      <c r="U126" s="9"/>
+      <c r="R126" s="9"/>
+      <c r="S126" s="23"/>
+      <c r="T126" s="10"/>
+      <c r="U126" s="23"/>
       <c r="V126" s="9"/>
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
@@ -7098,16 +7234,17 @@
       <c r="AO126" s="9"/>
       <c r="AP126" s="9"/>
       <c r="AQ126" s="9"/>
-    </row>
-    <row r="127" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR126" s="9"/>
+    </row>
+    <row r="127" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="9"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="8"/>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
@@ -7117,10 +7254,10 @@
       <c r="O127" s="9"/>
       <c r="P127" s="9"/>
       <c r="Q127" s="9"/>
-      <c r="R127" s="23"/>
-      <c r="S127" s="10"/>
-      <c r="T127" s="23"/>
-      <c r="U127" s="9"/>
+      <c r="R127" s="9"/>
+      <c r="S127" s="23"/>
+      <c r="T127" s="10"/>
+      <c r="U127" s="23"/>
       <c r="V127" s="9"/>
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
@@ -7143,16 +7280,17 @@
       <c r="AO127" s="9"/>
       <c r="AP127" s="9"/>
       <c r="AQ127" s="9"/>
-    </row>
-    <row r="128" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR127" s="9"/>
+    </row>
+    <row r="128" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="9"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="8"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -7162,10 +7300,10 @@
       <c r="O128" s="9"/>
       <c r="P128" s="9"/>
       <c r="Q128" s="9"/>
-      <c r="R128" s="23"/>
-      <c r="S128" s="10"/>
-      <c r="T128" s="23"/>
-      <c r="U128" s="9"/>
+      <c r="R128" s="9"/>
+      <c r="S128" s="23"/>
+      <c r="T128" s="10"/>
+      <c r="U128" s="23"/>
       <c r="V128" s="9"/>
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
@@ -7188,16 +7326,17 @@
       <c r="AO128" s="9"/>
       <c r="AP128" s="9"/>
       <c r="AQ128" s="9"/>
-    </row>
-    <row r="129" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR128" s="9"/>
+    </row>
+    <row r="129" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="9"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="8"/>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
@@ -7207,10 +7346,10 @@
       <c r="O129" s="9"/>
       <c r="P129" s="9"/>
       <c r="Q129" s="9"/>
-      <c r="R129" s="23"/>
-      <c r="S129" s="10"/>
-      <c r="T129" s="23"/>
-      <c r="U129" s="9"/>
+      <c r="R129" s="9"/>
+      <c r="S129" s="23"/>
+      <c r="T129" s="10"/>
+      <c r="U129" s="23"/>
       <c r="V129" s="9"/>
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
@@ -7233,16 +7372,17 @@
       <c r="AO129" s="9"/>
       <c r="AP129" s="9"/>
       <c r="AQ129" s="9"/>
-    </row>
-    <row r="130" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR129" s="9"/>
+    </row>
+    <row r="130" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="9"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="8"/>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
@@ -7252,10 +7392,10 @@
       <c r="O130" s="9"/>
       <c r="P130" s="9"/>
       <c r="Q130" s="9"/>
-      <c r="R130" s="23"/>
-      <c r="S130" s="10"/>
-      <c r="T130" s="23"/>
-      <c r="U130" s="9"/>
+      <c r="R130" s="9"/>
+      <c r="S130" s="23"/>
+      <c r="T130" s="10"/>
+      <c r="U130" s="23"/>
       <c r="V130" s="9"/>
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
@@ -7278,16 +7418,17 @@
       <c r="AO130" s="9"/>
       <c r="AP130" s="9"/>
       <c r="AQ130" s="9"/>
-    </row>
-    <row r="131" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR130" s="9"/>
+    </row>
+    <row r="131" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="9"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="8"/>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
@@ -7297,10 +7438,10 @@
       <c r="O131" s="9"/>
       <c r="P131" s="9"/>
       <c r="Q131" s="9"/>
-      <c r="R131" s="23"/>
-      <c r="S131" s="10"/>
-      <c r="T131" s="23"/>
-      <c r="U131" s="9"/>
+      <c r="R131" s="9"/>
+      <c r="S131" s="23"/>
+      <c r="T131" s="10"/>
+      <c r="U131" s="23"/>
       <c r="V131" s="9"/>
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
@@ -7323,16 +7464,17 @@
       <c r="AO131" s="9"/>
       <c r="AP131" s="9"/>
       <c r="AQ131" s="9"/>
-    </row>
-    <row r="132" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR131" s="9"/>
+    </row>
+    <row r="132" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="9"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="8"/>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
@@ -7342,10 +7484,10 @@
       <c r="O132" s="9"/>
       <c r="P132" s="9"/>
       <c r="Q132" s="9"/>
-      <c r="R132" s="23"/>
-      <c r="S132" s="10"/>
-      <c r="T132" s="23"/>
-      <c r="U132" s="9"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="23"/>
+      <c r="T132" s="10"/>
+      <c r="U132" s="23"/>
       <c r="V132" s="9"/>
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
@@ -7368,16 +7510,17 @@
       <c r="AO132" s="9"/>
       <c r="AP132" s="9"/>
       <c r="AQ132" s="9"/>
-    </row>
-    <row r="133" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR132" s="9"/>
+    </row>
+    <row r="133" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="9"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="8"/>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
@@ -7387,10 +7530,10 @@
       <c r="O133" s="9"/>
       <c r="P133" s="9"/>
       <c r="Q133" s="9"/>
-      <c r="R133" s="23"/>
-      <c r="S133" s="10"/>
-      <c r="T133" s="23"/>
-      <c r="U133" s="9"/>
+      <c r="R133" s="9"/>
+      <c r="S133" s="23"/>
+      <c r="T133" s="10"/>
+      <c r="U133" s="23"/>
       <c r="V133" s="9"/>
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
@@ -7413,16 +7556,17 @@
       <c r="AO133" s="9"/>
       <c r="AP133" s="9"/>
       <c r="AQ133" s="9"/>
-    </row>
-    <row r="134" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR133" s="9"/>
+    </row>
+    <row r="134" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="9"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="8"/>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
@@ -7432,10 +7576,10 @@
       <c r="O134" s="9"/>
       <c r="P134" s="9"/>
       <c r="Q134" s="9"/>
-      <c r="R134" s="23"/>
-      <c r="S134" s="10"/>
-      <c r="T134" s="23"/>
-      <c r="U134" s="9"/>
+      <c r="R134" s="9"/>
+      <c r="S134" s="23"/>
+      <c r="T134" s="10"/>
+      <c r="U134" s="23"/>
       <c r="V134" s="9"/>
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
@@ -7458,16 +7602,17 @@
       <c r="AO134" s="9"/>
       <c r="AP134" s="9"/>
       <c r="AQ134" s="9"/>
-    </row>
-    <row r="135" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR134" s="9"/>
+    </row>
+    <row r="135" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="9"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="8"/>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
@@ -7477,10 +7622,10 @@
       <c r="O135" s="9"/>
       <c r="P135" s="9"/>
       <c r="Q135" s="9"/>
-      <c r="R135" s="23"/>
-      <c r="S135" s="10"/>
-      <c r="T135" s="23"/>
-      <c r="U135" s="9"/>
+      <c r="R135" s="9"/>
+      <c r="S135" s="23"/>
+      <c r="T135" s="10"/>
+      <c r="U135" s="23"/>
       <c r="V135" s="9"/>
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
@@ -7503,16 +7648,17 @@
       <c r="AO135" s="9"/>
       <c r="AP135" s="9"/>
       <c r="AQ135" s="9"/>
-    </row>
-    <row r="136" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR135" s="9"/>
+    </row>
+    <row r="136" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="9"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="8"/>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
@@ -7522,14 +7668,14 @@
       <c r="O136" s="9"/>
       <c r="P136" s="9"/>
       <c r="Q136" s="9"/>
-      <c r="R136" s="23"/>
-      <c r="S136" s="10"/>
-      <c r="T136" s="23"/>
-      <c r="U136" s="9"/>
+      <c r="R136" s="9"/>
+      <c r="S136" s="23"/>
+      <c r="T136" s="10"/>
+      <c r="U136" s="23"/>
       <c r="V136" s="9"/>
       <c r="W136" s="9"/>
-      <c r="X136" s="23"/>
-      <c r="Y136" s="9"/>
+      <c r="X136" s="9"/>
+      <c r="Y136" s="23"/>
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
       <c r="AB136" s="9"/>
@@ -7548,16 +7694,17 @@
       <c r="AO136" s="9"/>
       <c r="AP136" s="9"/>
       <c r="AQ136" s="9"/>
-    </row>
-    <row r="137" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR136" s="9"/>
+    </row>
+    <row r="137" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="9"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="8"/>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
@@ -7567,10 +7714,10 @@
       <c r="O137" s="9"/>
       <c r="P137" s="9"/>
       <c r="Q137" s="9"/>
-      <c r="R137" s="23"/>
-      <c r="S137" s="10"/>
-      <c r="T137" s="23"/>
-      <c r="U137" s="9"/>
+      <c r="R137" s="9"/>
+      <c r="S137" s="23"/>
+      <c r="T137" s="10"/>
+      <c r="U137" s="23"/>
       <c r="V137" s="9"/>
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
@@ -7593,16 +7740,17 @@
       <c r="AO137" s="9"/>
       <c r="AP137" s="9"/>
       <c r="AQ137" s="9"/>
-    </row>
-    <row r="138" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR137" s="9"/>
+    </row>
+    <row r="138" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="9"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="8"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
@@ -7612,10 +7760,10 @@
       <c r="O138" s="9"/>
       <c r="P138" s="9"/>
       <c r="Q138" s="9"/>
-      <c r="R138" s="23"/>
-      <c r="S138" s="10"/>
-      <c r="T138" s="23"/>
-      <c r="U138" s="9"/>
+      <c r="R138" s="9"/>
+      <c r="S138" s="23"/>
+      <c r="T138" s="10"/>
+      <c r="U138" s="23"/>
       <c r="V138" s="9"/>
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
@@ -7638,16 +7786,17 @@
       <c r="AO138" s="9"/>
       <c r="AP138" s="9"/>
       <c r="AQ138" s="9"/>
-    </row>
-    <row r="139" spans="1:43" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR138" s="9"/>
+    </row>
+    <row r="139" spans="1:44" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="9"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="8"/>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
@@ -7657,10 +7806,10 @@
       <c r="O139" s="9"/>
       <c r="P139" s="9"/>
       <c r="Q139" s="9"/>
-      <c r="R139" s="23"/>
-      <c r="S139" s="10"/>
-      <c r="T139" s="23"/>
-      <c r="U139" s="9"/>
+      <c r="R139" s="9"/>
+      <c r="S139" s="23"/>
+      <c r="T139" s="10"/>
+      <c r="U139" s="23"/>
       <c r="V139" s="9"/>
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
@@ -7683,16 +7832,17 @@
       <c r="AO139" s="9"/>
       <c r="AP139" s="9"/>
       <c r="AQ139" s="9"/>
-    </row>
-    <row r="140" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR139" s="9"/>
+    </row>
+    <row r="140" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="9"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="8"/>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
@@ -7702,10 +7852,10 @@
       <c r="O140" s="9"/>
       <c r="P140" s="9"/>
       <c r="Q140" s="9"/>
-      <c r="R140" s="23"/>
-      <c r="S140" s="10"/>
-      <c r="T140" s="23"/>
-      <c r="U140" s="9"/>
+      <c r="R140" s="9"/>
+      <c r="S140" s="23"/>
+      <c r="T140" s="10"/>
+      <c r="U140" s="23"/>
       <c r="V140" s="9"/>
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
@@ -7728,16 +7878,17 @@
       <c r="AO140" s="9"/>
       <c r="AP140" s="9"/>
       <c r="AQ140" s="9"/>
-    </row>
-    <row r="141" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR140" s="9"/>
+    </row>
+    <row r="141" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="9"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="8"/>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
@@ -7747,10 +7898,10 @@
       <c r="O141" s="9"/>
       <c r="P141" s="9"/>
       <c r="Q141" s="9"/>
-      <c r="R141" s="23"/>
-      <c r="S141" s="10"/>
-      <c r="T141" s="23"/>
-      <c r="U141" s="9"/>
+      <c r="R141" s="9"/>
+      <c r="S141" s="23"/>
+      <c r="T141" s="10"/>
+      <c r="U141" s="23"/>
       <c r="V141" s="9"/>
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
@@ -7773,16 +7924,17 @@
       <c r="AO141" s="9"/>
       <c r="AP141" s="9"/>
       <c r="AQ141" s="9"/>
-    </row>
-    <row r="142" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR141" s="9"/>
+    </row>
+    <row r="142" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="9"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="8"/>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
@@ -7792,10 +7944,10 @@
       <c r="O142" s="9"/>
       <c r="P142" s="9"/>
       <c r="Q142" s="9"/>
-      <c r="R142" s="23"/>
-      <c r="S142" s="10"/>
-      <c r="T142" s="23"/>
-      <c r="U142" s="9"/>
+      <c r="R142" s="9"/>
+      <c r="S142" s="23"/>
+      <c r="T142" s="10"/>
+      <c r="U142" s="23"/>
       <c r="V142" s="9"/>
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
@@ -7818,16 +7970,17 @@
       <c r="AO142" s="9"/>
       <c r="AP142" s="9"/>
       <c r="AQ142" s="9"/>
-    </row>
-    <row r="143" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR142" s="9"/>
+    </row>
+    <row r="143" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="9"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="8"/>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
@@ -7837,10 +7990,10 @@
       <c r="O143" s="9"/>
       <c r="P143" s="9"/>
       <c r="Q143" s="9"/>
-      <c r="R143" s="23"/>
-      <c r="S143" s="10"/>
-      <c r="T143" s="23"/>
-      <c r="U143" s="9"/>
+      <c r="R143" s="9"/>
+      <c r="S143" s="23"/>
+      <c r="T143" s="10"/>
+      <c r="U143" s="23"/>
       <c r="V143" s="9"/>
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
@@ -7863,16 +8016,17 @@
       <c r="AO143" s="9"/>
       <c r="AP143" s="9"/>
       <c r="AQ143" s="9"/>
-    </row>
-    <row r="144" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR143" s="9"/>
+    </row>
+    <row r="144" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="9"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="8"/>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
@@ -7882,10 +8036,10 @@
       <c r="O144" s="9"/>
       <c r="P144" s="9"/>
       <c r="Q144" s="9"/>
-      <c r="R144" s="23"/>
-      <c r="S144" s="10"/>
-      <c r="T144" s="23"/>
-      <c r="U144" s="9"/>
+      <c r="R144" s="9"/>
+      <c r="S144" s="23"/>
+      <c r="T144" s="10"/>
+      <c r="U144" s="23"/>
       <c r="V144" s="9"/>
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
@@ -7908,16 +8062,17 @@
       <c r="AO144" s="9"/>
       <c r="AP144" s="9"/>
       <c r="AQ144" s="9"/>
-    </row>
-    <row r="145" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR144" s="9"/>
+    </row>
+    <row r="145" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="9"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="8"/>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
@@ -7927,10 +8082,10 @@
       <c r="O145" s="9"/>
       <c r="P145" s="9"/>
       <c r="Q145" s="9"/>
-      <c r="R145" s="23"/>
-      <c r="S145" s="10"/>
-      <c r="T145" s="23"/>
-      <c r="U145" s="9"/>
+      <c r="R145" s="9"/>
+      <c r="S145" s="23"/>
+      <c r="T145" s="10"/>
+      <c r="U145" s="23"/>
       <c r="V145" s="9"/>
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
@@ -7953,16 +8108,17 @@
       <c r="AO145" s="9"/>
       <c r="AP145" s="9"/>
       <c r="AQ145" s="9"/>
-    </row>
-    <row r="146" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR145" s="9"/>
+    </row>
+    <row r="146" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="9"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="8"/>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
@@ -7972,10 +8128,10 @@
       <c r="O146" s="9"/>
       <c r="P146" s="9"/>
       <c r="Q146" s="9"/>
-      <c r="R146" s="23"/>
-      <c r="S146" s="10"/>
-      <c r="T146" s="23"/>
-      <c r="U146" s="9"/>
+      <c r="R146" s="9"/>
+      <c r="S146" s="23"/>
+      <c r="T146" s="10"/>
+      <c r="U146" s="23"/>
       <c r="V146" s="9"/>
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
@@ -7998,16 +8154,17 @@
       <c r="AO146" s="9"/>
       <c r="AP146" s="9"/>
       <c r="AQ146" s="9"/>
-    </row>
-    <row r="147" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR146" s="9"/>
+    </row>
+    <row r="147" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="9"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="8"/>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
@@ -8017,10 +8174,10 @@
       <c r="O147" s="9"/>
       <c r="P147" s="9"/>
       <c r="Q147" s="9"/>
-      <c r="R147" s="23"/>
-      <c r="S147" s="10"/>
-      <c r="T147" s="23"/>
-      <c r="U147" s="9"/>
+      <c r="R147" s="9"/>
+      <c r="S147" s="23"/>
+      <c r="T147" s="10"/>
+      <c r="U147" s="23"/>
       <c r="V147" s="9"/>
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
@@ -8043,16 +8200,17 @@
       <c r="AO147" s="9"/>
       <c r="AP147" s="9"/>
       <c r="AQ147" s="9"/>
-    </row>
-    <row r="148" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR147" s="9"/>
+    </row>
+    <row r="148" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="9"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="8"/>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
@@ -8062,10 +8220,10 @@
       <c r="O148" s="9"/>
       <c r="P148" s="9"/>
       <c r="Q148" s="9"/>
-      <c r="R148" s="23"/>
-      <c r="S148" s="10"/>
-      <c r="T148" s="23"/>
-      <c r="U148" s="9"/>
+      <c r="R148" s="9"/>
+      <c r="S148" s="23"/>
+      <c r="T148" s="10"/>
+      <c r="U148" s="23"/>
       <c r="V148" s="9"/>
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
@@ -8088,16 +8246,17 @@
       <c r="AO148" s="9"/>
       <c r="AP148" s="9"/>
       <c r="AQ148" s="9"/>
-    </row>
-    <row r="149" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR148" s="9"/>
+    </row>
+    <row r="149" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="9"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="8"/>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
@@ -8107,10 +8266,10 @@
       <c r="O149" s="9"/>
       <c r="P149" s="9"/>
       <c r="Q149" s="9"/>
-      <c r="R149" s="23"/>
-      <c r="S149" s="10"/>
-      <c r="T149" s="23"/>
-      <c r="U149" s="9"/>
+      <c r="R149" s="9"/>
+      <c r="S149" s="23"/>
+      <c r="T149" s="10"/>
+      <c r="U149" s="23"/>
       <c r="V149" s="9"/>
       <c r="W149" s="9"/>
       <c r="X149" s="9"/>
@@ -8133,16 +8292,17 @@
       <c r="AO149" s="9"/>
       <c r="AP149" s="9"/>
       <c r="AQ149" s="9"/>
-    </row>
-    <row r="150" spans="1:43" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AR149" s="9"/>
+    </row>
+    <row r="150" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="9"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="8"/>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
@@ -8152,10 +8312,10 @@
       <c r="O150" s="9"/>
       <c r="P150" s="9"/>
       <c r="Q150" s="9"/>
-      <c r="R150" s="23"/>
-      <c r="S150" s="10"/>
-      <c r="T150" s="23"/>
-      <c r="U150" s="9"/>
+      <c r="R150" s="9"/>
+      <c r="S150" s="23"/>
+      <c r="T150" s="10"/>
+      <c r="U150" s="23"/>
       <c r="V150" s="9"/>
       <c r="W150" s="9"/>
       <c r="X150" s="9"/>
@@ -8178,30 +8338,32 @@
       <c r="AO150" s="9"/>
       <c r="AP150" s="9"/>
       <c r="AQ150" s="9"/>
+      <c r="AR150" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AR150" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AM150">
+  <autoFilter ref="A2:AS150" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AN150">
       <sortCondition ref="A2:A150"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="16">
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AP1:AP2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
+  <mergeCells count="17">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/src/main/resources/template/employee.xlsx
+++ b/src/main/resources/template/employee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ArchivesManagementSystem\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB36347-5FA6-4F2E-ACDE-F124CEEB2156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848F12E4-1C63-4219-AC83-BA9D57F55653}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总表" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -324,10 +324,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>刘溜溜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>信息化营销中心</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -337,10 +333,6 @@
   </si>
   <si>
     <t>普通员工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -357,27 +349,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>啊发的视频</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>沃尔夫家偶尔玩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>软件饿哦网球拍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2020/12/01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">rejwpqo </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/10/12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -393,10 +369,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ofdsh9w </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>本科</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -409,15 +381,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>周某某</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>yyj</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>员工号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息集成中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老蔡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过调查，该同志思想觉悟很高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在任何问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加工作时间与实际不太一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无任何问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -661,7 +665,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,6 +805,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1114,62 +1127,62 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="25" customWidth="1"/>
-    <col min="8" max="8" width="28.44140625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="30.88671875" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="25.33203125" style="24" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="14.109375" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="14.88671875" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="16.33203125" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="17.109375" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="21.77734375" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="18.6640625" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="34.88671875" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="5.375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="24" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="25" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="26" customWidth="1"/>
+    <col min="9" max="9" width="30.875" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="25.375" style="24" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="14.125" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="14.875" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="16.375" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="17.125" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="21.75" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="18.625" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="34.875" style="24" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="35" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="19.88671875" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="19.88671875" style="27" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="19.88671875" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="15.6640625" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="36.6640625" style="24" customWidth="1"/>
+    <col min="19" max="19" width="19.875" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="19.875" style="27" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="19.875" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="15.625" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="36.625" style="24" customWidth="1"/>
     <col min="24" max="24" width="33" style="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.33203125" style="24" customWidth="1"/>
-    <col min="27" max="27" width="12.109375" style="24" customWidth="1"/>
-    <col min="28" max="28" width="13.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="48.33203125" style="24" customWidth="1"/>
-    <col min="30" max="30" width="36.77734375" style="24" customWidth="1"/>
-    <col min="31" max="32" width="11.109375" style="24" customWidth="1"/>
+    <col min="25" max="25" width="13.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.375" style="24" customWidth="1"/>
+    <col min="27" max="27" width="12.125" style="24" customWidth="1"/>
+    <col min="28" max="28" width="13.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="48.375" style="24" customWidth="1"/>
+    <col min="30" max="30" width="36.75" style="24" customWidth="1"/>
+    <col min="31" max="32" width="11.125" style="24" customWidth="1"/>
     <col min="33" max="33" width="8" style="24" customWidth="1"/>
-    <col min="34" max="34" width="22.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.21875" style="24" customWidth="1"/>
-    <col min="36" max="37" width="22.21875" style="24" customWidth="1"/>
-    <col min="38" max="38" width="37.33203125" style="24" customWidth="1"/>
-    <col min="39" max="39" width="32.21875" style="24" customWidth="1"/>
-    <col min="40" max="40" width="12.6640625" style="24" customWidth="1"/>
-    <col min="41" max="41" width="21.21875" style="24" customWidth="1"/>
-    <col min="42" max="42" width="32.6640625" style="24" customWidth="1"/>
-    <col min="43" max="43" width="11.88671875" style="24" customWidth="1"/>
+    <col min="34" max="34" width="22.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.25" style="24" customWidth="1"/>
+    <col min="36" max="37" width="22.25" style="24" customWidth="1"/>
+    <col min="38" max="38" width="37.375" style="24" customWidth="1"/>
+    <col min="39" max="39" width="32.25" style="24" customWidth="1"/>
+    <col min="40" max="40" width="12.625" style="24" customWidth="1"/>
+    <col min="41" max="41" width="21.25" style="24" customWidth="1"/>
+    <col min="42" max="42" width="32.625" style="24" customWidth="1"/>
+    <col min="43" max="43" width="11.875" style="24" customWidth="1"/>
     <col min="44" max="44" width="9" style="24" customWidth="1"/>
     <col min="45" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:44" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>1</v>
@@ -1215,19 +1228,19 @@
       <c r="Z1" s="37"/>
       <c r="AA1" s="37"/>
       <c r="AB1" s="38"/>
-      <c r="AC1" s="47" t="s">
+      <c r="AC1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="50" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="52"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="55"/>
       <c r="AL1" s="36" t="s">
         <v>11</v>
       </c>
@@ -1244,8 +1257,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+    <row r="2" spans="1:44" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A2" s="56"/>
       <c r="B2" s="40"/>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -1257,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>17</v>
@@ -1356,30 +1369,30 @@
       <c r="AQ2" s="41"/>
       <c r="AR2" s="42"/>
     </row>
-    <row r="3" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>12514</v>
+        <v>998</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>35</v>
@@ -1403,31 +1416,31 @@
         <v>34</v>
       </c>
       <c r="P3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="23">
+        <v>44166</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="U3" s="23">
+        <v>44166</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="Y3" s="23">
         <v>36192</v>
@@ -1436,22 +1449,22 @@
         <v>36192</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AD3" s="9" t="s">
         <v>46</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AG3" s="9" t="s">
         <v>47</v>
@@ -1481,39 +1494,39 @@
         <v>45</v>
       </c>
       <c r="AP3" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AQ3" s="28" t="b">
         <v>0</v>
       </c>
       <c r="AR3" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>43532</v>
+        <v>955</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>35</v>
@@ -1537,31 +1550,31 @@
         <v>34</v>
       </c>
       <c r="P4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="23">
+        <v>44166</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="U4" s="23">
+        <v>44166</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="Y4" s="23">
         <v>36192</v>
@@ -1570,13 +1583,13 @@
         <v>36192</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AD4" s="9" t="s">
         <v>46</v>
@@ -1585,7 +1598,7 @@
         <v>29</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AG4" s="9" t="s">
         <v>47</v>
@@ -1615,16 +1628,16 @@
         <v>45</v>
       </c>
       <c r="AP4" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AQ4" s="28" t="b">
         <v>0</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="6"/>
@@ -1670,7 +1683,7 @@
       <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
     </row>
-    <row r="6" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="6"/>
@@ -1716,7 +1729,7 @@
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
     </row>
-    <row r="7" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="6"/>
@@ -1762,7 +1775,7 @@
       <c r="AQ7" s="9"/>
       <c r="AR7" s="9"/>
     </row>
-    <row r="8" spans="1:44" s="12" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" s="12" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5"/>
@@ -1808,7 +1821,7 @@
       <c r="AQ8" s="9"/>
       <c r="AR8" s="9"/>
     </row>
-    <row r="9" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="6"/>
@@ -1854,7 +1867,7 @@
       <c r="AQ9" s="9"/>
       <c r="AR9" s="9"/>
     </row>
-    <row r="10" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6"/>
@@ -1900,7 +1913,7 @@
       <c r="AQ10" s="9"/>
       <c r="AR10" s="9"/>
     </row>
-    <row r="11" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -1946,7 +1959,7 @@
       <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
     </row>
-    <row r="12" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="5"/>
@@ -1992,7 +2005,7 @@
       <c r="AQ12" s="29"/>
       <c r="AR12" s="9"/>
     </row>
-    <row r="13" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="6"/>
@@ -2038,7 +2051,7 @@
       <c r="AQ13" s="9"/>
       <c r="AR13" s="9"/>
     </row>
-    <row r="14" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="6"/>
@@ -2084,7 +2097,7 @@
       <c r="AQ14" s="9"/>
       <c r="AR14" s="9"/>
     </row>
-    <row r="15" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -2130,7 +2143,7 @@
       <c r="AQ15" s="9"/>
       <c r="AR15" s="9"/>
     </row>
-    <row r="16" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="6"/>
@@ -2176,7 +2189,7 @@
       <c r="AQ16" s="9"/>
       <c r="AR16" s="9"/>
     </row>
-    <row r="17" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="6"/>
@@ -2222,7 +2235,7 @@
       <c r="AQ17" s="9"/>
       <c r="AR17" s="9"/>
     </row>
-    <row r="18" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="6"/>
@@ -2268,7 +2281,7 @@
       <c r="AQ18" s="9"/>
       <c r="AR18" s="9"/>
     </row>
-    <row r="19" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="6"/>
@@ -2314,7 +2327,7 @@
       <c r="AQ19" s="9"/>
       <c r="AR19" s="9"/>
     </row>
-    <row r="20" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="6"/>
@@ -2360,7 +2373,7 @@
       <c r="AQ20" s="9"/>
       <c r="AR20" s="9"/>
     </row>
-    <row r="21" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
@@ -2406,7 +2419,7 @@
       <c r="AQ21" s="9"/>
       <c r="AR21" s="9"/>
     </row>
-    <row r="22" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="6"/>
@@ -2452,7 +2465,7 @@
       <c r="AQ22" s="9"/>
       <c r="AR22" s="9"/>
     </row>
-    <row r="23" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="6"/>
@@ -2498,7 +2511,7 @@
       <c r="AQ23" s="9"/>
       <c r="AR23" s="9"/>
     </row>
-    <row r="24" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="6"/>
@@ -2544,7 +2557,7 @@
       <c r="AQ24" s="9"/>
       <c r="AR24" s="9"/>
     </row>
-    <row r="25" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="6"/>
@@ -2590,7 +2603,7 @@
       <c r="AQ25" s="9"/>
       <c r="AR25" s="9"/>
     </row>
-    <row r="26" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="6"/>
@@ -2636,7 +2649,7 @@
       <c r="AQ26" s="9"/>
       <c r="AR26" s="9"/>
     </row>
-    <row r="27" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="6"/>
@@ -2682,7 +2695,7 @@
       <c r="AQ27" s="9"/>
       <c r="AR27" s="9"/>
     </row>
-    <row r="28" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="5"/>
@@ -2728,7 +2741,7 @@
       <c r="AQ28" s="9"/>
       <c r="AR28" s="9"/>
     </row>
-    <row r="29" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="6"/>
@@ -2774,7 +2787,7 @@
       <c r="AQ29" s="9"/>
       <c r="AR29" s="9"/>
     </row>
-    <row r="30" spans="1:44" s="12" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" s="12" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -2820,7 +2833,7 @@
       <c r="AQ30" s="9"/>
       <c r="AR30" s="9"/>
     </row>
-    <row r="31" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="6"/>
@@ -2866,7 +2879,7 @@
       <c r="AQ31" s="9"/>
       <c r="AR31" s="9"/>
     </row>
-    <row r="32" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="6"/>
@@ -2912,7 +2925,7 @@
       <c r="AQ32" s="9"/>
       <c r="AR32" s="9"/>
     </row>
-    <row r="33" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="6"/>
@@ -2958,7 +2971,7 @@
       <c r="AQ33" s="9"/>
       <c r="AR33" s="9"/>
     </row>
-    <row r="34" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="6"/>
@@ -3004,7 +3017,7 @@
       <c r="AQ34" s="9"/>
       <c r="AR34" s="9"/>
     </row>
-    <row r="35" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="6"/>
@@ -3050,7 +3063,7 @@
       <c r="AQ35" s="9"/>
       <c r="AR35" s="9"/>
     </row>
-    <row r="36" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="6"/>
@@ -3096,7 +3109,7 @@
       <c r="AQ36" s="9"/>
       <c r="AR36" s="9"/>
     </row>
-    <row r="37" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="6"/>
@@ -3142,7 +3155,7 @@
       <c r="AQ37" s="9"/>
       <c r="AR37" s="9"/>
     </row>
-    <row r="38" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
@@ -3188,7 +3201,7 @@
       <c r="AQ38" s="9"/>
       <c r="AR38" s="9"/>
     </row>
-    <row r="39" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="6"/>
@@ -3234,7 +3247,7 @@
       <c r="AQ39" s="9"/>
       <c r="AR39" s="9"/>
     </row>
-    <row r="40" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="6"/>
@@ -3280,7 +3293,7 @@
       <c r="AQ40" s="9"/>
       <c r="AR40" s="9"/>
     </row>
-    <row r="41" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="6"/>
@@ -3326,7 +3339,7 @@
       <c r="AQ41" s="9"/>
       <c r="AR41" s="9"/>
     </row>
-    <row r="42" spans="1:44" s="12" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" s="12" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="6"/>
@@ -3372,7 +3385,7 @@
       <c r="AQ42" s="9"/>
       <c r="AR42" s="9"/>
     </row>
-    <row r="43" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="6"/>
@@ -3418,7 +3431,7 @@
       <c r="AQ43" s="9"/>
       <c r="AR43" s="9"/>
     </row>
-    <row r="44" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="6"/>
@@ -3464,7 +3477,7 @@
       <c r="AQ44" s="9"/>
       <c r="AR44" s="9"/>
     </row>
-    <row r="45" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="6"/>
@@ -3510,7 +3523,7 @@
       <c r="AQ45" s="9"/>
       <c r="AR45" s="9"/>
     </row>
-    <row r="46" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="6"/>
@@ -3556,7 +3569,7 @@
       <c r="AQ46" s="9"/>
       <c r="AR46" s="9"/>
     </row>
-    <row r="47" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="6"/>
@@ -3602,7 +3615,7 @@
       <c r="AQ47" s="9"/>
       <c r="AR47" s="9"/>
     </row>
-    <row r="48" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="6"/>
@@ -3648,7 +3661,7 @@
       <c r="AQ48" s="9"/>
       <c r="AR48" s="9"/>
     </row>
-    <row r="49" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="6"/>
@@ -3694,7 +3707,7 @@
       <c r="AQ49" s="9"/>
       <c r="AR49" s="9"/>
     </row>
-    <row r="50" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="6"/>
@@ -3740,7 +3753,7 @@
       <c r="AQ50" s="9"/>
       <c r="AR50" s="9"/>
     </row>
-    <row r="51" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="6"/>
@@ -3786,7 +3799,7 @@
       <c r="AQ51" s="9"/>
       <c r="AR51" s="9"/>
     </row>
-    <row r="52" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="6"/>
@@ -3832,7 +3845,7 @@
       <c r="AQ52" s="9"/>
       <c r="AR52" s="9"/>
     </row>
-    <row r="53" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="6"/>
@@ -3878,7 +3891,7 @@
       <c r="AQ53" s="9"/>
       <c r="AR53" s="9"/>
     </row>
-    <row r="54" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="6"/>
@@ -3924,7 +3937,7 @@
       <c r="AQ54" s="9"/>
       <c r="AR54" s="9"/>
     </row>
-    <row r="55" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="6"/>
@@ -3970,7 +3983,7 @@
       <c r="AQ55" s="9"/>
       <c r="AR55" s="9"/>
     </row>
-    <row r="56" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="6"/>
@@ -4016,7 +4029,7 @@
       <c r="AQ56" s="9"/>
       <c r="AR56" s="9"/>
     </row>
-    <row r="57" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="6"/>
@@ -4062,7 +4075,7 @@
       <c r="AQ57" s="9"/>
       <c r="AR57" s="9"/>
     </row>
-    <row r="58" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="6"/>
@@ -4108,7 +4121,7 @@
       <c r="AQ58" s="9"/>
       <c r="AR58" s="9"/>
     </row>
-    <row r="59" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="6"/>
@@ -4154,7 +4167,7 @@
       <c r="AQ59" s="9"/>
       <c r="AR59" s="9"/>
     </row>
-    <row r="60" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="6"/>
@@ -4200,7 +4213,7 @@
       <c r="AQ60" s="9"/>
       <c r="AR60" s="9"/>
     </row>
-    <row r="61" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="6"/>
@@ -4246,7 +4259,7 @@
       <c r="AQ61" s="9"/>
       <c r="AR61" s="9"/>
     </row>
-    <row r="62" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="6"/>
@@ -4292,7 +4305,7 @@
       <c r="AQ62" s="9"/>
       <c r="AR62" s="9"/>
     </row>
-    <row r="63" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="6"/>
@@ -4338,7 +4351,7 @@
       <c r="AQ63" s="9"/>
       <c r="AR63" s="9"/>
     </row>
-    <row r="64" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="6"/>
@@ -4384,7 +4397,7 @@
       <c r="AQ64" s="9"/>
       <c r="AR64" s="9"/>
     </row>
-    <row r="65" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="6"/>
@@ -4430,7 +4443,7 @@
       <c r="AQ65" s="9"/>
       <c r="AR65" s="9"/>
     </row>
-    <row r="66" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="5"/>
@@ -4476,7 +4489,7 @@
       <c r="AQ66" s="9"/>
       <c r="AR66" s="9"/>
     </row>
-    <row r="67" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="6"/>
@@ -4522,7 +4535,7 @@
       <c r="AQ67" s="9"/>
       <c r="AR67" s="9"/>
     </row>
-    <row r="68" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="6"/>
@@ -4568,7 +4581,7 @@
       <c r="AQ68" s="9"/>
       <c r="AR68" s="9"/>
     </row>
-    <row r="69" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="6"/>
@@ -4614,7 +4627,7 @@
       <c r="AQ69" s="9"/>
       <c r="AR69" s="9"/>
     </row>
-    <row r="70" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="6"/>
@@ -4660,7 +4673,7 @@
       <c r="AQ70" s="9"/>
       <c r="AR70" s="9"/>
     </row>
-    <row r="71" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="6"/>
@@ -4706,7 +4719,7 @@
       <c r="AQ71" s="9"/>
       <c r="AR71" s="9"/>
     </row>
-    <row r="72" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="6"/>
@@ -4752,7 +4765,7 @@
       <c r="AQ72" s="9"/>
       <c r="AR72" s="9"/>
     </row>
-    <row r="73" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="6"/>
@@ -4798,7 +4811,7 @@
       <c r="AQ73" s="9"/>
       <c r="AR73" s="9"/>
     </row>
-    <row r="74" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="6"/>
@@ -4844,7 +4857,7 @@
       <c r="AQ74" s="9"/>
       <c r="AR74" s="9"/>
     </row>
-    <row r="75" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="6"/>
@@ -4890,7 +4903,7 @@
       <c r="AQ75" s="9"/>
       <c r="AR75" s="9"/>
     </row>
-    <row r="76" spans="1:44" s="12" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:44" s="12" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="6"/>
@@ -4936,7 +4949,7 @@
       <c r="AQ76" s="9"/>
       <c r="AR76" s="9"/>
     </row>
-    <row r="77" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="6"/>
@@ -4982,7 +4995,7 @@
       <c r="AQ77" s="9"/>
       <c r="AR77" s="9"/>
     </row>
-    <row r="78" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="6"/>
@@ -5028,7 +5041,7 @@
       <c r="AQ78" s="9"/>
       <c r="AR78" s="9"/>
     </row>
-    <row r="79" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="6"/>
@@ -5074,7 +5087,7 @@
       <c r="AQ79" s="9"/>
       <c r="AR79" s="9"/>
     </row>
-    <row r="80" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="6"/>
@@ -5120,7 +5133,7 @@
       <c r="AQ80" s="9"/>
       <c r="AR80" s="9"/>
     </row>
-    <row r="81" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="6"/>
@@ -5166,7 +5179,7 @@
       <c r="AQ81" s="9"/>
       <c r="AR81" s="9"/>
     </row>
-    <row r="82" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="6"/>
@@ -5212,7 +5225,7 @@
       <c r="AQ82" s="9"/>
       <c r="AR82" s="9"/>
     </row>
-    <row r="83" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="6"/>
@@ -5258,7 +5271,7 @@
       <c r="AQ83" s="9"/>
       <c r="AR83" s="9"/>
     </row>
-    <row r="84" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="6"/>
@@ -5304,7 +5317,7 @@
       <c r="AQ84" s="9"/>
       <c r="AR84" s="9"/>
     </row>
-    <row r="85" spans="1:44" s="12" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:44" s="12" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="6"/>
@@ -5350,7 +5363,7 @@
       <c r="AQ85" s="9"/>
       <c r="AR85" s="9"/>
     </row>
-    <row r="86" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="6"/>
@@ -5396,7 +5409,7 @@
       <c r="AQ86" s="9"/>
       <c r="AR86" s="9"/>
     </row>
-    <row r="87" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="6"/>
@@ -5442,7 +5455,7 @@
       <c r="AQ87" s="9"/>
       <c r="AR87" s="9"/>
     </row>
-    <row r="88" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="6"/>
@@ -5488,7 +5501,7 @@
       <c r="AQ88" s="9"/>
       <c r="AR88" s="9"/>
     </row>
-    <row r="89" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="6"/>
@@ -5534,7 +5547,7 @@
       <c r="AQ89" s="9"/>
       <c r="AR89" s="9"/>
     </row>
-    <row r="90" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="6"/>
@@ -5580,7 +5593,7 @@
       <c r="AQ90" s="9"/>
       <c r="AR90" s="9"/>
     </row>
-    <row r="91" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="6"/>
@@ -5626,7 +5639,7 @@
       <c r="AQ91" s="9"/>
       <c r="AR91" s="9"/>
     </row>
-    <row r="92" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="6"/>
@@ -5672,7 +5685,7 @@
       <c r="AQ92" s="9"/>
       <c r="AR92" s="9"/>
     </row>
-    <row r="93" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="6"/>
@@ -5718,7 +5731,7 @@
       <c r="AQ93" s="9"/>
       <c r="AR93" s="9"/>
     </row>
-    <row r="94" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="6"/>
@@ -5764,7 +5777,7 @@
       <c r="AQ94" s="9"/>
       <c r="AR94" s="9"/>
     </row>
-    <row r="95" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="6"/>
@@ -5810,7 +5823,7 @@
       <c r="AQ95" s="9"/>
       <c r="AR95" s="9"/>
     </row>
-    <row r="96" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="6"/>
@@ -5856,7 +5869,7 @@
       <c r="AQ96" s="9"/>
       <c r="AR96" s="9"/>
     </row>
-    <row r="97" spans="1:44" s="12" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:44" s="12" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="6"/>
@@ -5902,7 +5915,7 @@
       <c r="AQ97" s="9"/>
       <c r="AR97" s="9"/>
     </row>
-    <row r="98" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="6"/>
@@ -5948,7 +5961,7 @@
       <c r="AQ98" s="9"/>
       <c r="AR98" s="9"/>
     </row>
-    <row r="99" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="6"/>
@@ -5994,7 +6007,7 @@
       <c r="AQ99" s="9"/>
       <c r="AR99" s="9"/>
     </row>
-    <row r="100" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="6"/>
@@ -6040,7 +6053,7 @@
       <c r="AQ100" s="9"/>
       <c r="AR100" s="9"/>
     </row>
-    <row r="101" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="6"/>
@@ -6086,7 +6099,7 @@
       <c r="AQ101" s="9"/>
       <c r="AR101" s="9"/>
     </row>
-    <row r="102" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="6"/>
@@ -6132,7 +6145,7 @@
       <c r="AQ102" s="9"/>
       <c r="AR102" s="9"/>
     </row>
-    <row r="103" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="6"/>
@@ -6178,7 +6191,7 @@
       <c r="AQ103" s="9"/>
       <c r="AR103" s="9"/>
     </row>
-    <row r="104" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="6"/>
@@ -6224,7 +6237,7 @@
       <c r="AQ104" s="9"/>
       <c r="AR104" s="9"/>
     </row>
-    <row r="105" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="6"/>
@@ -6270,7 +6283,7 @@
       <c r="AQ105" s="9"/>
       <c r="AR105" s="9"/>
     </row>
-    <row r="106" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="6"/>
@@ -6316,7 +6329,7 @@
       <c r="AQ106" s="9"/>
       <c r="AR106" s="9"/>
     </row>
-    <row r="107" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="6"/>
@@ -6362,7 +6375,7 @@
       <c r="AQ107" s="9"/>
       <c r="AR107" s="9"/>
     </row>
-    <row r="108" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="6"/>
@@ -6408,7 +6421,7 @@
       <c r="AQ108" s="9"/>
       <c r="AR108" s="9"/>
     </row>
-    <row r="109" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="6"/>
@@ -6454,7 +6467,7 @@
       <c r="AQ109" s="9"/>
       <c r="AR109" s="9"/>
     </row>
-    <row r="110" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="6"/>
@@ -6500,7 +6513,7 @@
       <c r="AQ110" s="9"/>
       <c r="AR110" s="9"/>
     </row>
-    <row r="111" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
@@ -6546,7 +6559,7 @@
       <c r="AQ111" s="9"/>
       <c r="AR111" s="9"/>
     </row>
-    <row r="112" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="6"/>
@@ -6592,7 +6605,7 @@
       <c r="AQ112" s="9"/>
       <c r="AR112" s="9"/>
     </row>
-    <row r="113" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="6"/>
@@ -6638,7 +6651,7 @@
       <c r="AQ113" s="9"/>
       <c r="AR113" s="9"/>
     </row>
-    <row r="114" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="6"/>
@@ -6684,7 +6697,7 @@
       <c r="AQ114" s="9"/>
       <c r="AR114" s="9"/>
     </row>
-    <row r="115" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="6"/>
@@ -6730,7 +6743,7 @@
       <c r="AQ115" s="9"/>
       <c r="AR115" s="9"/>
     </row>
-    <row r="116" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="6"/>
@@ -6776,7 +6789,7 @@
       <c r="AQ116" s="9"/>
       <c r="AR116" s="9"/>
     </row>
-    <row r="117" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="6"/>
@@ -6822,7 +6835,7 @@
       <c r="AQ117" s="9"/>
       <c r="AR117" s="9"/>
     </row>
-    <row r="118" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="6"/>
@@ -6868,7 +6881,7 @@
       <c r="AQ118" s="9"/>
       <c r="AR118" s="9"/>
     </row>
-    <row r="119" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="6"/>
@@ -6914,7 +6927,7 @@
       <c r="AQ119" s="9"/>
       <c r="AR119" s="9"/>
     </row>
-    <row r="120" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="6"/>
@@ -6960,7 +6973,7 @@
       <c r="AQ120" s="9"/>
       <c r="AR120" s="9"/>
     </row>
-    <row r="121" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="6"/>
@@ -7006,7 +7019,7 @@
       <c r="AQ121" s="9"/>
       <c r="AR121" s="9"/>
     </row>
-    <row r="122" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="5"/>
@@ -7052,7 +7065,7 @@
       <c r="AQ122" s="9"/>
       <c r="AR122" s="9"/>
     </row>
-    <row r="123" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="5"/>
@@ -7098,7 +7111,7 @@
       <c r="AQ123" s="9"/>
       <c r="AR123" s="9"/>
     </row>
-    <row r="124" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="5"/>
@@ -7144,7 +7157,7 @@
       <c r="AQ124" s="9"/>
       <c r="AR124" s="9"/>
     </row>
-    <row r="125" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="5"/>
@@ -7190,7 +7203,7 @@
       <c r="AQ125" s="9"/>
       <c r="AR125" s="9"/>
     </row>
-    <row r="126" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="5"/>
@@ -7236,7 +7249,7 @@
       <c r="AQ126" s="9"/>
       <c r="AR126" s="9"/>
     </row>
-    <row r="127" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="5"/>
@@ -7282,7 +7295,7 @@
       <c r="AQ127" s="9"/>
       <c r="AR127" s="9"/>
     </row>
-    <row r="128" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="5"/>
@@ -7328,7 +7341,7 @@
       <c r="AQ128" s="9"/>
       <c r="AR128" s="9"/>
     </row>
-    <row r="129" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="5"/>
@@ -7374,7 +7387,7 @@
       <c r="AQ129" s="9"/>
       <c r="AR129" s="9"/>
     </row>
-    <row r="130" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="5"/>
@@ -7420,7 +7433,7 @@
       <c r="AQ130" s="9"/>
       <c r="AR130" s="9"/>
     </row>
-    <row r="131" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="5"/>
@@ -7466,7 +7479,7 @@
       <c r="AQ131" s="9"/>
       <c r="AR131" s="9"/>
     </row>
-    <row r="132" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="5"/>
@@ -7512,7 +7525,7 @@
       <c r="AQ132" s="9"/>
       <c r="AR132" s="9"/>
     </row>
-    <row r="133" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="5"/>
@@ -7558,7 +7571,7 @@
       <c r="AQ133" s="9"/>
       <c r="AR133" s="9"/>
     </row>
-    <row r="134" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="5"/>
@@ -7604,7 +7617,7 @@
       <c r="AQ134" s="9"/>
       <c r="AR134" s="9"/>
     </row>
-    <row r="135" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="5"/>
@@ -7650,7 +7663,7 @@
       <c r="AQ135" s="9"/>
       <c r="AR135" s="9"/>
     </row>
-    <row r="136" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="5"/>
@@ -7696,7 +7709,7 @@
       <c r="AQ136" s="9"/>
       <c r="AR136" s="9"/>
     </row>
-    <row r="137" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="6"/>
@@ -7742,7 +7755,7 @@
       <c r="AQ137" s="9"/>
       <c r="AR137" s="9"/>
     </row>
-    <row r="138" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="6"/>
@@ -7788,7 +7801,7 @@
       <c r="AQ138" s="9"/>
       <c r="AR138" s="9"/>
     </row>
-    <row r="139" spans="1:44" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:44" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="6"/>
@@ -7834,7 +7847,7 @@
       <c r="AQ139" s="9"/>
       <c r="AR139" s="9"/>
     </row>
-    <row r="140" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="5"/>
@@ -7880,7 +7893,7 @@
       <c r="AQ140" s="9"/>
       <c r="AR140" s="9"/>
     </row>
-    <row r="141" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="6"/>
@@ -7926,7 +7939,7 @@
       <c r="AQ141" s="9"/>
       <c r="AR141" s="9"/>
     </row>
-    <row r="142" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="6"/>
@@ -7972,7 +7985,7 @@
       <c r="AQ142" s="9"/>
       <c r="AR142" s="9"/>
     </row>
-    <row r="143" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="6"/>
@@ -8018,7 +8031,7 @@
       <c r="AQ143" s="9"/>
       <c r="AR143" s="9"/>
     </row>
-    <row r="144" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="6"/>
@@ -8064,7 +8077,7 @@
       <c r="AQ144" s="9"/>
       <c r="AR144" s="9"/>
     </row>
-    <row r="145" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="6"/>
@@ -8110,7 +8123,7 @@
       <c r="AQ145" s="9"/>
       <c r="AR145" s="9"/>
     </row>
-    <row r="146" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="6"/>
@@ -8156,7 +8169,7 @@
       <c r="AQ146" s="9"/>
       <c r="AR146" s="9"/>
     </row>
-    <row r="147" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="6"/>
@@ -8202,7 +8215,7 @@
       <c r="AQ147" s="9"/>
       <c r="AR147" s="9"/>
     </row>
-    <row r="148" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="6"/>
@@ -8248,7 +8261,7 @@
       <c r="AQ148" s="9"/>
       <c r="AR148" s="9"/>
     </row>
-    <row r="149" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="6"/>
@@ -8294,7 +8307,7 @@
       <c r="AQ149" s="9"/>
       <c r="AR149" s="9"/>
     </row>
-    <row r="150" spans="1:44" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="6"/>

--- a/src/main/resources/template/employee.xlsx
+++ b/src/main/resources/template/employee.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ArchivesManagementSystem\src\main\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F2F4B4-C03A-43BF-8A66-BDE91A2DDE14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496301F6-7265-47B0-9706-3763BFA4E33F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="汇总表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">汇总表!$A$2:$AS$148</definedName>
-    <definedName name="_GoBack" localSheetId="0">汇总表!$AD$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">汇总表!$A$2:$BE$123</definedName>
+    <definedName name="_GoBack" localSheetId="0">汇总表!$AK$120</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">汇总表!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD105" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AK80" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -255,26 +255,120 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>本科</t>
+    <t>补充相关材料</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>大专</t>
+    <t>普通员工</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>研究生</t>
+    <t>lzz</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>学历学位做1个拓展子表信息，记录多条学历学位信息，由应用人自行点击新增（举例格式如下）</t>
+    <t>无问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>出生日期前后不一致</t>
+    <t>出生认定结果描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>认定结果与身份证一致</t>
+    <t>员工号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治面貌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共青团员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加工作时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳务派遣时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本单位工作时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历学位做1个拓展子表信息，记录多条学历学位信息，由应用人自行点击新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高学历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高学位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>次高学历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>次高学位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三高学历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三高学位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士研究生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士研究生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工学学士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>最新任免表记载1966.07出生，最早形成材料高中等学生招生预选登记表记载出生时间为1966.08，还有大专院校毕业生登记表记载出生时间为1966年06月。</t>
@@ -283,24 +377,62 @@
     <t>根据省公司“出生日期允许出入55天内”的要求，经组织认定，其出生日期按身份证日期为1966.07</t>
   </si>
   <si>
+    <t>出生日期前后不一致</t>
+  </si>
+  <si>
     <t>允许出生日期相差55天（阴阳历情况）</t>
   </si>
   <si>
-    <t>无问题</t>
+    <t>认定结果与身份证一致</t>
   </si>
   <si>
-    <t>1、**学校**学院**专业
-2、学历：研究生
-3、学位：X学硕士</t>
+    <t>描述1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1、**学校**学院**专业
-2、学历：本科
-4、学位：X学学士、X学学士</t>
+    <t>经调查，无任何问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1、**学校**学院**专业
-2、学历：大专</t>
+    <t>雷军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没发现什么问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加工作时间1测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>认定结果描述测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、档案记载1985.09-1989.07就读华东工学院电子工程系电子工程专业全日制本科，缺少学生登记表。
+2、档案记载1992.09-1995.04就读华南理工大学无线电工程系通信与电子系统专业研究生，缺少研究生登记表、成绩单</t>
+  </si>
+  <si>
+    <t>1、 学生登记表为一般性材料,经组织研究认定其具有华东工学院电子工程系电子工程专业全日制本科学历。
+2、 本人无法补充华南理工大学无线电工程系通信与电子系统专业研究生研究生登记表、成绩单，本人提供研究生学历鉴定报告，经组织研究认定其具有研究生学历。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>最新任免表记载1989.07-1992.08江西电机厂工作，缺少该段工作结束时间证明材料。</t>
@@ -315,81 +447,15 @@
     <t>工作结束时间待定，可能影响退休工龄，具体由社保局核定</t>
   </si>
   <si>
-    <t>出生认定结果描述</t>
+    <t>李莫愁</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大胆小芳</t>
-  </si>
-  <si>
-    <t>信息集成中心</t>
-  </si>
-  <si>
-    <t>集客线</t>
-  </si>
-  <si>
-    <t>普通员工</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>不存在任何问题</t>
-  </si>
-  <si>
-    <t>经过调查，该同志思想觉悟很高</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rejwpqo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jfodsajp </t>
-  </si>
-  <si>
-    <t>参加工作时间与实际不太一致</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rl;qrjeowpqjwq </t>
-  </si>
-  <si>
-    <t>i4329014u</t>
-  </si>
-  <si>
-    <t>暂无任何问题</t>
-  </si>
-  <si>
-    <t>1、档案记载1985.09-1989.07就读华东工学院电子工程系电子工程专业全日制本科，缺少学生登记表。
-2、档案记载1992.09-1995.04就读华南理工大学无线电工程系通信与电子系统专业研究生，缺少研究生登记表、成绩单</t>
-  </si>
-  <si>
-    <t>1、 学生登记表为一般性材料,经组织研究认定其具有华东工学院电子工程系电子工程专业全日制本科学历。
-2、 本人无法补充华南理工大学无线电工程系通信与电子系统专业研究生研究生登记表、成绩单，本人提供研究生学历鉴定报告，经组织研究认定其具有研究生学历。</t>
-  </si>
-  <si>
-    <t>本科</t>
-  </si>
-  <si>
-    <t>学士</t>
-  </si>
-  <si>
-    <t>补充相关材料</t>
-  </si>
-  <si>
-    <t>lzz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,12 +511,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -472,7 +532,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,18 +548,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -665,85 +713,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,6 +770,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -765,6 +783,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -785,13 +809,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1078,161 +1105,176 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR148"/>
+  <dimension ref="A1:BD123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="24" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="17" customWidth="1"/>
     <col min="3" max="3" width="16.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="25" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="26" customWidth="1"/>
-    <col min="9" max="9" width="30.875" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="25.375" style="24" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="14.125" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="14.875" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="16.375" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="17.125" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="21.75" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="18.625" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="34.875" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="35" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="19.875" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="19.875" style="27" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="19.875" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="15.625" style="24" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="36.625" style="24" customWidth="1"/>
-    <col min="24" max="24" width="33" style="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.375" style="24" customWidth="1"/>
-    <col min="27" max="27" width="12.125" style="24" customWidth="1"/>
-    <col min="28" max="28" width="13.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="48.375" style="24" customWidth="1"/>
-    <col min="30" max="30" width="36.75" style="24" customWidth="1"/>
-    <col min="31" max="32" width="11.125" style="24" customWidth="1"/>
-    <col min="33" max="33" width="8" style="24" customWidth="1"/>
-    <col min="34" max="34" width="22.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.25" style="24" customWidth="1"/>
-    <col min="36" max="37" width="22.25" style="24" customWidth="1"/>
-    <col min="38" max="38" width="37.375" style="24" customWidth="1"/>
-    <col min="39" max="39" width="32.25" style="24" customWidth="1"/>
-    <col min="40" max="40" width="12.625" style="24" customWidth="1"/>
-    <col min="41" max="41" width="21.25" style="24" customWidth="1"/>
-    <col min="42" max="42" width="32.625" style="24" customWidth="1"/>
-    <col min="43" max="43" width="11.875" style="24" customWidth="1"/>
-    <col min="44" max="44" width="9" style="24" customWidth="1"/>
-    <col min="45" max="16384" width="9" style="24"/>
+    <col min="7" max="7" width="19.5" style="18" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="19" customWidth="1"/>
+    <col min="9" max="9" width="30.875" style="17" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="25.375" style="17" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="14.125" style="25" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="14.875" style="25" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="16.375" style="17" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="17.125" style="17" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="17" width="21.75" style="17" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="18.625" style="17" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="34.875" style="17" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="35" style="17" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="19.875" style="25" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="19.875" style="20" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="19.875" style="25" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="25" width="15.625" style="17" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="36.625" style="17" customWidth="1"/>
+    <col min="27" max="27" width="33" style="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="18.375" style="17" customWidth="1"/>
+    <col min="33" max="33" width="12.125" style="17" customWidth="1"/>
+    <col min="34" max="34" width="13.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.375" style="17" customWidth="1"/>
+    <col min="36" max="36" width="48.375" style="17" customWidth="1"/>
+    <col min="37" max="37" width="36.75" style="17" customWidth="1"/>
+    <col min="38" max="39" width="11.125" style="17" customWidth="1"/>
+    <col min="40" max="40" width="8" style="17" customWidth="1"/>
+    <col min="41" max="41" width="22.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.25" style="17" customWidth="1"/>
+    <col min="43" max="43" width="24.25" style="17" customWidth="1"/>
+    <col min="44" max="48" width="22.25" style="17" customWidth="1"/>
+    <col min="49" max="49" width="37.375" style="17" customWidth="1"/>
+    <col min="50" max="50" width="32.25" style="17" customWidth="1"/>
+    <col min="51" max="51" width="12.625" style="17" customWidth="1"/>
+    <col min="52" max="52" width="18.75" style="17" customWidth="1"/>
+    <col min="53" max="53" width="21.25" style="17" customWidth="1"/>
+    <col min="54" max="54" width="32.625" style="17" customWidth="1"/>
+    <col min="55" max="55" width="11.875" style="17" customWidth="1"/>
+    <col min="56" max="56" width="9" style="17" customWidth="1"/>
+    <col min="57" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:56" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="40" t="s">
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="43" t="s">
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AQ1" s="43" t="s">
+      <c r="BC1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AR1" s="44" t="s">
+      <c r="BD1" s="34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="37"/>
+    <row r="2" spans="1:56" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A2" s="48"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="24" t="s">
         <v>18</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1244,56 +1286,56 @@
       <c r="O2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="U2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="V2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="W2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>26</v>
+      <c r="AD2" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>19</v>
@@ -1301,20 +1343,20 @@
       <c r="AH2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ2" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK2" s="29" t="s">
-        <v>30</v>
+      <c r="AI2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>19</v>
@@ -1322,168 +1364,240 @@
       <c r="AO2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="44"/>
-    </row>
-    <row r="3" spans="1:44" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="34"/>
+    </row>
+    <row r="3" spans="1:56" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>2008</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="16">
+        <v>24290</v>
+      </c>
+      <c r="L3" s="16">
+        <v>1966.07</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="16">
+        <v>40524</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="16">
+        <v>40953</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>34376</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>34015</v>
+      </c>
+      <c r="AD3" s="16">
+        <v>32780</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>34781</v>
+      </c>
+      <c r="AF3" s="16">
+        <v>36782</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="23">
-        <v>24290</v>
-      </c>
-      <c r="L3" s="23">
-        <v>35248</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="9" t="s">
+      <c r="AJ3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="AM3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="23">
-        <v>44166</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" s="23">
-        <v>44166</v>
-      </c>
-      <c r="V3" s="9" t="s">
+      <c r="AU3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y3" s="23">
-        <v>36192</v>
-      </c>
-      <c r="Z3" s="23">
-        <v>36192</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR3" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="AW3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD3" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="6"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="3"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="N4" s="14"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="16"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
@@ -1499,16 +1613,28 @@
       <c r="AJ4" s="9"/>
       <c r="AK4" s="9"/>
       <c r="AL4" s="9"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
       <c r="AP4" s="9"/>
       <c r="AQ4" s="9"/>
       <c r="AR4" s="9"/>
-    </row>
-    <row r="5" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+    </row>
+    <row r="5" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="6"/>
       <c r="D5" s="3"/>
       <c r="E5" s="6"/>
@@ -1517,19 +1643,19 @@
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="16"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
@@ -1545,42 +1671,54 @@
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
       <c r="AL5" s="9"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="21"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
-    </row>
-    <row r="6" spans="1:44" s="12" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+    </row>
+    <row r="6" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="3"/>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="17"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="9"/>
@@ -1590,17 +1728,29 @@
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
       <c r="AK6" s="9"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
       <c r="AN6" s="9"/>
-      <c r="AO6" s="17"/>
+      <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
-    </row>
-    <row r="7" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+    </row>
+    <row r="7" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
@@ -1609,19 +1759,19 @@
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="16"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
@@ -1637,16 +1787,28 @@
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-    </row>
-    <row r="8" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+    </row>
+    <row r="8" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="6"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
@@ -1655,19 +1817,19 @@
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="17"/>
+      <c r="N8" s="14"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="16"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
@@ -1682,18 +1844,30 @@
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
       <c r="AK8" s="9"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="11"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
       <c r="AP8" s="9"/>
       <c r="AQ8" s="9"/>
       <c r="AR8" s="9"/>
-    </row>
-    <row r="9" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+    </row>
+    <row r="9" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -1701,65 +1875,77 @@
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="16"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
+      <c r="Z9" s="14"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
       <c r="AL9" s="9"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
       <c r="AQ9" s="9"/>
       <c r="AR9" s="9"/>
-    </row>
-    <row r="10" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+    </row>
+    <row r="10" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="3"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="15"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="16"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
@@ -1775,37 +1961,49 @@
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
       <c r="AL10" s="9"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
-      <c r="AQ10" s="28"/>
+      <c r="AQ10" s="9"/>
       <c r="AR10" s="9"/>
-    </row>
-    <row r="11" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9"/>
+    </row>
+    <row r="11" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="6"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="3"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="16"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
@@ -1821,16 +2019,28 @@
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
       <c r="AL11" s="9"/>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="11"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
       <c r="AP11" s="9"/>
       <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
-    </row>
-    <row r="12" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+    </row>
+    <row r="12" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="6"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -1839,45 +2049,57 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="17"/>
+      <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="16"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
+      <c r="Z12" s="14"/>
       <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
       <c r="AG12" s="9"/>
       <c r="AH12" s="9"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
-      <c r="AM12" s="11"/>
+      <c r="AM12" s="9"/>
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
       <c r="AP12" s="9"/>
       <c r="AQ12" s="9"/>
       <c r="AR12" s="9"/>
-    </row>
-    <row r="13" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+    </row>
+    <row r="13" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
       <c r="F13" s="3"/>
@@ -1885,69 +2107,81 @@
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="16"/>
       <c r="X13" s="9"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
       <c r="AL13" s="9"/>
-      <c r="AM13" s="11"/>
+      <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
       <c r="AQ13" s="9"/>
       <c r="AR13" s="9"/>
-    </row>
-    <row r="14" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+    </row>
+    <row r="14" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="6"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="3"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="16"/>
       <c r="X14" s="9"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="11"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -1958,17 +2192,29 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="22"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
       <c r="AP14" s="9"/>
       <c r="AQ14" s="9"/>
       <c r="AR14" s="9"/>
-    </row>
-    <row r="15" spans="1:44" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+    </row>
+    <row r="15" spans="1:56" s="12" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="6"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
@@ -1977,70 +2223,82 @@
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="17"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
-      <c r="AL15" s="15"/>
-      <c r="AM15" s="15"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
-      <c r="AO15" s="17"/>
+      <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
       <c r="AQ15" s="9"/>
       <c r="AR15" s="9"/>
-    </row>
-    <row r="16" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+    </row>
+    <row r="16" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="3"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
@@ -2050,17 +2308,29 @@
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="11"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
       <c r="AQ16" s="9"/>
       <c r="AR16" s="9"/>
-    </row>
-    <row r="17" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+    </row>
+    <row r="17" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2069,23 +2339,23 @@
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="16"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -2097,16 +2367,28 @@
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
       <c r="AL17" s="9"/>
-      <c r="AM17" s="11"/>
+      <c r="AM17" s="9"/>
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
       <c r="AQ17" s="9"/>
       <c r="AR17" s="9"/>
-    </row>
-    <row r="18" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+    </row>
+    <row r="18" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="6"/>
       <c r="D18" s="3"/>
       <c r="E18" s="6"/>
@@ -2115,23 +2397,23 @@
       <c r="H18" s="8"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="13"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="16"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
+      <c r="AA18" s="11"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
@@ -2143,16 +2425,28 @@
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
       <c r="AL18" s="9"/>
-      <c r="AM18" s="11"/>
+      <c r="AM18" s="9"/>
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
       <c r="AP18" s="9"/>
       <c r="AQ18" s="9"/>
       <c r="AR18" s="9"/>
-    </row>
-    <row r="19" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="9"/>
+    </row>
+    <row r="19" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="6"/>
       <c r="D19" s="3"/>
       <c r="E19" s="6"/>
@@ -2161,44 +2455,56 @@
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="16"/>
       <c r="X19" s="9"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
       <c r="AG19" s="9"/>
       <c r="AH19" s="9"/>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
       <c r="AL19" s="9"/>
-      <c r="AM19" s="11"/>
+      <c r="AM19" s="9"/>
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
       <c r="AP19" s="9"/>
       <c r="AQ19" s="9"/>
       <c r="AR19" s="9"/>
-    </row>
-    <row r="20" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="9"/>
+      <c r="BD19" s="9"/>
+    </row>
+    <row r="20" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="6"/>
       <c r="D20" s="3"/>
       <c r="E20" s="6"/>
@@ -2207,19 +2513,19 @@
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="17"/>
+      <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="16"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
@@ -2235,37 +2541,49 @@
       <c r="AJ20" s="9"/>
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
-      <c r="AM20" s="11"/>
+      <c r="AM20" s="9"/>
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
       <c r="AP20" s="9"/>
       <c r="AQ20" s="9"/>
       <c r="AR20" s="9"/>
-    </row>
-    <row r="21" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+    </row>
+    <row r="21" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="6"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="3"/>
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="16"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
@@ -2281,37 +2599,49 @@
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
       <c r="AL21" s="9"/>
-      <c r="AM21" s="11"/>
+      <c r="AM21" s="9"/>
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
       <c r="AQ21" s="9"/>
       <c r="AR21" s="9"/>
-    </row>
-    <row r="22" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
+      <c r="AU21" s="9"/>
+      <c r="AV21" s="9"/>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9"/>
+      <c r="AZ21" s="9"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="9"/>
+    </row>
+    <row r="22" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="6"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="3"/>
       <c r="G22" s="7"/>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="16"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
@@ -2327,16 +2657,28 @@
       <c r="AJ22" s="9"/>
       <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
-      <c r="AM22" s="11"/>
+      <c r="AM22" s="9"/>
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
       <c r="AQ22" s="9"/>
       <c r="AR22" s="9"/>
-    </row>
-    <row r="23" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+    </row>
+    <row r="23" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="6"/>
       <c r="D23" s="3"/>
       <c r="E23" s="6"/>
@@ -2345,19 +2687,19 @@
       <c r="H23" s="8"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="16"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
@@ -2379,10 +2721,22 @@
       <c r="AP23" s="9"/>
       <c r="AQ23" s="9"/>
       <c r="AR23" s="9"/>
-    </row>
-    <row r="24" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+    </row>
+    <row r="24" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="6"/>
       <c r="D24" s="3"/>
       <c r="E24" s="6"/>
@@ -2391,19 +2745,19 @@
       <c r="H24" s="8"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="16"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
@@ -2425,10 +2779,22 @@
       <c r="AP24" s="9"/>
       <c r="AQ24" s="9"/>
       <c r="AR24" s="9"/>
-    </row>
-    <row r="25" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="9"/>
+      <c r="AV24" s="9"/>
+      <c r="AW24" s="9"/>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="9"/>
+      <c r="AZ24" s="9"/>
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="9"/>
+    </row>
+    <row r="25" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="6"/>
       <c r="D25" s="3"/>
       <c r="E25" s="6"/>
@@ -2437,19 +2803,19 @@
       <c r="H25" s="8"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="16"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
@@ -2471,11 +2837,23 @@
       <c r="AP25" s="9"/>
       <c r="AQ25" s="9"/>
       <c r="AR25" s="9"/>
-    </row>
-    <row r="26" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="5"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
+      <c r="AU25" s="9"/>
+      <c r="AV25" s="9"/>
+      <c r="AW25" s="9"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="9"/>
+      <c r="AZ25" s="9"/>
+      <c r="BA25" s="14"/>
+      <c r="BB25" s="9"/>
+      <c r="BC25" s="9"/>
+      <c r="BD25" s="9"/>
+    </row>
+    <row r="26" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="3"/>
       <c r="E26" s="6"/>
       <c r="F26" s="3"/>
@@ -2483,44 +2861,56 @@
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="16"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="17"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
       <c r="AL26" s="9"/>
       <c r="AM26" s="9"/>
       <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
-      <c r="AR26" s="9"/>
-    </row>
-    <row r="27" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="14"/>
+      <c r="AT26" s="14"/>
+      <c r="AU26" s="14"/>
+      <c r="AV26" s="14"/>
+      <c r="AW26" s="9"/>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="9"/>
+      <c r="BA26" s="9"/>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="9"/>
+      <c r="BD26" s="9"/>
+    </row>
+    <row r="27" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="6"/>
       <c r="D27" s="3"/>
       <c r="E27" s="6"/>
@@ -2529,19 +2919,19 @@
       <c r="H27" s="8"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
+      <c r="N27" s="14"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="16"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
@@ -2563,40 +2953,52 @@
       <c r="AP27" s="9"/>
       <c r="AQ27" s="9"/>
       <c r="AR27" s="9"/>
-    </row>
-    <row r="28" spans="1:44" s="12" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AS27" s="9"/>
+      <c r="AT27" s="9"/>
+      <c r="AU27" s="9"/>
+      <c r="AV27" s="9"/>
+      <c r="AW27" s="9"/>
+      <c r="AX27" s="9"/>
+      <c r="AY27" s="9"/>
+      <c r="AZ27" s="9"/>
+      <c r="BA27" s="9"/>
+      <c r="BB27" s="9"/>
+      <c r="BC27" s="9"/>
+      <c r="BD27" s="9"/>
+    </row>
+    <row r="28" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
       <c r="AG28" s="9"/>
       <c r="AH28" s="9"/>
       <c r="AI28" s="9"/>
@@ -2609,31 +3011,43 @@
       <c r="AP28" s="9"/>
       <c r="AQ28" s="9"/>
       <c r="AR28" s="9"/>
-    </row>
-    <row r="29" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="AS28" s="9"/>
+      <c r="AT28" s="9"/>
+      <c r="AU28" s="9"/>
+      <c r="AV28" s="9"/>
+      <c r="AW28" s="9"/>
+      <c r="AX28" s="9"/>
+      <c r="AY28" s="9"/>
+      <c r="AZ28" s="9"/>
+      <c r="BA28" s="9"/>
+      <c r="BB28" s="9"/>
+      <c r="BC28" s="9"/>
+      <c r="BD28" s="9"/>
+    </row>
+    <row r="29" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
       <c r="C29" s="6"/>
       <c r="D29" s="3"/>
       <c r="E29" s="5"/>
       <c r="F29" s="3"/>
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="17"/>
+      <c r="N29" s="14"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="16"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
@@ -2655,10 +3069,22 @@
       <c r="AP29" s="9"/>
       <c r="AQ29" s="9"/>
       <c r="AR29" s="9"/>
-    </row>
-    <row r="30" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="AS29" s="9"/>
+      <c r="AT29" s="9"/>
+      <c r="AU29" s="9"/>
+      <c r="AV29" s="9"/>
+      <c r="AW29" s="9"/>
+      <c r="AX29" s="9"/>
+      <c r="AY29" s="9"/>
+      <c r="AZ29" s="9"/>
+      <c r="BA29" s="9"/>
+      <c r="BB29" s="9"/>
+      <c r="BC29" s="9"/>
+      <c r="BD29" s="9"/>
+    </row>
+    <row r="30" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="6"/>
       <c r="D30" s="3"/>
       <c r="E30" s="6"/>
@@ -2667,19 +3093,19 @@
       <c r="H30" s="8"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="9"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
       <c r="M30" s="9"/>
-      <c r="N30" s="17"/>
+      <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="16"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
@@ -2701,31 +3127,43 @@
       <c r="AP30" s="9"/>
       <c r="AQ30" s="9"/>
       <c r="AR30" s="9"/>
-    </row>
-    <row r="31" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="AS30" s="9"/>
+      <c r="AT30" s="9"/>
+      <c r="AU30" s="9"/>
+      <c r="AV30" s="9"/>
+      <c r="AW30" s="9"/>
+      <c r="AX30" s="9"/>
+      <c r="AY30" s="9"/>
+      <c r="AZ30" s="9"/>
+      <c r="BA30" s="9"/>
+      <c r="BB30" s="9"/>
+      <c r="BC30" s="9"/>
+      <c r="BD30" s="9"/>
+    </row>
+    <row r="31" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="6"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="3"/>
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="13"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="16"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
@@ -2747,10 +3185,22 @@
       <c r="AP31" s="9"/>
       <c r="AQ31" s="9"/>
       <c r="AR31" s="9"/>
-    </row>
-    <row r="32" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="AS31" s="9"/>
+      <c r="AT31" s="9"/>
+      <c r="AU31" s="9"/>
+      <c r="AV31" s="9"/>
+      <c r="AW31" s="9"/>
+      <c r="AX31" s="9"/>
+      <c r="AY31" s="9"/>
+      <c r="AZ31" s="9"/>
+      <c r="BA31" s="9"/>
+      <c r="BB31" s="9"/>
+      <c r="BC31" s="9"/>
+      <c r="BD31" s="9"/>
+    </row>
+    <row r="32" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="6"/>
       <c r="D32" s="3"/>
       <c r="E32" s="6"/>
@@ -2759,19 +3209,19 @@
       <c r="H32" s="8"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="16"/>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -2782,10 +3232,10 @@
       <c r="AE32" s="9"/>
       <c r="AF32" s="9"/>
       <c r="AG32" s="9"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9"/>
+      <c r="AK32" s="9"/>
       <c r="AL32" s="9"/>
       <c r="AM32" s="9"/>
       <c r="AN32" s="9"/>
@@ -2793,10 +3243,22 @@
       <c r="AP32" s="9"/>
       <c r="AQ32" s="9"/>
       <c r="AR32" s="9"/>
-    </row>
-    <row r="33" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="AS32" s="9"/>
+      <c r="AT32" s="9"/>
+      <c r="AU32" s="9"/>
+      <c r="AV32" s="9"/>
+      <c r="AW32" s="9"/>
+      <c r="AX32" s="9"/>
+      <c r="AY32" s="9"/>
+      <c r="AZ32" s="9"/>
+      <c r="BA32" s="9"/>
+      <c r="BB32" s="9"/>
+      <c r="BC32" s="9"/>
+      <c r="BD32" s="9"/>
+    </row>
+    <row r="33" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="6"/>
       <c r="D33" s="3"/>
       <c r="E33" s="6"/>
@@ -2805,19 +3267,19 @@
       <c r="H33" s="8"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="13"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="17"/>
+      <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="16"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -2839,10 +3301,22 @@
       <c r="AP33" s="9"/>
       <c r="AQ33" s="9"/>
       <c r="AR33" s="9"/>
-    </row>
-    <row r="34" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="AS33" s="9"/>
+      <c r="AT33" s="9"/>
+      <c r="AU33" s="9"/>
+      <c r="AV33" s="9"/>
+      <c r="AW33" s="9"/>
+      <c r="AX33" s="9"/>
+      <c r="AY33" s="9"/>
+      <c r="AZ33" s="9"/>
+      <c r="BA33" s="9"/>
+      <c r="BB33" s="9"/>
+      <c r="BC33" s="9"/>
+      <c r="BD33" s="9"/>
+    </row>
+    <row r="34" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="6"/>
       <c r="D34" s="3"/>
       <c r="E34" s="6"/>
@@ -2851,19 +3325,19 @@
       <c r="H34" s="8"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="17"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="16"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -2885,31 +3359,43 @@
       <c r="AP34" s="9"/>
       <c r="AQ34" s="9"/>
       <c r="AR34" s="9"/>
-    </row>
-    <row r="35" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="AS34" s="9"/>
+      <c r="AT34" s="9"/>
+      <c r="AU34" s="9"/>
+      <c r="AV34" s="9"/>
+      <c r="AW34" s="9"/>
+      <c r="AX34" s="9"/>
+      <c r="AY34" s="9"/>
+      <c r="AZ34" s="9"/>
+      <c r="BA34" s="9"/>
+      <c r="BB34" s="9"/>
+      <c r="BC34" s="9"/>
+      <c r="BD34" s="9"/>
+    </row>
+    <row r="35" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="6"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="3"/>
       <c r="G35" s="7"/>
       <c r="H35" s="8"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="17"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
       <c r="M35" s="9"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="16"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
@@ -2931,31 +3417,43 @@
       <c r="AP35" s="9"/>
       <c r="AQ35" s="9"/>
       <c r="AR35" s="9"/>
-    </row>
-    <row r="36" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="AS35" s="9"/>
+      <c r="AT35" s="9"/>
+      <c r="AU35" s="9"/>
+      <c r="AV35" s="9"/>
+      <c r="AW35" s="9"/>
+      <c r="AX35" s="9"/>
+      <c r="AY35" s="9"/>
+      <c r="AZ35" s="9"/>
+      <c r="BA35" s="9"/>
+      <c r="BB35" s="9"/>
+      <c r="BC35" s="9"/>
+      <c r="BD35" s="9"/>
+    </row>
+    <row r="36" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="6"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="3"/>
       <c r="G36" s="7"/>
       <c r="H36" s="8"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="16"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -2977,10 +3475,22 @@
       <c r="AP36" s="9"/>
       <c r="AQ36" s="9"/>
       <c r="AR36" s="9"/>
-    </row>
-    <row r="37" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="AS36" s="9"/>
+      <c r="AT36" s="9"/>
+      <c r="AU36" s="9"/>
+      <c r="AV36" s="9"/>
+      <c r="AW36" s="9"/>
+      <c r="AX36" s="9"/>
+      <c r="AY36" s="9"/>
+      <c r="AZ36" s="9"/>
+      <c r="BA36" s="9"/>
+      <c r="BB36" s="9"/>
+      <c r="BC36" s="9"/>
+      <c r="BD36" s="9"/>
+    </row>
+    <row r="37" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
       <c r="C37" s="6"/>
       <c r="D37" s="3"/>
       <c r="E37" s="6"/>
@@ -2989,22 +3499,22 @@
       <c r="H37" s="8"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="17"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="16"/>
       <c r="X37" s="9"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="17"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
@@ -3023,10 +3533,22 @@
       <c r="AP37" s="9"/>
       <c r="AQ37" s="9"/>
       <c r="AR37" s="9"/>
-    </row>
-    <row r="38" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="AS37" s="9"/>
+      <c r="AT37" s="9"/>
+      <c r="AU37" s="9"/>
+      <c r="AV37" s="9"/>
+      <c r="AW37" s="9"/>
+      <c r="AX37" s="9"/>
+      <c r="AY37" s="9"/>
+      <c r="AZ37" s="9"/>
+      <c r="BA37" s="9"/>
+      <c r="BB37" s="9"/>
+      <c r="BC37" s="9"/>
+      <c r="BD37" s="9"/>
+    </row>
+    <row r="38" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="6"/>
       <c r="D38" s="3"/>
       <c r="E38" s="6"/>
@@ -3035,19 +3557,19 @@
       <c r="H38" s="8"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="16"/>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -3069,32 +3591,44 @@
       <c r="AP38" s="9"/>
       <c r="AQ38" s="9"/>
       <c r="AR38" s="9"/>
-    </row>
-    <row r="39" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="6"/>
+      <c r="AS38" s="9"/>
+      <c r="AT38" s="9"/>
+      <c r="AU38" s="9"/>
+      <c r="AV38" s="9"/>
+      <c r="AW38" s="9"/>
+      <c r="AX38" s="9"/>
+      <c r="AY38" s="9"/>
+      <c r="AZ38" s="9"/>
+      <c r="BA38" s="9"/>
+      <c r="BB38" s="9"/>
+      <c r="BC38" s="9"/>
+      <c r="BD38" s="9"/>
+    </row>
+    <row r="39" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="3"/>
       <c r="G39" s="7"/>
       <c r="H39" s="8"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="13"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="11"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
@@ -3115,10 +3649,22 @@
       <c r="AP39" s="9"/>
       <c r="AQ39" s="9"/>
       <c r="AR39" s="9"/>
-    </row>
-    <row r="40" spans="1:44" s="12" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="AS39" s="9"/>
+      <c r="AT39" s="9"/>
+      <c r="AU39" s="9"/>
+      <c r="AV39" s="9"/>
+      <c r="AW39" s="9"/>
+      <c r="AX39" s="9"/>
+      <c r="AY39" s="9"/>
+      <c r="AZ39" s="9"/>
+      <c r="BA39" s="9"/>
+      <c r="BB39" s="9"/>
+      <c r="BC39" s="9"/>
+      <c r="BD39" s="9"/>
+    </row>
+    <row r="40" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
       <c r="C40" s="6"/>
       <c r="D40" s="3"/>
       <c r="E40" s="6"/>
@@ -3127,19 +3673,19 @@
       <c r="H40" s="8"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="16"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
@@ -3161,10 +3707,22 @@
       <c r="AP40" s="9"/>
       <c r="AQ40" s="9"/>
       <c r="AR40" s="9"/>
-    </row>
-    <row r="41" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+      <c r="AS40" s="9"/>
+      <c r="AT40" s="9"/>
+      <c r="AU40" s="9"/>
+      <c r="AV40" s="9"/>
+      <c r="AW40" s="9"/>
+      <c r="AX40" s="9"/>
+      <c r="AY40" s="9"/>
+      <c r="AZ40" s="9"/>
+      <c r="BA40" s="9"/>
+      <c r="BB40" s="9"/>
+      <c r="BC40" s="9"/>
+      <c r="BD40" s="9"/>
+    </row>
+    <row r="41" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
       <c r="C41" s="6"/>
       <c r="D41" s="3"/>
       <c r="E41" s="6"/>
@@ -3173,19 +3731,19 @@
       <c r="H41" s="8"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="16"/>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
@@ -3207,10 +3765,22 @@
       <c r="AP41" s="9"/>
       <c r="AQ41" s="9"/>
       <c r="AR41" s="9"/>
-    </row>
-    <row r="42" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="AS41" s="9"/>
+      <c r="AT41" s="9"/>
+      <c r="AU41" s="9"/>
+      <c r="AV41" s="9"/>
+      <c r="AW41" s="9"/>
+      <c r="AX41" s="9"/>
+      <c r="AY41" s="9"/>
+      <c r="AZ41" s="9"/>
+      <c r="BA41" s="9"/>
+      <c r="BB41" s="9"/>
+      <c r="BC41" s="9"/>
+      <c r="BD41" s="9"/>
+    </row>
+    <row r="42" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
       <c r="C42" s="6"/>
       <c r="D42" s="3"/>
       <c r="E42" s="6"/>
@@ -3219,20 +3789,20 @@
       <c r="H42" s="8"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
@@ -3244,41 +3814,53 @@
       <c r="AG42" s="9"/>
       <c r="AH42" s="9"/>
       <c r="AI42" s="9"/>
-      <c r="AJ42" s="9"/>
-      <c r="AK42" s="9"/>
-      <c r="AL42" s="9"/>
-      <c r="AM42" s="9"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
+      <c r="AL42" s="11"/>
+      <c r="AM42" s="11"/>
       <c r="AN42" s="9"/>
       <c r="AO42" s="9"/>
       <c r="AP42" s="9"/>
       <c r="AQ42" s="9"/>
       <c r="AR42" s="9"/>
-    </row>
-    <row r="43" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
+      <c r="AS42" s="9"/>
+      <c r="AT42" s="9"/>
+      <c r="AU42" s="9"/>
+      <c r="AV42" s="9"/>
+      <c r="AW42" s="14"/>
+      <c r="AX42" s="9"/>
+      <c r="AY42" s="9"/>
+      <c r="AZ42" s="9"/>
+      <c r="BA42" s="9"/>
+      <c r="BB42" s="9"/>
+      <c r="BC42" s="9"/>
+      <c r="BD42" s="9"/>
+    </row>
+    <row r="43" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
       <c r="C43" s="6"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="3"/>
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="11"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
@@ -3299,10 +3881,22 @@
       <c r="AP43" s="9"/>
       <c r="AQ43" s="9"/>
       <c r="AR43" s="9"/>
-    </row>
-    <row r="44" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="AS43" s="9"/>
+      <c r="AT43" s="9"/>
+      <c r="AU43" s="9"/>
+      <c r="AV43" s="9"/>
+      <c r="AW43" s="9"/>
+      <c r="AX43" s="9"/>
+      <c r="AY43" s="9"/>
+      <c r="AZ43" s="9"/>
+      <c r="BA43" s="9"/>
+      <c r="BB43" s="9"/>
+      <c r="BC43" s="9"/>
+      <c r="BD43" s="9"/>
+    </row>
+    <row r="44" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
       <c r="C44" s="6"/>
       <c r="D44" s="3"/>
       <c r="E44" s="6"/>
@@ -3311,22 +3905,22 @@
       <c r="H44" s="8"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="16"/>
       <c r="X44" s="9"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
@@ -3345,10 +3939,22 @@
       <c r="AP44" s="9"/>
       <c r="AQ44" s="9"/>
       <c r="AR44" s="9"/>
-    </row>
-    <row r="45" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+      <c r="AS44" s="9"/>
+      <c r="AT44" s="9"/>
+      <c r="AU44" s="9"/>
+      <c r="AV44" s="9"/>
+      <c r="AW44" s="9"/>
+      <c r="AX44" s="9"/>
+      <c r="AY44" s="9"/>
+      <c r="AZ44" s="9"/>
+      <c r="BA44" s="9"/>
+      <c r="BB44" s="9"/>
+      <c r="BC44" s="9"/>
+      <c r="BD44" s="9"/>
+    </row>
+    <row r="45" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="6"/>
       <c r="D45" s="3"/>
       <c r="E45" s="6"/>
@@ -3357,19 +3963,19 @@
       <c r="H45" s="8"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="16"/>
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
@@ -3391,10 +3997,22 @@
       <c r="AP45" s="9"/>
       <c r="AQ45" s="9"/>
       <c r="AR45" s="9"/>
-    </row>
-    <row r="46" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="AS45" s="9"/>
+      <c r="AT45" s="9"/>
+      <c r="AU45" s="9"/>
+      <c r="AV45" s="9"/>
+      <c r="AW45" s="9"/>
+      <c r="AX45" s="9"/>
+      <c r="AY45" s="9"/>
+      <c r="AZ45" s="9"/>
+      <c r="BA45" s="9"/>
+      <c r="BB45" s="9"/>
+      <c r="BC45" s="9"/>
+      <c r="BD45" s="9"/>
+    </row>
+    <row r="46" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
       <c r="C46" s="6"/>
       <c r="D46" s="3"/>
       <c r="E46" s="6"/>
@@ -3403,19 +4021,19 @@
       <c r="H46" s="8"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="16"/>
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
@@ -3437,31 +4055,43 @@
       <c r="AP46" s="9"/>
       <c r="AQ46" s="9"/>
       <c r="AR46" s="9"/>
-    </row>
-    <row r="47" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
+      <c r="AS46" s="9"/>
+      <c r="AT46" s="9"/>
+      <c r="AU46" s="9"/>
+      <c r="AV46" s="9"/>
+      <c r="AW46" s="9"/>
+      <c r="AX46" s="9"/>
+      <c r="AY46" s="9"/>
+      <c r="AZ46" s="9"/>
+      <c r="BA46" s="9"/>
+      <c r="BB46" s="9"/>
+      <c r="BC46" s="9"/>
+      <c r="BD46" s="9"/>
+    </row>
+    <row r="47" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
       <c r="C47" s="6"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="3"/>
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="16"/>
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="9"/>
@@ -3483,10 +4113,22 @@
       <c r="AP47" s="9"/>
       <c r="AQ47" s="9"/>
       <c r="AR47" s="9"/>
-    </row>
-    <row r="48" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="AS47" s="9"/>
+      <c r="AT47" s="9"/>
+      <c r="AU47" s="9"/>
+      <c r="AV47" s="9"/>
+      <c r="AW47" s="9"/>
+      <c r="AX47" s="9"/>
+      <c r="AY47" s="9"/>
+      <c r="AZ47" s="9"/>
+      <c r="BA47" s="9"/>
+      <c r="BB47" s="9"/>
+      <c r="BC47" s="9"/>
+      <c r="BD47" s="9"/>
+    </row>
+    <row r="48" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
       <c r="C48" s="6"/>
       <c r="D48" s="3"/>
       <c r="E48" s="6"/>
@@ -3495,19 +4137,19 @@
       <c r="H48" s="8"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="16"/>
       <c r="X48" s="9"/>
       <c r="Y48" s="9"/>
       <c r="Z48" s="9"/>
@@ -3529,10 +4171,22 @@
       <c r="AP48" s="9"/>
       <c r="AQ48" s="9"/>
       <c r="AR48" s="9"/>
-    </row>
-    <row r="49" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
+      <c r="AS48" s="9"/>
+      <c r="AT48" s="9"/>
+      <c r="AU48" s="9"/>
+      <c r="AV48" s="9"/>
+      <c r="AW48" s="9"/>
+      <c r="AX48" s="9"/>
+      <c r="AY48" s="9"/>
+      <c r="AZ48" s="9"/>
+      <c r="BA48" s="9"/>
+      <c r="BB48" s="9"/>
+      <c r="BC48" s="9"/>
+      <c r="BD48" s="9"/>
+    </row>
+    <row r="49" spans="1:56" s="12" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
       <c r="C49" s="6"/>
       <c r="D49" s="3"/>
       <c r="E49" s="6"/>
@@ -3541,19 +4195,19 @@
       <c r="H49" s="8"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="16"/>
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
       <c r="Z49" s="9"/>
@@ -3575,10 +4229,22 @@
       <c r="AP49" s="9"/>
       <c r="AQ49" s="9"/>
       <c r="AR49" s="9"/>
-    </row>
-    <row r="50" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="AS49" s="9"/>
+      <c r="AT49" s="9"/>
+      <c r="AU49" s="9"/>
+      <c r="AV49" s="9"/>
+      <c r="AW49" s="9"/>
+      <c r="AX49" s="9"/>
+      <c r="AY49" s="9"/>
+      <c r="AZ49" s="9"/>
+      <c r="BA49" s="9"/>
+      <c r="BB49" s="9"/>
+      <c r="BC49" s="9"/>
+      <c r="BD49" s="9"/>
+    </row>
+    <row r="50" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="6"/>
       <c r="D50" s="3"/>
       <c r="E50" s="6"/>
@@ -3587,19 +4253,19 @@
       <c r="H50" s="8"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="16"/>
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
       <c r="Z50" s="9"/>
@@ -3615,37 +4281,49 @@
       <c r="AJ50" s="9"/>
       <c r="AK50" s="9"/>
       <c r="AL50" s="9"/>
-      <c r="AM50" s="15"/>
+      <c r="AM50" s="9"/>
       <c r="AN50" s="9"/>
-      <c r="AO50" s="17"/>
+      <c r="AO50" s="9"/>
       <c r="AP50" s="9"/>
       <c r="AQ50" s="9"/>
       <c r="AR50" s="9"/>
-    </row>
-    <row r="51" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
+      <c r="AS50" s="9"/>
+      <c r="AT50" s="9"/>
+      <c r="AU50" s="9"/>
+      <c r="AV50" s="9"/>
+      <c r="AW50" s="9"/>
+      <c r="AX50" s="9"/>
+      <c r="AY50" s="9"/>
+      <c r="AZ50" s="9"/>
+      <c r="BA50" s="9"/>
+      <c r="BB50" s="9"/>
+      <c r="BC50" s="9"/>
+      <c r="BD50" s="9"/>
+    </row>
+    <row r="51" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="6"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="6"/>
+      <c r="E51" s="5"/>
       <c r="F51" s="3"/>
       <c r="G51" s="7"/>
       <c r="H51" s="8"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="16"/>
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
       <c r="Z51" s="9"/>
@@ -3656,10 +4334,10 @@
       <c r="AE51" s="9"/>
       <c r="AF51" s="9"/>
       <c r="AG51" s="9"/>
-      <c r="AH51" s="17"/>
-      <c r="AI51" s="17"/>
-      <c r="AJ51" s="17"/>
-      <c r="AK51" s="17"/>
+      <c r="AH51" s="9"/>
+      <c r="AI51" s="9"/>
+      <c r="AJ51" s="9"/>
+      <c r="AK51" s="9"/>
       <c r="AL51" s="9"/>
       <c r="AM51" s="9"/>
       <c r="AN51" s="9"/>
@@ -3667,10 +4345,22 @@
       <c r="AP51" s="9"/>
       <c r="AQ51" s="9"/>
       <c r="AR51" s="9"/>
-    </row>
-    <row r="52" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="AS51" s="9"/>
+      <c r="AT51" s="9"/>
+      <c r="AU51" s="9"/>
+      <c r="AV51" s="9"/>
+      <c r="AW51" s="9"/>
+      <c r="AX51" s="9"/>
+      <c r="AY51" s="9"/>
+      <c r="AZ51" s="9"/>
+      <c r="BA51" s="9"/>
+      <c r="BB51" s="9"/>
+      <c r="BC51" s="9"/>
+      <c r="BD51" s="9"/>
+    </row>
+    <row r="52" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
       <c r="C52" s="6"/>
       <c r="D52" s="3"/>
       <c r="E52" s="6"/>
@@ -3679,19 +4369,19 @@
       <c r="H52" s="8"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
       <c r="M52" s="9"/>
-      <c r="N52" s="17"/>
+      <c r="N52" s="9"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="16"/>
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
       <c r="Z52" s="9"/>
@@ -3713,10 +4403,22 @@
       <c r="AP52" s="9"/>
       <c r="AQ52" s="9"/>
       <c r="AR52" s="9"/>
-    </row>
-    <row r="53" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
+      <c r="AS52" s="9"/>
+      <c r="AT52" s="9"/>
+      <c r="AU52" s="9"/>
+      <c r="AV52" s="9"/>
+      <c r="AW52" s="9"/>
+      <c r="AX52" s="9"/>
+      <c r="AY52" s="9"/>
+      <c r="AZ52" s="9"/>
+      <c r="BA52" s="9"/>
+      <c r="BB52" s="9"/>
+      <c r="BC52" s="9"/>
+      <c r="BD52" s="9"/>
+    </row>
+    <row r="53" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="6"/>
       <c r="D53" s="3"/>
       <c r="E53" s="6"/>
@@ -3725,19 +4427,19 @@
       <c r="H53" s="8"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="9"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
       <c r="M53" s="9"/>
-      <c r="N53" s="17"/>
+      <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="16"/>
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
@@ -3759,31 +4461,43 @@
       <c r="AP53" s="9"/>
       <c r="AQ53" s="9"/>
       <c r="AR53" s="9"/>
-    </row>
-    <row r="54" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="AS53" s="9"/>
+      <c r="AT53" s="9"/>
+      <c r="AU53" s="9"/>
+      <c r="AV53" s="9"/>
+      <c r="AW53" s="9"/>
+      <c r="AX53" s="9"/>
+      <c r="AY53" s="9"/>
+      <c r="AZ53" s="9"/>
+      <c r="BA53" s="9"/>
+      <c r="BB53" s="9"/>
+      <c r="BC53" s="9"/>
+      <c r="BD53" s="9"/>
+    </row>
+    <row r="54" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
       <c r="C54" s="6"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="6"/>
       <c r="F54" s="3"/>
       <c r="G54" s="7"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
       <c r="M54" s="9"/>
-      <c r="N54" s="17"/>
+      <c r="N54" s="9"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="16"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
@@ -3805,10 +4519,22 @@
       <c r="AP54" s="9"/>
       <c r="AQ54" s="9"/>
       <c r="AR54" s="9"/>
-    </row>
-    <row r="55" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
+      <c r="AS54" s="9"/>
+      <c r="AT54" s="9"/>
+      <c r="AU54" s="9"/>
+      <c r="AV54" s="9"/>
+      <c r="AW54" s="9"/>
+      <c r="AX54" s="9"/>
+      <c r="AY54" s="9"/>
+      <c r="AZ54" s="9"/>
+      <c r="BA54" s="9"/>
+      <c r="BB54" s="9"/>
+      <c r="BC54" s="9"/>
+      <c r="BD54" s="9"/>
+    </row>
+    <row r="55" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
       <c r="C55" s="6"/>
       <c r="D55" s="3"/>
       <c r="E55" s="6"/>
@@ -3817,19 +4543,19 @@
       <c r="H55" s="8"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="16"/>
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
@@ -3851,31 +4577,43 @@
       <c r="AP55" s="9"/>
       <c r="AQ55" s="9"/>
       <c r="AR55" s="9"/>
-    </row>
-    <row r="56" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="AS55" s="9"/>
+      <c r="AT55" s="9"/>
+      <c r="AU55" s="9"/>
+      <c r="AV55" s="9"/>
+      <c r="AW55" s="9"/>
+      <c r="AX55" s="9"/>
+      <c r="AY55" s="9"/>
+      <c r="AZ55" s="9"/>
+      <c r="BA55" s="9"/>
+      <c r="BB55" s="9"/>
+      <c r="BC55" s="9"/>
+      <c r="BD55" s="9"/>
+    </row>
+    <row r="56" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="6"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="6"/>
       <c r="F56" s="3"/>
       <c r="G56" s="7"/>
       <c r="H56" s="8"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="16"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
@@ -3897,10 +4635,22 @@
       <c r="AP56" s="9"/>
       <c r="AQ56" s="9"/>
       <c r="AR56" s="9"/>
-    </row>
-    <row r="57" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="AS56" s="9"/>
+      <c r="AT56" s="9"/>
+      <c r="AU56" s="9"/>
+      <c r="AV56" s="9"/>
+      <c r="AW56" s="9"/>
+      <c r="AX56" s="9"/>
+      <c r="AY56" s="9"/>
+      <c r="AZ56" s="9"/>
+      <c r="BA56" s="9"/>
+      <c r="BB56" s="9"/>
+      <c r="BC56" s="9"/>
+      <c r="BD56" s="9"/>
+    </row>
+    <row r="57" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
       <c r="C57" s="6"/>
       <c r="D57" s="3"/>
       <c r="E57" s="6"/>
@@ -3909,19 +4659,19 @@
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="16"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
@@ -3943,10 +4693,22 @@
       <c r="AP57" s="9"/>
       <c r="AQ57" s="9"/>
       <c r="AR57" s="9"/>
-    </row>
-    <row r="58" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="AS57" s="9"/>
+      <c r="AT57" s="9"/>
+      <c r="AU57" s="9"/>
+      <c r="AV57" s="9"/>
+      <c r="AW57" s="9"/>
+      <c r="AX57" s="9"/>
+      <c r="AY57" s="9"/>
+      <c r="AZ57" s="9"/>
+      <c r="BA57" s="9"/>
+      <c r="BB57" s="9"/>
+      <c r="BC57" s="9"/>
+      <c r="BD57" s="9"/>
+    </row>
+    <row r="58" spans="1:56" s="12" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
       <c r="C58" s="6"/>
       <c r="D58" s="3"/>
       <c r="E58" s="6"/>
@@ -3955,19 +4717,19 @@
       <c r="H58" s="8"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="16"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
       <c r="Z58" s="9"/>
@@ -3989,31 +4751,43 @@
       <c r="AP58" s="9"/>
       <c r="AQ58" s="9"/>
       <c r="AR58" s="9"/>
-    </row>
-    <row r="59" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="AS58" s="9"/>
+      <c r="AT58" s="9"/>
+      <c r="AU58" s="9"/>
+      <c r="AV58" s="9"/>
+      <c r="AW58" s="9"/>
+      <c r="AX58" s="9"/>
+      <c r="AY58" s="9"/>
+      <c r="AZ58" s="9"/>
+      <c r="BA58" s="9"/>
+      <c r="BB58" s="9"/>
+      <c r="BC58" s="9"/>
+      <c r="BD58" s="9"/>
+    </row>
+    <row r="59" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
       <c r="C59" s="6"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="6"/>
+      <c r="E59" s="5"/>
       <c r="F59" s="3"/>
       <c r="G59" s="7"/>
       <c r="H59" s="8"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="16"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
@@ -4035,10 +4809,22 @@
       <c r="AP59" s="9"/>
       <c r="AQ59" s="9"/>
       <c r="AR59" s="9"/>
-    </row>
-    <row r="60" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="AS59" s="9"/>
+      <c r="AT59" s="9"/>
+      <c r="AU59" s="9"/>
+      <c r="AV59" s="9"/>
+      <c r="AW59" s="9"/>
+      <c r="AX59" s="9"/>
+      <c r="AY59" s="9"/>
+      <c r="AZ59" s="9"/>
+      <c r="BA59" s="9"/>
+      <c r="BB59" s="9"/>
+      <c r="BC59" s="9"/>
+      <c r="BD59" s="9"/>
+    </row>
+    <row r="60" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="6"/>
       <c r="D60" s="3"/>
       <c r="E60" s="6"/>
@@ -4047,19 +4833,19 @@
       <c r="H60" s="8"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
-      <c r="S60" s="23"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="16"/>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
@@ -4081,10 +4867,22 @@
       <c r="AP60" s="9"/>
       <c r="AQ60" s="9"/>
       <c r="AR60" s="9"/>
-    </row>
-    <row r="61" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="AS60" s="9"/>
+      <c r="AT60" s="9"/>
+      <c r="AU60" s="9"/>
+      <c r="AV60" s="9"/>
+      <c r="AW60" s="9"/>
+      <c r="AX60" s="9"/>
+      <c r="AY60" s="9"/>
+      <c r="AZ60" s="9"/>
+      <c r="BA60" s="9"/>
+      <c r="BB60" s="9"/>
+      <c r="BC60" s="9"/>
+      <c r="BD60" s="9"/>
+    </row>
+    <row r="61" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
       <c r="C61" s="6"/>
       <c r="D61" s="3"/>
       <c r="E61" s="6"/>
@@ -4093,19 +4891,19 @@
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="23"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="16"/>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
@@ -4127,10 +4925,22 @@
       <c r="AP61" s="9"/>
       <c r="AQ61" s="9"/>
       <c r="AR61" s="9"/>
-    </row>
-    <row r="62" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="AS61" s="9"/>
+      <c r="AT61" s="9"/>
+      <c r="AU61" s="9"/>
+      <c r="AV61" s="9"/>
+      <c r="AW61" s="9"/>
+      <c r="AX61" s="9"/>
+      <c r="AY61" s="9"/>
+      <c r="AZ61" s="9"/>
+      <c r="BA61" s="9"/>
+      <c r="BB61" s="9"/>
+      <c r="BC61" s="9"/>
+      <c r="BD61" s="9"/>
+    </row>
+    <row r="62" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="6"/>
       <c r="D62" s="3"/>
       <c r="E62" s="6"/>
@@ -4139,19 +4949,19 @@
       <c r="H62" s="8"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="16"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="16"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -4173,10 +4983,22 @@
       <c r="AP62" s="9"/>
       <c r="AQ62" s="9"/>
       <c r="AR62" s="9"/>
-    </row>
-    <row r="63" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
+      <c r="AS62" s="9"/>
+      <c r="AT62" s="9"/>
+      <c r="AU62" s="9"/>
+      <c r="AV62" s="9"/>
+      <c r="AW62" s="9"/>
+      <c r="AX62" s="9"/>
+      <c r="AY62" s="9"/>
+      <c r="AZ62" s="9"/>
+      <c r="BA62" s="9"/>
+      <c r="BB62" s="9"/>
+      <c r="BC62" s="9"/>
+      <c r="BD62" s="9"/>
+    </row>
+    <row r="63" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
       <c r="C63" s="6"/>
       <c r="D63" s="3"/>
       <c r="E63" s="6"/>
@@ -4185,19 +5007,19 @@
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="16"/>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
@@ -4219,11 +5041,23 @@
       <c r="AP63" s="9"/>
       <c r="AQ63" s="9"/>
       <c r="AR63" s="9"/>
-    </row>
-    <row r="64" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="5"/>
+      <c r="AS63" s="9"/>
+      <c r="AT63" s="9"/>
+      <c r="AU63" s="9"/>
+      <c r="AV63" s="9"/>
+      <c r="AW63" s="9"/>
+      <c r="AX63" s="9"/>
+      <c r="AY63" s="9"/>
+      <c r="AZ63" s="9"/>
+      <c r="BA63" s="9"/>
+      <c r="BB63" s="9"/>
+      <c r="BC63" s="9"/>
+      <c r="BD63" s="9"/>
+    </row>
+    <row r="64" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="6"/>
       <c r="D64" s="3"/>
       <c r="E64" s="6"/>
       <c r="F64" s="3"/>
@@ -4231,19 +5065,19 @@
       <c r="H64" s="8"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="16"/>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
@@ -4265,10 +5099,22 @@
       <c r="AP64" s="9"/>
       <c r="AQ64" s="9"/>
       <c r="AR64" s="9"/>
-    </row>
-    <row r="65" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
+      <c r="AS64" s="9"/>
+      <c r="AT64" s="9"/>
+      <c r="AU64" s="9"/>
+      <c r="AV64" s="9"/>
+      <c r="AW64" s="9"/>
+      <c r="AX64" s="9"/>
+      <c r="AY64" s="9"/>
+      <c r="AZ64" s="9"/>
+      <c r="BA64" s="9"/>
+      <c r="BB64" s="9"/>
+      <c r="BC64" s="9"/>
+      <c r="BD64" s="9"/>
+    </row>
+    <row r="65" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
       <c r="C65" s="6"/>
       <c r="D65" s="3"/>
       <c r="E65" s="6"/>
@@ -4277,19 +5123,19 @@
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
-      <c r="S65" s="23"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="23"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="16"/>
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
@@ -4302,19 +5148,31 @@
       <c r="AG65" s="9"/>
       <c r="AH65" s="9"/>
       <c r="AI65" s="9"/>
-      <c r="AJ65" s="9"/>
-      <c r="AK65" s="9"/>
-      <c r="AL65" s="9"/>
-      <c r="AM65" s="9"/>
+      <c r="AJ65" s="11"/>
+      <c r="AK65" s="11"/>
+      <c r="AL65" s="11"/>
+      <c r="AM65" s="11"/>
       <c r="AN65" s="9"/>
       <c r="AO65" s="9"/>
       <c r="AP65" s="9"/>
       <c r="AQ65" s="9"/>
       <c r="AR65" s="9"/>
-    </row>
-    <row r="66" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+      <c r="AS65" s="9"/>
+      <c r="AT65" s="9"/>
+      <c r="AU65" s="9"/>
+      <c r="AV65" s="9"/>
+      <c r="AW65" s="9"/>
+      <c r="AX65" s="9"/>
+      <c r="AY65" s="9"/>
+      <c r="AZ65" s="9"/>
+      <c r="BA65" s="9"/>
+      <c r="BB65" s="9"/>
+      <c r="BC65" s="9"/>
+      <c r="BD65" s="9"/>
+    </row>
+    <row r="66" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="6"/>
       <c r="D66" s="3"/>
       <c r="E66" s="6"/>
@@ -4323,19 +5181,19 @@
       <c r="H66" s="8"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
-      <c r="S66" s="23"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="16"/>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
@@ -4357,10 +5215,22 @@
       <c r="AP66" s="9"/>
       <c r="AQ66" s="9"/>
       <c r="AR66" s="9"/>
-    </row>
-    <row r="67" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
+      <c r="AS66" s="9"/>
+      <c r="AT66" s="9"/>
+      <c r="AU66" s="9"/>
+      <c r="AV66" s="9"/>
+      <c r="AW66" s="9"/>
+      <c r="AX66" s="9"/>
+      <c r="AY66" s="9"/>
+      <c r="AZ66" s="9"/>
+      <c r="BA66" s="9"/>
+      <c r="BB66" s="9"/>
+      <c r="BC66" s="9"/>
+      <c r="BD66" s="9"/>
+    </row>
+    <row r="67" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
       <c r="C67" s="6"/>
       <c r="D67" s="3"/>
       <c r="E67" s="6"/>
@@ -4369,65 +5239,77 @@
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
-      <c r="S67" s="23"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="23"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="16"/>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
-      <c r="AC67" s="11"/>
-      <c r="AD67" s="11"/>
-      <c r="AE67" s="11"/>
-      <c r="AF67" s="11"/>
+      <c r="AC67" s="9"/>
+      <c r="AD67" s="9"/>
+      <c r="AE67" s="9"/>
+      <c r="AF67" s="9"/>
       <c r="AG67" s="9"/>
       <c r="AH67" s="9"/>
       <c r="AI67" s="9"/>
       <c r="AJ67" s="9"/>
       <c r="AK67" s="9"/>
-      <c r="AL67" s="17"/>
+      <c r="AL67" s="9"/>
       <c r="AM67" s="9"/>
       <c r="AN67" s="9"/>
       <c r="AO67" s="9"/>
       <c r="AP67" s="9"/>
       <c r="AQ67" s="9"/>
       <c r="AR67" s="9"/>
-    </row>
-    <row r="68" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="AS67" s="9"/>
+      <c r="AT67" s="9"/>
+      <c r="AU67" s="9"/>
+      <c r="AV67" s="9"/>
+      <c r="AW67" s="9"/>
+      <c r="AX67" s="9"/>
+      <c r="AY67" s="9"/>
+      <c r="AZ67" s="9"/>
+      <c r="BA67" s="9"/>
+      <c r="BB67" s="9"/>
+      <c r="BC67" s="9"/>
+      <c r="BD67" s="9"/>
+    </row>
+    <row r="68" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="6"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="5"/>
+      <c r="E68" s="6"/>
       <c r="F68" s="3"/>
       <c r="G68" s="7"/>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
-      <c r="S68" s="23"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="23"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="16"/>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
@@ -4449,10 +5331,22 @@
       <c r="AP68" s="9"/>
       <c r="AQ68" s="9"/>
       <c r="AR68" s="9"/>
-    </row>
-    <row r="69" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
+      <c r="AS68" s="9"/>
+      <c r="AT68" s="9"/>
+      <c r="AU68" s="9"/>
+      <c r="AV68" s="9"/>
+      <c r="AW68" s="9"/>
+      <c r="AX68" s="9"/>
+      <c r="AY68" s="9"/>
+      <c r="AZ68" s="9"/>
+      <c r="BA68" s="9"/>
+      <c r="BB68" s="9"/>
+      <c r="BC68" s="9"/>
+      <c r="BD68" s="9"/>
+    </row>
+    <row r="69" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="6"/>
       <c r="D69" s="3"/>
       <c r="E69" s="6"/>
@@ -4461,19 +5355,19 @@
       <c r="H69" s="8"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
-      <c r="S69" s="23"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="23"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="16"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
@@ -4495,10 +5389,22 @@
       <c r="AP69" s="9"/>
       <c r="AQ69" s="9"/>
       <c r="AR69" s="9"/>
-    </row>
-    <row r="70" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="AS69" s="9"/>
+      <c r="AT69" s="9"/>
+      <c r="AU69" s="9"/>
+      <c r="AV69" s="9"/>
+      <c r="AW69" s="9"/>
+      <c r="AX69" s="9"/>
+      <c r="AY69" s="9"/>
+      <c r="AZ69" s="9"/>
+      <c r="BA69" s="9"/>
+      <c r="BB69" s="9"/>
+      <c r="BC69" s="9"/>
+      <c r="BD69" s="9"/>
+    </row>
+    <row r="70" spans="1:56" s="12" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
       <c r="C70" s="6"/>
       <c r="D70" s="3"/>
       <c r="E70" s="6"/>
@@ -4507,19 +5413,19 @@
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
-      <c r="S70" s="23"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="23"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="16"/>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
@@ -4541,10 +5447,22 @@
       <c r="AP70" s="9"/>
       <c r="AQ70" s="9"/>
       <c r="AR70" s="9"/>
-    </row>
-    <row r="71" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
+      <c r="AS70" s="9"/>
+      <c r="AT70" s="9"/>
+      <c r="AU70" s="9"/>
+      <c r="AV70" s="9"/>
+      <c r="AW70" s="9"/>
+      <c r="AX70" s="9"/>
+      <c r="AY70" s="9"/>
+      <c r="AZ70" s="9"/>
+      <c r="BA70" s="9"/>
+      <c r="BB70" s="9"/>
+      <c r="BC70" s="9"/>
+      <c r="BD70" s="9"/>
+    </row>
+    <row r="71" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
       <c r="C71" s="6"/>
       <c r="D71" s="3"/>
       <c r="E71" s="6"/>
@@ -4553,19 +5471,19 @@
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
       <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
-      <c r="S71" s="23"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="23"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="16"/>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
@@ -4587,10 +5505,22 @@
       <c r="AP71" s="9"/>
       <c r="AQ71" s="9"/>
       <c r="AR71" s="9"/>
-    </row>
-    <row r="72" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="AS71" s="9"/>
+      <c r="AT71" s="9"/>
+      <c r="AU71" s="9"/>
+      <c r="AV71" s="9"/>
+      <c r="AW71" s="9"/>
+      <c r="AX71" s="9"/>
+      <c r="AY71" s="9"/>
+      <c r="AZ71" s="9"/>
+      <c r="BA71" s="9"/>
+      <c r="BB71" s="9"/>
+      <c r="BC71" s="9"/>
+      <c r="BD71" s="9"/>
+    </row>
+    <row r="72" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
       <c r="C72" s="6"/>
       <c r="D72" s="3"/>
       <c r="E72" s="6"/>
@@ -4599,19 +5529,19 @@
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
-      <c r="S72" s="23"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="23"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="16"/>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
@@ -4633,10 +5563,22 @@
       <c r="AP72" s="9"/>
       <c r="AQ72" s="9"/>
       <c r="AR72" s="9"/>
-    </row>
-    <row r="73" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
+      <c r="AS72" s="9"/>
+      <c r="AT72" s="9"/>
+      <c r="AU72" s="9"/>
+      <c r="AV72" s="9"/>
+      <c r="AW72" s="9"/>
+      <c r="AX72" s="9"/>
+      <c r="AY72" s="9"/>
+      <c r="AZ72" s="9"/>
+      <c r="BA72" s="9"/>
+      <c r="BB72" s="9"/>
+      <c r="BC72" s="9"/>
+      <c r="BD72" s="9"/>
+    </row>
+    <row r="73" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
       <c r="C73" s="6"/>
       <c r="D73" s="3"/>
       <c r="E73" s="6"/>
@@ -4645,19 +5587,19 @@
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
-      <c r="S73" s="23"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="23"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="16"/>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
@@ -4679,10 +5621,22 @@
       <c r="AP73" s="9"/>
       <c r="AQ73" s="9"/>
       <c r="AR73" s="9"/>
-    </row>
-    <row r="74" spans="1:44" s="12" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="AS73" s="9"/>
+      <c r="AT73" s="9"/>
+      <c r="AU73" s="9"/>
+      <c r="AV73" s="9"/>
+      <c r="AW73" s="9"/>
+      <c r="AX73" s="9"/>
+      <c r="AY73" s="9"/>
+      <c r="AZ73" s="9"/>
+      <c r="BA73" s="9"/>
+      <c r="BB73" s="9"/>
+      <c r="BC73" s="9"/>
+      <c r="BD73" s="9"/>
+    </row>
+    <row r="74" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="6"/>
       <c r="D74" s="3"/>
       <c r="E74" s="6"/>
@@ -4691,19 +5645,19 @@
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
       <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
-      <c r="S74" s="23"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="23"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="16"/>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
@@ -4725,10 +5679,22 @@
       <c r="AP74" s="9"/>
       <c r="AQ74" s="9"/>
       <c r="AR74" s="9"/>
-    </row>
-    <row r="75" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
+      <c r="AS74" s="9"/>
+      <c r="AT74" s="9"/>
+      <c r="AU74" s="9"/>
+      <c r="AV74" s="9"/>
+      <c r="AW74" s="9"/>
+      <c r="AX74" s="9"/>
+      <c r="AY74" s="9"/>
+      <c r="AZ74" s="9"/>
+      <c r="BA74" s="9"/>
+      <c r="BB74" s="9"/>
+      <c r="BC74" s="9"/>
+      <c r="BD74" s="9"/>
+    </row>
+    <row r="75" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="6"/>
       <c r="D75" s="3"/>
       <c r="E75" s="6"/>
@@ -4737,19 +5703,19 @@
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
-      <c r="S75" s="23"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="23"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="16"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="16"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
@@ -4771,31 +5737,43 @@
       <c r="AP75" s="9"/>
       <c r="AQ75" s="9"/>
       <c r="AR75" s="9"/>
-    </row>
-    <row r="76" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="AS75" s="9"/>
+      <c r="AT75" s="9"/>
+      <c r="AU75" s="9"/>
+      <c r="AV75" s="9"/>
+      <c r="AW75" s="9"/>
+      <c r="AX75" s="9"/>
+      <c r="AY75" s="9"/>
+      <c r="AZ75" s="9"/>
+      <c r="BA75" s="9"/>
+      <c r="BB75" s="9"/>
+      <c r="BC75" s="9"/>
+      <c r="BD75" s="9"/>
+    </row>
+    <row r="76" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
       <c r="C76" s="6"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="5"/>
+      <c r="E76" s="6"/>
       <c r="F76" s="3"/>
       <c r="G76" s="7"/>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
-      <c r="S76" s="23"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="23"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="16"/>
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
@@ -4817,10 +5795,22 @@
       <c r="AP76" s="9"/>
       <c r="AQ76" s="9"/>
       <c r="AR76" s="9"/>
-    </row>
-    <row r="77" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
+      <c r="AS76" s="9"/>
+      <c r="AT76" s="9"/>
+      <c r="AU76" s="9"/>
+      <c r="AV76" s="9"/>
+      <c r="AW76" s="9"/>
+      <c r="AX76" s="9"/>
+      <c r="AY76" s="9"/>
+      <c r="AZ76" s="9"/>
+      <c r="BA76" s="9"/>
+      <c r="BB76" s="9"/>
+      <c r="BC76" s="9"/>
+      <c r="BD76" s="9"/>
+    </row>
+    <row r="77" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
       <c r="C77" s="6"/>
       <c r="D77" s="3"/>
       <c r="E77" s="6"/>
@@ -4829,19 +5819,19 @@
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
-      <c r="S77" s="23"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="23"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="16"/>
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
@@ -4863,31 +5853,43 @@
       <c r="AP77" s="9"/>
       <c r="AQ77" s="9"/>
       <c r="AR77" s="9"/>
-    </row>
-    <row r="78" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="AS77" s="9"/>
+      <c r="AT77" s="9"/>
+      <c r="AU77" s="9"/>
+      <c r="AV77" s="9"/>
+      <c r="AW77" s="9"/>
+      <c r="AX77" s="9"/>
+      <c r="AY77" s="9"/>
+      <c r="AZ77" s="9"/>
+      <c r="BA77" s="9"/>
+      <c r="BB77" s="9"/>
+      <c r="BC77" s="9"/>
+      <c r="BD77" s="9"/>
+    </row>
+    <row r="78" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
       <c r="C78" s="6"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="6"/>
+      <c r="E78" s="5"/>
       <c r="F78" s="3"/>
       <c r="G78" s="7"/>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
       <c r="Q78" s="9"/>
       <c r="R78" s="9"/>
-      <c r="S78" s="23"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="23"/>
-      <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="16"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="16"/>
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
@@ -4909,10 +5911,22 @@
       <c r="AP78" s="9"/>
       <c r="AQ78" s="9"/>
       <c r="AR78" s="9"/>
-    </row>
-    <row r="79" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
+      <c r="AS78" s="9"/>
+      <c r="AT78" s="9"/>
+      <c r="AU78" s="9"/>
+      <c r="AV78" s="9"/>
+      <c r="AW78" s="9"/>
+      <c r="AX78" s="9"/>
+      <c r="AY78" s="9"/>
+      <c r="AZ78" s="9"/>
+      <c r="BA78" s="9"/>
+      <c r="BB78" s="9"/>
+      <c r="BC78" s="9"/>
+      <c r="BD78" s="9"/>
+    </row>
+    <row r="79" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
       <c r="C79" s="6"/>
       <c r="D79" s="3"/>
       <c r="E79" s="6"/>
@@ -4921,19 +5935,19 @@
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
-      <c r="S79" s="23"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="23"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="16"/>
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
@@ -4955,31 +5969,43 @@
       <c r="AP79" s="9"/>
       <c r="AQ79" s="9"/>
       <c r="AR79" s="9"/>
-    </row>
-    <row r="80" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="AS79" s="9"/>
+      <c r="AT79" s="9"/>
+      <c r="AU79" s="9"/>
+      <c r="AV79" s="9"/>
+      <c r="AW79" s="9"/>
+      <c r="AX79" s="9"/>
+      <c r="AY79" s="9"/>
+      <c r="AZ79" s="9"/>
+      <c r="BA79" s="9"/>
+      <c r="BB79" s="9"/>
+      <c r="BC79" s="9"/>
+      <c r="BD79" s="9"/>
+    </row>
+    <row r="80" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
       <c r="C80" s="6"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="6"/>
+      <c r="E80" s="5"/>
       <c r="F80" s="3"/>
       <c r="G80" s="7"/>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
-      <c r="S80" s="23"/>
-      <c r="T80" s="10"/>
-      <c r="U80" s="23"/>
-      <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="16"/>
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
@@ -4992,19 +6018,31 @@
       <c r="AG80" s="9"/>
       <c r="AH80" s="9"/>
       <c r="AI80" s="9"/>
-      <c r="AJ80" s="9"/>
-      <c r="AK80" s="9"/>
-      <c r="AL80" s="9"/>
-      <c r="AM80" s="9"/>
+      <c r="AJ80" s="11"/>
+      <c r="AK80" s="11"/>
+      <c r="AL80" s="11"/>
+      <c r="AM80" s="11"/>
       <c r="AN80" s="9"/>
       <c r="AO80" s="9"/>
       <c r="AP80" s="9"/>
       <c r="AQ80" s="9"/>
       <c r="AR80" s="9"/>
-    </row>
-    <row r="81" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
+      <c r="AS80" s="9"/>
+      <c r="AT80" s="9"/>
+      <c r="AU80" s="9"/>
+      <c r="AV80" s="9"/>
+      <c r="AW80" s="9"/>
+      <c r="AX80" s="9"/>
+      <c r="AY80" s="9"/>
+      <c r="AZ80" s="9"/>
+      <c r="BA80" s="9"/>
+      <c r="BB80" s="9"/>
+      <c r="BC80" s="9"/>
+      <c r="BD80" s="9"/>
+    </row>
+    <row r="81" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
       <c r="C81" s="6"/>
       <c r="D81" s="3"/>
       <c r="E81" s="6"/>
@@ -5013,19 +6051,19 @@
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
       <c r="Q81" s="9"/>
       <c r="R81" s="9"/>
-      <c r="S81" s="23"/>
-      <c r="T81" s="10"/>
-      <c r="U81" s="23"/>
-      <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="16"/>
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
@@ -5047,10 +6085,22 @@
       <c r="AP81" s="9"/>
       <c r="AQ81" s="9"/>
       <c r="AR81" s="9"/>
-    </row>
-    <row r="82" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+      <c r="AS81" s="9"/>
+      <c r="AT81" s="9"/>
+      <c r="AU81" s="9"/>
+      <c r="AV81" s="9"/>
+      <c r="AW81" s="9"/>
+      <c r="AX81" s="9"/>
+      <c r="AY81" s="9"/>
+      <c r="AZ81" s="9"/>
+      <c r="BA81" s="9"/>
+      <c r="BB81" s="9"/>
+      <c r="BC81" s="9"/>
+      <c r="BD81" s="9"/>
+    </row>
+    <row r="82" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
       <c r="C82" s="6"/>
       <c r="D82" s="3"/>
       <c r="E82" s="6"/>
@@ -5059,31 +6109,31 @@
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
       <c r="Q82" s="9"/>
       <c r="R82" s="9"/>
-      <c r="S82" s="23"/>
-      <c r="T82" s="10"/>
-      <c r="U82" s="23"/>
-      <c r="V82" s="9"/>
-      <c r="W82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="16"/>
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
-      <c r="Z82" s="9"/>
+      <c r="Z82" s="14"/>
       <c r="AA82" s="9"/>
-      <c r="AB82" s="9"/>
-      <c r="AC82" s="9"/>
-      <c r="AD82" s="9"/>
-      <c r="AE82" s="9"/>
-      <c r="AF82" s="9"/>
+      <c r="AB82" s="15"/>
+      <c r="AC82" s="14"/>
+      <c r="AD82" s="14"/>
+      <c r="AE82" s="14"/>
+      <c r="AF82" s="14"/>
       <c r="AG82" s="9"/>
-      <c r="AH82" s="9"/>
-      <c r="AI82" s="9"/>
+      <c r="AH82" s="14"/>
+      <c r="AI82" s="14"/>
       <c r="AJ82" s="9"/>
       <c r="AK82" s="9"/>
       <c r="AL82" s="9"/>
@@ -5093,10 +6143,22 @@
       <c r="AP82" s="9"/>
       <c r="AQ82" s="9"/>
       <c r="AR82" s="9"/>
-    </row>
-    <row r="83" spans="1:44" s="12" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
+      <c r="AS82" s="9"/>
+      <c r="AT82" s="9"/>
+      <c r="AU82" s="9"/>
+      <c r="AV82" s="9"/>
+      <c r="AW82" s="9"/>
+      <c r="AX82" s="9"/>
+      <c r="AY82" s="9"/>
+      <c r="AZ82" s="9"/>
+      <c r="BA82" s="9"/>
+      <c r="BB82" s="9"/>
+      <c r="BC82" s="9"/>
+      <c r="BD82" s="9"/>
+    </row>
+    <row r="83" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
       <c r="C83" s="6"/>
       <c r="D83" s="3"/>
       <c r="E83" s="6"/>
@@ -5105,23 +6167,23 @@
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
       <c r="Q83" s="9"/>
       <c r="R83" s="9"/>
-      <c r="S83" s="23"/>
-      <c r="T83" s="10"/>
-      <c r="U83" s="23"/>
-      <c r="V83" s="9"/>
-      <c r="W83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="10"/>
+      <c r="W83" s="16"/>
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
-      <c r="AA83" s="9"/>
+      <c r="AA83" s="11"/>
       <c r="AB83" s="9"/>
       <c r="AC83" s="9"/>
       <c r="AD83" s="9"/>
@@ -5130,40 +6192,52 @@
       <c r="AG83" s="9"/>
       <c r="AH83" s="9"/>
       <c r="AI83" s="9"/>
-      <c r="AJ83" s="9"/>
-      <c r="AK83" s="9"/>
-      <c r="AL83" s="9"/>
-      <c r="AM83" s="9"/>
-      <c r="AN83" s="9"/>
-      <c r="AO83" s="9"/>
-      <c r="AP83" s="9"/>
-      <c r="AQ83" s="9"/>
-      <c r="AR83" s="9"/>
-    </row>
-    <row r="84" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="6"/>
+      <c r="AJ83" s="14"/>
+      <c r="AK83" s="14"/>
+      <c r="AL83" s="14"/>
+      <c r="AM83" s="14"/>
+      <c r="AN83" s="14"/>
+      <c r="AO83" s="14"/>
+      <c r="AP83" s="14"/>
+      <c r="AQ83" s="14"/>
+      <c r="AR83" s="14"/>
+      <c r="AS83" s="14"/>
+      <c r="AT83" s="14"/>
+      <c r="AU83" s="14"/>
+      <c r="AV83" s="14"/>
+      <c r="AW83" s="9"/>
+      <c r="AX83" s="9"/>
+      <c r="AY83" s="9"/>
+      <c r="AZ83" s="9"/>
+      <c r="BA83" s="9"/>
+      <c r="BB83" s="9"/>
+      <c r="BC83" s="9"/>
+      <c r="BD83" s="9"/>
+    </row>
+    <row r="84" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="5"/>
+      <c r="E84" s="6"/>
       <c r="F84" s="3"/>
       <c r="G84" s="7"/>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
       <c r="Q84" s="9"/>
       <c r="R84" s="9"/>
-      <c r="S84" s="23"/>
-      <c r="T84" s="10"/>
-      <c r="U84" s="23"/>
-      <c r="V84" s="9"/>
-      <c r="W84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="16"/>
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
@@ -5185,10 +6259,22 @@
       <c r="AP84" s="9"/>
       <c r="AQ84" s="9"/>
       <c r="AR84" s="9"/>
-    </row>
-    <row r="85" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
+      <c r="AS84" s="9"/>
+      <c r="AT84" s="9"/>
+      <c r="AU84" s="9"/>
+      <c r="AV84" s="9"/>
+      <c r="AW84" s="9"/>
+      <c r="AX84" s="9"/>
+      <c r="AY84" s="9"/>
+      <c r="AZ84" s="9"/>
+      <c r="BA84" s="9"/>
+      <c r="BB84" s="9"/>
+      <c r="BC84" s="9"/>
+      <c r="BD84" s="9"/>
+    </row>
+    <row r="85" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
       <c r="C85" s="6"/>
       <c r="D85" s="3"/>
       <c r="E85" s="6"/>
@@ -5197,19 +6283,19 @@
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
       <c r="O85" s="9"/>
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
       <c r="R85" s="9"/>
-      <c r="S85" s="23"/>
-      <c r="T85" s="10"/>
-      <c r="U85" s="23"/>
-      <c r="V85" s="9"/>
-      <c r="W85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="16"/>
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
@@ -5231,40 +6317,52 @@
       <c r="AP85" s="9"/>
       <c r="AQ85" s="9"/>
       <c r="AR85" s="9"/>
-    </row>
-    <row r="86" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
+      <c r="AS85" s="9"/>
+      <c r="AT85" s="9"/>
+      <c r="AU85" s="9"/>
+      <c r="AV85" s="9"/>
+      <c r="AW85" s="9"/>
+      <c r="AX85" s="9"/>
+      <c r="AY85" s="9"/>
+      <c r="AZ85" s="9"/>
+      <c r="BA85" s="9"/>
+      <c r="BB85" s="9"/>
+      <c r="BC85" s="9"/>
+      <c r="BD85" s="9"/>
+    </row>
+    <row r="86" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
       <c r="C86" s="6"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="6"/>
+      <c r="E86" s="5"/>
       <c r="F86" s="3"/>
       <c r="G86" s="7"/>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
       <c r="P86" s="9"/>
       <c r="Q86" s="9"/>
       <c r="R86" s="9"/>
-      <c r="S86" s="23"/>
-      <c r="T86" s="10"/>
-      <c r="U86" s="23"/>
-      <c r="V86" s="9"/>
-      <c r="W86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="16"/>
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
-      <c r="AB86" s="9"/>
-      <c r="AC86" s="9"/>
-      <c r="AD86" s="9"/>
-      <c r="AE86" s="9"/>
-      <c r="AF86" s="9"/>
+      <c r="AB86" s="14"/>
+      <c r="AC86" s="14"/>
+      <c r="AD86" s="14"/>
+      <c r="AE86" s="14"/>
+      <c r="AF86" s="14"/>
       <c r="AG86" s="9"/>
       <c r="AH86" s="9"/>
       <c r="AI86" s="9"/>
@@ -5277,31 +6375,43 @@
       <c r="AP86" s="9"/>
       <c r="AQ86" s="9"/>
       <c r="AR86" s="9"/>
-    </row>
-    <row r="87" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
+      <c r="AS86" s="9"/>
+      <c r="AT86" s="9"/>
+      <c r="AU86" s="9"/>
+      <c r="AV86" s="9"/>
+      <c r="AW86" s="9"/>
+      <c r="AX86" s="9"/>
+      <c r="AY86" s="9"/>
+      <c r="AZ86" s="9"/>
+      <c r="BA86" s="9"/>
+      <c r="BB86" s="9"/>
+      <c r="BC86" s="9"/>
+      <c r="BD86" s="9"/>
+    </row>
+    <row r="87" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
       <c r="C87" s="6"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="6"/>
+      <c r="E87" s="5"/>
       <c r="F87" s="3"/>
       <c r="G87" s="7"/>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
       <c r="P87" s="9"/>
       <c r="Q87" s="9"/>
       <c r="R87" s="9"/>
-      <c r="S87" s="23"/>
-      <c r="T87" s="10"/>
-      <c r="U87" s="23"/>
-      <c r="V87" s="9"/>
-      <c r="W87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="16"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="16"/>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
@@ -5323,10 +6433,22 @@
       <c r="AP87" s="9"/>
       <c r="AQ87" s="9"/>
       <c r="AR87" s="9"/>
-    </row>
-    <row r="88" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+      <c r="AS87" s="9"/>
+      <c r="AT87" s="9"/>
+      <c r="AU87" s="9"/>
+      <c r="AV87" s="9"/>
+      <c r="AW87" s="9"/>
+      <c r="AX87" s="9"/>
+      <c r="AY87" s="9"/>
+      <c r="AZ87" s="9"/>
+      <c r="BA87" s="9"/>
+      <c r="BB87" s="9"/>
+      <c r="BC87" s="9"/>
+      <c r="BD87" s="9"/>
+    </row>
+    <row r="88" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
       <c r="C88" s="6"/>
       <c r="D88" s="3"/>
       <c r="E88" s="6"/>
@@ -5335,19 +6457,19 @@
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
       <c r="P88" s="9"/>
       <c r="Q88" s="9"/>
       <c r="R88" s="9"/>
-      <c r="S88" s="23"/>
-      <c r="T88" s="10"/>
-      <c r="U88" s="23"/>
-      <c r="V88" s="9"/>
-      <c r="W88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="16"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="16"/>
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
@@ -5369,31 +6491,43 @@
       <c r="AP88" s="9"/>
       <c r="AQ88" s="9"/>
       <c r="AR88" s="9"/>
-    </row>
-    <row r="89" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
+      <c r="AS88" s="9"/>
+      <c r="AT88" s="9"/>
+      <c r="AU88" s="9"/>
+      <c r="AV88" s="9"/>
+      <c r="AW88" s="9"/>
+      <c r="AX88" s="9"/>
+      <c r="AY88" s="9"/>
+      <c r="AZ88" s="9"/>
+      <c r="BA88" s="9"/>
+      <c r="BB88" s="9"/>
+      <c r="BC88" s="9"/>
+      <c r="BD88" s="9"/>
+    </row>
+    <row r="89" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
       <c r="C89" s="6"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="6"/>
+      <c r="E89" s="5"/>
       <c r="F89" s="3"/>
       <c r="G89" s="7"/>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
       <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
+      <c r="N89" s="14"/>
       <c r="O89" s="9"/>
       <c r="P89" s="9"/>
       <c r="Q89" s="9"/>
       <c r="R89" s="9"/>
-      <c r="S89" s="23"/>
-      <c r="T89" s="10"/>
-      <c r="U89" s="23"/>
-      <c r="V89" s="9"/>
-      <c r="W89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="16"/>
+      <c r="V89" s="10"/>
+      <c r="W89" s="16"/>
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
@@ -5415,10 +6549,22 @@
       <c r="AP89" s="9"/>
       <c r="AQ89" s="9"/>
       <c r="AR89" s="9"/>
-    </row>
-    <row r="90" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
+      <c r="AS89" s="9"/>
+      <c r="AT89" s="9"/>
+      <c r="AU89" s="9"/>
+      <c r="AV89" s="9"/>
+      <c r="AW89" s="9"/>
+      <c r="AX89" s="9"/>
+      <c r="AY89" s="9"/>
+      <c r="AZ89" s="9"/>
+      <c r="BA89" s="9"/>
+      <c r="BB89" s="9"/>
+      <c r="BC89" s="9"/>
+      <c r="BD89" s="9"/>
+    </row>
+    <row r="90" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
       <c r="C90" s="6"/>
       <c r="D90" s="3"/>
       <c r="E90" s="6"/>
@@ -5427,28 +6573,28 @@
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
       <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
+      <c r="N90" s="14"/>
       <c r="O90" s="9"/>
       <c r="P90" s="9"/>
       <c r="Q90" s="9"/>
       <c r="R90" s="9"/>
-      <c r="S90" s="23"/>
-      <c r="T90" s="10"/>
-      <c r="U90" s="23"/>
-      <c r="V90" s="9"/>
-      <c r="W90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="16"/>
+      <c r="V90" s="10"/>
+      <c r="W90" s="16"/>
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
-      <c r="AC90" s="11"/>
-      <c r="AD90" s="11"/>
-      <c r="AE90" s="11"/>
-      <c r="AF90" s="11"/>
+      <c r="AC90" s="9"/>
+      <c r="AD90" s="9"/>
+      <c r="AE90" s="9"/>
+      <c r="AF90" s="9"/>
       <c r="AG90" s="9"/>
       <c r="AH90" s="9"/>
       <c r="AI90" s="9"/>
@@ -5461,10 +6607,22 @@
       <c r="AP90" s="9"/>
       <c r="AQ90" s="9"/>
       <c r="AR90" s="9"/>
-    </row>
-    <row r="91" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
+      <c r="AS90" s="9"/>
+      <c r="AT90" s="9"/>
+      <c r="AU90" s="9"/>
+      <c r="AV90" s="9"/>
+      <c r="AW90" s="9"/>
+      <c r="AX90" s="9"/>
+      <c r="AY90" s="9"/>
+      <c r="AZ90" s="9"/>
+      <c r="BA90" s="9"/>
+      <c r="BB90" s="9"/>
+      <c r="BC90" s="9"/>
+      <c r="BD90" s="9"/>
+    </row>
+    <row r="91" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
       <c r="C91" s="6"/>
       <c r="D91" s="3"/>
       <c r="E91" s="6"/>
@@ -5473,19 +6631,19 @@
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
       <c r="P91" s="9"/>
       <c r="Q91" s="9"/>
       <c r="R91" s="9"/>
-      <c r="S91" s="23"/>
-      <c r="T91" s="10"/>
-      <c r="U91" s="23"/>
-      <c r="V91" s="9"/>
-      <c r="W91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="16"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="16"/>
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
@@ -5507,10 +6665,22 @@
       <c r="AP91" s="9"/>
       <c r="AQ91" s="9"/>
       <c r="AR91" s="9"/>
-    </row>
-    <row r="92" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+      <c r="AS91" s="9"/>
+      <c r="AT91" s="9"/>
+      <c r="AU91" s="9"/>
+      <c r="AV91" s="9"/>
+      <c r="AW91" s="9"/>
+      <c r="AX91" s="9"/>
+      <c r="AY91" s="9"/>
+      <c r="AZ91" s="9"/>
+      <c r="BA91" s="9"/>
+      <c r="BB91" s="9"/>
+      <c r="BC91" s="9"/>
+      <c r="BD91" s="9"/>
+    </row>
+    <row r="92" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
       <c r="C92" s="6"/>
       <c r="D92" s="3"/>
       <c r="E92" s="6"/>
@@ -5519,19 +6689,19 @@
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
       <c r="P92" s="9"/>
       <c r="Q92" s="9"/>
       <c r="R92" s="9"/>
-      <c r="S92" s="23"/>
-      <c r="T92" s="10"/>
-      <c r="U92" s="23"/>
-      <c r="V92" s="9"/>
-      <c r="W92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="16"/>
+      <c r="V92" s="10"/>
+      <c r="W92" s="16"/>
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
@@ -5553,10 +6723,22 @@
       <c r="AP92" s="9"/>
       <c r="AQ92" s="9"/>
       <c r="AR92" s="9"/>
-    </row>
-    <row r="93" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
+      <c r="AS92" s="9"/>
+      <c r="AT92" s="9"/>
+      <c r="AU92" s="9"/>
+      <c r="AV92" s="9"/>
+      <c r="AW92" s="9"/>
+      <c r="AX92" s="9"/>
+      <c r="AY92" s="9"/>
+      <c r="AZ92" s="9"/>
+      <c r="BA92" s="9"/>
+      <c r="BB92" s="9"/>
+      <c r="BC92" s="9"/>
+      <c r="BD92" s="9"/>
+    </row>
+    <row r="93" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
       <c r="C93" s="6"/>
       <c r="D93" s="3"/>
       <c r="E93" s="6"/>
@@ -5565,19 +6747,19 @@
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
       <c r="P93" s="9"/>
       <c r="Q93" s="9"/>
       <c r="R93" s="9"/>
-      <c r="S93" s="23"/>
-      <c r="T93" s="10"/>
-      <c r="U93" s="23"/>
-      <c r="V93" s="9"/>
-      <c r="W93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
+      <c r="U93" s="16"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="16"/>
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
@@ -5599,10 +6781,22 @@
       <c r="AP93" s="9"/>
       <c r="AQ93" s="9"/>
       <c r="AR93" s="9"/>
-    </row>
-    <row r="94" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="AS93" s="9"/>
+      <c r="AT93" s="9"/>
+      <c r="AU93" s="9"/>
+      <c r="AV93" s="9"/>
+      <c r="AW93" s="9"/>
+      <c r="AX93" s="9"/>
+      <c r="AY93" s="9"/>
+      <c r="AZ93" s="9"/>
+      <c r="BA93" s="9"/>
+      <c r="BB93" s="9"/>
+      <c r="BC93" s="9"/>
+      <c r="BD93" s="9"/>
+    </row>
+    <row r="94" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
       <c r="C94" s="6"/>
       <c r="D94" s="3"/>
       <c r="E94" s="6"/>
@@ -5611,19 +6805,19 @@
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
       <c r="P94" s="9"/>
       <c r="Q94" s="9"/>
       <c r="R94" s="9"/>
-      <c r="S94" s="23"/>
-      <c r="T94" s="10"/>
-      <c r="U94" s="23"/>
-      <c r="V94" s="9"/>
-      <c r="W94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="U94" s="16"/>
+      <c r="V94" s="10"/>
+      <c r="W94" s="16"/>
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
@@ -5645,11 +6839,23 @@
       <c r="AP94" s="9"/>
       <c r="AQ94" s="9"/>
       <c r="AR94" s="9"/>
-    </row>
-    <row r="95" spans="1:44" s="12" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="6"/>
+      <c r="AS94" s="9"/>
+      <c r="AT94" s="9"/>
+      <c r="AU94" s="9"/>
+      <c r="AV94" s="9"/>
+      <c r="AW94" s="9"/>
+      <c r="AX94" s="9"/>
+      <c r="AY94" s="9"/>
+      <c r="AZ94" s="9"/>
+      <c r="BA94" s="9"/>
+      <c r="BB94" s="9"/>
+      <c r="BC94" s="9"/>
+      <c r="BD94" s="9"/>
+    </row>
+    <row r="95" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="3"/>
       <c r="E95" s="6"/>
       <c r="F95" s="3"/>
@@ -5657,19 +6863,19 @@
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
       <c r="P95" s="9"/>
       <c r="Q95" s="9"/>
       <c r="R95" s="9"/>
-      <c r="S95" s="23"/>
-      <c r="T95" s="10"/>
-      <c r="U95" s="23"/>
-      <c r="V95" s="9"/>
-      <c r="W95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="16"/>
+      <c r="V95" s="10"/>
+      <c r="W95" s="16"/>
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
@@ -5691,11 +6897,23 @@
       <c r="AP95" s="9"/>
       <c r="AQ95" s="9"/>
       <c r="AR95" s="9"/>
-    </row>
-    <row r="96" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="6"/>
+      <c r="AS95" s="9"/>
+      <c r="AT95" s="9"/>
+      <c r="AU95" s="9"/>
+      <c r="AV95" s="9"/>
+      <c r="AW95" s="9"/>
+      <c r="AX95" s="9"/>
+      <c r="AY95" s="9"/>
+      <c r="AZ95" s="9"/>
+      <c r="BA95" s="9"/>
+      <c r="BB95" s="9"/>
+      <c r="BC95" s="9"/>
+      <c r="BD95" s="9"/>
+    </row>
+    <row r="96" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
       <c r="D96" s="3"/>
       <c r="E96" s="6"/>
       <c r="F96" s="3"/>
@@ -5703,19 +6921,19 @@
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
       <c r="P96" s="9"/>
       <c r="Q96" s="9"/>
       <c r="R96" s="9"/>
-      <c r="S96" s="23"/>
-      <c r="T96" s="10"/>
-      <c r="U96" s="23"/>
-      <c r="V96" s="9"/>
-      <c r="W96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="U96" s="16"/>
+      <c r="V96" s="10"/>
+      <c r="W96" s="16"/>
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
@@ -5737,11 +6955,23 @@
       <c r="AP96" s="9"/>
       <c r="AQ96" s="9"/>
       <c r="AR96" s="9"/>
-    </row>
-    <row r="97" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="6"/>
+      <c r="AS96" s="9"/>
+      <c r="AT96" s="9"/>
+      <c r="AU96" s="9"/>
+      <c r="AV96" s="9"/>
+      <c r="AW96" s="9"/>
+      <c r="AX96" s="9"/>
+      <c r="AY96" s="9"/>
+      <c r="AZ96" s="9"/>
+      <c r="BA96" s="9"/>
+      <c r="BB96" s="9"/>
+      <c r="BC96" s="9"/>
+      <c r="BD96" s="9"/>
+    </row>
+    <row r="97" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="5"/>
       <c r="D97" s="3"/>
       <c r="E97" s="6"/>
       <c r="F97" s="3"/>
@@ -5749,19 +6979,19 @@
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
       <c r="O97" s="9"/>
       <c r="P97" s="9"/>
       <c r="Q97" s="9"/>
       <c r="R97" s="9"/>
-      <c r="S97" s="23"/>
-      <c r="T97" s="10"/>
-      <c r="U97" s="23"/>
-      <c r="V97" s="9"/>
-      <c r="W97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="16"/>
+      <c r="V97" s="10"/>
+      <c r="W97" s="16"/>
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
@@ -5783,11 +7013,23 @@
       <c r="AP97" s="9"/>
       <c r="AQ97" s="9"/>
       <c r="AR97" s="9"/>
-    </row>
-    <row r="98" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="6"/>
+      <c r="AS97" s="9"/>
+      <c r="AT97" s="9"/>
+      <c r="AU97" s="9"/>
+      <c r="AV97" s="9"/>
+      <c r="AW97" s="9"/>
+      <c r="AX97" s="9"/>
+      <c r="AY97" s="9"/>
+      <c r="AZ97" s="9"/>
+      <c r="BA97" s="9"/>
+      <c r="BB97" s="9"/>
+      <c r="BC97" s="9"/>
+      <c r="BD97" s="9"/>
+    </row>
+    <row r="98" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
       <c r="D98" s="3"/>
       <c r="E98" s="6"/>
       <c r="F98" s="3"/>
@@ -5795,19 +7037,19 @@
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
       <c r="P98" s="9"/>
       <c r="Q98" s="9"/>
       <c r="R98" s="9"/>
-      <c r="S98" s="23"/>
-      <c r="T98" s="10"/>
-      <c r="U98" s="23"/>
-      <c r="V98" s="9"/>
-      <c r="W98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="16"/>
+      <c r="V98" s="10"/>
+      <c r="W98" s="16"/>
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
@@ -5829,11 +7071,23 @@
       <c r="AP98" s="9"/>
       <c r="AQ98" s="9"/>
       <c r="AR98" s="9"/>
-    </row>
-    <row r="99" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="6"/>
+      <c r="AS98" s="9"/>
+      <c r="AT98" s="9"/>
+      <c r="AU98" s="9"/>
+      <c r="AV98" s="9"/>
+      <c r="AW98" s="9"/>
+      <c r="AX98" s="9"/>
+      <c r="AY98" s="9"/>
+      <c r="AZ98" s="9"/>
+      <c r="BA98" s="9"/>
+      <c r="BB98" s="9"/>
+      <c r="BC98" s="9"/>
+      <c r="BD98" s="9"/>
+    </row>
+    <row r="99" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="5"/>
       <c r="D99" s="3"/>
       <c r="E99" s="6"/>
       <c r="F99" s="3"/>
@@ -5841,19 +7095,19 @@
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
       <c r="O99" s="9"/>
       <c r="P99" s="9"/>
       <c r="Q99" s="9"/>
       <c r="R99" s="9"/>
-      <c r="S99" s="23"/>
-      <c r="T99" s="10"/>
-      <c r="U99" s="23"/>
-      <c r="V99" s="9"/>
-      <c r="W99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="16"/>
+      <c r="V99" s="10"/>
+      <c r="W99" s="16"/>
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
       <c r="Z99" s="9"/>
@@ -5875,31 +7129,43 @@
       <c r="AP99" s="9"/>
       <c r="AQ99" s="9"/>
       <c r="AR99" s="9"/>
-    </row>
-    <row r="100" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="6"/>
+      <c r="AS99" s="9"/>
+      <c r="AT99" s="9"/>
+      <c r="AU99" s="9"/>
+      <c r="AV99" s="9"/>
+      <c r="AW99" s="9"/>
+      <c r="AX99" s="9"/>
+      <c r="AY99" s="9"/>
+      <c r="AZ99" s="9"/>
+      <c r="BA99" s="9"/>
+      <c r="BB99" s="9"/>
+      <c r="BC99" s="9"/>
+      <c r="BD99" s="9"/>
+    </row>
+    <row r="100" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="6"/>
+      <c r="E100" s="5"/>
       <c r="F100" s="3"/>
       <c r="G100" s="7"/>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
       <c r="O100" s="9"/>
       <c r="P100" s="9"/>
       <c r="Q100" s="9"/>
       <c r="R100" s="9"/>
-      <c r="S100" s="23"/>
-      <c r="T100" s="10"/>
-      <c r="U100" s="23"/>
-      <c r="V100" s="9"/>
-      <c r="W100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="16"/>
+      <c r="V100" s="10"/>
+      <c r="W100" s="16"/>
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
       <c r="Z100" s="9"/>
@@ -5921,31 +7187,43 @@
       <c r="AP100" s="9"/>
       <c r="AQ100" s="9"/>
       <c r="AR100" s="9"/>
-    </row>
-    <row r="101" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="6"/>
+      <c r="AS100" s="9"/>
+      <c r="AT100" s="9"/>
+      <c r="AU100" s="9"/>
+      <c r="AV100" s="9"/>
+      <c r="AW100" s="9"/>
+      <c r="AX100" s="9"/>
+      <c r="AY100" s="9"/>
+      <c r="AZ100" s="9"/>
+      <c r="BA100" s="9"/>
+      <c r="BB100" s="9"/>
+      <c r="BC100" s="9"/>
+      <c r="BD100" s="9"/>
+    </row>
+    <row r="101" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="5"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="6"/>
+      <c r="E101" s="5"/>
       <c r="F101" s="3"/>
       <c r="G101" s="7"/>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
       <c r="O101" s="9"/>
       <c r="P101" s="9"/>
       <c r="Q101" s="9"/>
       <c r="R101" s="9"/>
-      <c r="S101" s="23"/>
-      <c r="T101" s="10"/>
-      <c r="U101" s="23"/>
-      <c r="V101" s="9"/>
-      <c r="W101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="16"/>
+      <c r="V101" s="10"/>
+      <c r="W101" s="16"/>
       <c r="X101" s="9"/>
       <c r="Y101" s="9"/>
       <c r="Z101" s="9"/>
@@ -5967,11 +7245,23 @@
       <c r="AP101" s="9"/>
       <c r="AQ101" s="9"/>
       <c r="AR101" s="9"/>
-    </row>
-    <row r="102" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="6"/>
+      <c r="AS101" s="9"/>
+      <c r="AT101" s="9"/>
+      <c r="AU101" s="9"/>
+      <c r="AV101" s="9"/>
+      <c r="AW101" s="9"/>
+      <c r="AX101" s="9"/>
+      <c r="AY101" s="9"/>
+      <c r="AZ101" s="9"/>
+      <c r="BA101" s="9"/>
+      <c r="BB101" s="9"/>
+      <c r="BC101" s="9"/>
+      <c r="BD101" s="9"/>
+    </row>
+    <row r="102" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
       <c r="D102" s="3"/>
       <c r="E102" s="6"/>
       <c r="F102" s="3"/>
@@ -5979,19 +7269,19 @@
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
       <c r="O102" s="9"/>
       <c r="P102" s="9"/>
       <c r="Q102" s="9"/>
       <c r="R102" s="9"/>
-      <c r="S102" s="23"/>
-      <c r="T102" s="10"/>
-      <c r="U102" s="23"/>
-      <c r="V102" s="9"/>
-      <c r="W102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="16"/>
+      <c r="V102" s="10"/>
+      <c r="W102" s="16"/>
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
       <c r="Z102" s="9"/>
@@ -6013,11 +7303,23 @@
       <c r="AP102" s="9"/>
       <c r="AQ102" s="9"/>
       <c r="AR102" s="9"/>
-    </row>
-    <row r="103" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="6"/>
+      <c r="AS102" s="9"/>
+      <c r="AT102" s="9"/>
+      <c r="AU102" s="9"/>
+      <c r="AV102" s="9"/>
+      <c r="AW102" s="9"/>
+      <c r="AX102" s="9"/>
+      <c r="AY102" s="9"/>
+      <c r="AZ102" s="9"/>
+      <c r="BA102" s="9"/>
+      <c r="BB102" s="9"/>
+      <c r="BC102" s="9"/>
+      <c r="BD102" s="9"/>
+    </row>
+    <row r="103" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="5"/>
       <c r="D103" s="3"/>
       <c r="E103" s="5"/>
       <c r="F103" s="3"/>
@@ -6025,19 +7327,19 @@
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
       <c r="O103" s="9"/>
       <c r="P103" s="9"/>
       <c r="Q103" s="9"/>
       <c r="R103" s="9"/>
-      <c r="S103" s="23"/>
-      <c r="T103" s="10"/>
-      <c r="U103" s="23"/>
-      <c r="V103" s="9"/>
-      <c r="W103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="16"/>
+      <c r="V103" s="10"/>
+      <c r="W103" s="16"/>
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
       <c r="Z103" s="9"/>
@@ -6059,31 +7361,43 @@
       <c r="AP103" s="9"/>
       <c r="AQ103" s="9"/>
       <c r="AR103" s="9"/>
-    </row>
-    <row r="104" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="6"/>
+      <c r="AS103" s="9"/>
+      <c r="AT103" s="9"/>
+      <c r="AU103" s="9"/>
+      <c r="AV103" s="9"/>
+      <c r="AW103" s="9"/>
+      <c r="AX103" s="9"/>
+      <c r="AY103" s="9"/>
+      <c r="AZ103" s="9"/>
+      <c r="BA103" s="9"/>
+      <c r="BB103" s="9"/>
+      <c r="BC103" s="9"/>
+      <c r="BD103" s="9"/>
+    </row>
+    <row r="104" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="6"/>
+      <c r="E104" s="5"/>
       <c r="F104" s="3"/>
       <c r="G104" s="7"/>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
       <c r="P104" s="9"/>
       <c r="Q104" s="9"/>
       <c r="R104" s="9"/>
-      <c r="S104" s="23"/>
-      <c r="T104" s="10"/>
-      <c r="U104" s="23"/>
-      <c r="V104" s="9"/>
-      <c r="W104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="16"/>
+      <c r="V104" s="10"/>
+      <c r="W104" s="16"/>
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
       <c r="Z104" s="9"/>
@@ -6105,40 +7419,52 @@
       <c r="AP104" s="9"/>
       <c r="AQ104" s="9"/>
       <c r="AR104" s="9"/>
-    </row>
-    <row r="105" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="6"/>
+      <c r="AS104" s="9"/>
+      <c r="AT104" s="9"/>
+      <c r="AU104" s="9"/>
+      <c r="AV104" s="9"/>
+      <c r="AW104" s="9"/>
+      <c r="AX104" s="9"/>
+      <c r="AY104" s="9"/>
+      <c r="AZ104" s="9"/>
+      <c r="BA104" s="9"/>
+      <c r="BB104" s="9"/>
+      <c r="BC104" s="9"/>
+      <c r="BD104" s="9"/>
+    </row>
+    <row r="105" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="5"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="5"/>
+      <c r="E105" s="6"/>
       <c r="F105" s="3"/>
       <c r="G105" s="7"/>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
       <c r="P105" s="9"/>
       <c r="Q105" s="9"/>
       <c r="R105" s="9"/>
-      <c r="S105" s="23"/>
-      <c r="T105" s="10"/>
-      <c r="U105" s="23"/>
-      <c r="V105" s="9"/>
-      <c r="W105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="16"/>
+      <c r="V105" s="10"/>
+      <c r="W105" s="16"/>
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
       <c r="Z105" s="9"/>
       <c r="AA105" s="9"/>
       <c r="AB105" s="9"/>
-      <c r="AC105" s="11"/>
-      <c r="AD105" s="11"/>
-      <c r="AE105" s="11"/>
-      <c r="AF105" s="11"/>
+      <c r="AC105" s="9"/>
+      <c r="AD105" s="9"/>
+      <c r="AE105" s="9"/>
+      <c r="AF105" s="9"/>
       <c r="AG105" s="9"/>
       <c r="AH105" s="9"/>
       <c r="AI105" s="9"/>
@@ -6151,11 +7477,23 @@
       <c r="AP105" s="9"/>
       <c r="AQ105" s="9"/>
       <c r="AR105" s="9"/>
-    </row>
-    <row r="106" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="6"/>
+      <c r="AS105" s="9"/>
+      <c r="AT105" s="9"/>
+      <c r="AU105" s="9"/>
+      <c r="AV105" s="9"/>
+      <c r="AW105" s="9"/>
+      <c r="AX105" s="9"/>
+      <c r="AY105" s="9"/>
+      <c r="AZ105" s="9"/>
+      <c r="BA105" s="9"/>
+      <c r="BB105" s="9"/>
+      <c r="BC105" s="9"/>
+      <c r="BD105" s="9"/>
+    </row>
+    <row r="106" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
       <c r="D106" s="3"/>
       <c r="E106" s="6"/>
       <c r="F106" s="3"/>
@@ -6163,19 +7501,19 @@
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
       <c r="O106" s="9"/>
       <c r="P106" s="9"/>
       <c r="Q106" s="9"/>
       <c r="R106" s="9"/>
-      <c r="S106" s="23"/>
-      <c r="T106" s="10"/>
-      <c r="U106" s="23"/>
-      <c r="V106" s="9"/>
-      <c r="W106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="16"/>
+      <c r="V106" s="10"/>
+      <c r="W106" s="16"/>
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
@@ -6197,11 +7535,23 @@
       <c r="AP106" s="9"/>
       <c r="AQ106" s="9"/>
       <c r="AR106" s="9"/>
-    </row>
-    <row r="107" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="6"/>
+      <c r="AS106" s="9"/>
+      <c r="AT106" s="9"/>
+      <c r="AU106" s="9"/>
+      <c r="AV106" s="9"/>
+      <c r="AW106" s="9"/>
+      <c r="AX106" s="9"/>
+      <c r="AY106" s="9"/>
+      <c r="AZ106" s="9"/>
+      <c r="BA106" s="9"/>
+      <c r="BB106" s="9"/>
+      <c r="BC106" s="9"/>
+      <c r="BD106" s="9"/>
+    </row>
+    <row r="107" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="5"/>
       <c r="D107" s="3"/>
       <c r="E107" s="6"/>
       <c r="F107" s="3"/>
@@ -6209,24 +7559,24 @@
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
       <c r="Q107" s="9"/>
       <c r="R107" s="9"/>
-      <c r="S107" s="23"/>
-      <c r="T107" s="10"/>
-      <c r="U107" s="23"/>
-      <c r="V107" s="9"/>
-      <c r="W107" s="17"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="16"/>
+      <c r="V107" s="10"/>
+      <c r="W107" s="16"/>
       <c r="X107" s="9"/>
-      <c r="Y107" s="19"/>
-      <c r="Z107" s="17"/>
+      <c r="Y107" s="9"/>
+      <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
-      <c r="AB107" s="17"/>
+      <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
       <c r="AD107" s="9"/>
       <c r="AE107" s="9"/>
@@ -6243,11 +7593,23 @@
       <c r="AP107" s="9"/>
       <c r="AQ107" s="9"/>
       <c r="AR107" s="9"/>
-    </row>
-    <row r="108" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="6"/>
+      <c r="AS107" s="9"/>
+      <c r="AT107" s="9"/>
+      <c r="AU107" s="9"/>
+      <c r="AV107" s="9"/>
+      <c r="AW107" s="9"/>
+      <c r="AX107" s="9"/>
+      <c r="AY107" s="9"/>
+      <c r="AZ107" s="9"/>
+      <c r="BA107" s="9"/>
+      <c r="BB107" s="9"/>
+      <c r="BC107" s="9"/>
+      <c r="BD107" s="9"/>
+    </row>
+    <row r="108" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
       <c r="D108" s="3"/>
       <c r="E108" s="6"/>
       <c r="F108" s="3"/>
@@ -6255,33 +7617,33 @@
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16"/>
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
       <c r="P108" s="9"/>
       <c r="Q108" s="9"/>
       <c r="R108" s="9"/>
-      <c r="S108" s="23"/>
-      <c r="T108" s="10"/>
-      <c r="U108" s="23"/>
-      <c r="V108" s="9"/>
-      <c r="W108" s="9"/>
-      <c r="X108" s="11"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
+      <c r="U108" s="16"/>
+      <c r="V108" s="10"/>
+      <c r="W108" s="16"/>
+      <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
       <c r="AB108" s="9"/>
-      <c r="AC108" s="17"/>
-      <c r="AD108" s="17"/>
-      <c r="AE108" s="17"/>
-      <c r="AF108" s="17"/>
-      <c r="AG108" s="17"/>
-      <c r="AH108" s="17"/>
-      <c r="AI108" s="17"/>
-      <c r="AJ108" s="17"/>
-      <c r="AK108" s="17"/>
+      <c r="AC108" s="9"/>
+      <c r="AD108" s="9"/>
+      <c r="AE108" s="9"/>
+      <c r="AF108" s="9"/>
+      <c r="AG108" s="9"/>
+      <c r="AH108" s="9"/>
+      <c r="AI108" s="9"/>
+      <c r="AJ108" s="9"/>
+      <c r="AK108" s="9"/>
       <c r="AL108" s="9"/>
       <c r="AM108" s="9"/>
       <c r="AN108" s="9"/>
@@ -6289,10 +7651,22 @@
       <c r="AP108" s="9"/>
       <c r="AQ108" s="9"/>
       <c r="AR108" s="9"/>
-    </row>
-    <row r="109" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
+      <c r="AS108" s="9"/>
+      <c r="AT108" s="9"/>
+      <c r="AU108" s="9"/>
+      <c r="AV108" s="9"/>
+      <c r="AW108" s="9"/>
+      <c r="AX108" s="9"/>
+      <c r="AY108" s="9"/>
+      <c r="AZ108" s="9"/>
+      <c r="BA108" s="9"/>
+      <c r="BB108" s="9"/>
+      <c r="BC108" s="9"/>
+      <c r="BD108" s="9"/>
+    </row>
+    <row r="109" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
       <c r="C109" s="5"/>
       <c r="D109" s="3"/>
       <c r="E109" s="6"/>
@@ -6301,24 +7675,24 @@
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="16"/>
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
       <c r="O109" s="9"/>
       <c r="P109" s="9"/>
       <c r="Q109" s="9"/>
       <c r="R109" s="9"/>
-      <c r="S109" s="23"/>
-      <c r="T109" s="10"/>
-      <c r="U109" s="23"/>
-      <c r="V109" s="9"/>
-      <c r="W109" s="9"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="16"/>
+      <c r="V109" s="10"/>
+      <c r="W109" s="16"/>
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
       <c r="AA109" s="9"/>
-      <c r="AB109" s="9"/>
+      <c r="AB109" s="16"/>
       <c r="AC109" s="9"/>
       <c r="AD109" s="9"/>
       <c r="AE109" s="9"/>
@@ -6335,10 +7709,22 @@
       <c r="AP109" s="9"/>
       <c r="AQ109" s="9"/>
       <c r="AR109" s="9"/>
-    </row>
-    <row r="110" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="AS109" s="9"/>
+      <c r="AT109" s="9"/>
+      <c r="AU109" s="9"/>
+      <c r="AV109" s="9"/>
+      <c r="AW109" s="9"/>
+      <c r="AX109" s="9"/>
+      <c r="AY109" s="9"/>
+      <c r="AZ109" s="9"/>
+      <c r="BA109" s="9"/>
+      <c r="BB109" s="9"/>
+      <c r="BC109" s="9"/>
+      <c r="BD109" s="9"/>
+    </row>
+    <row r="110" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="6"/>
       <c r="D110" s="3"/>
       <c r="E110" s="6"/>
@@ -6347,19 +7733,19 @@
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="16"/>
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
       <c r="O110" s="9"/>
       <c r="P110" s="9"/>
       <c r="Q110" s="9"/>
       <c r="R110" s="9"/>
-      <c r="S110" s="23"/>
-      <c r="T110" s="10"/>
-      <c r="U110" s="23"/>
-      <c r="V110" s="9"/>
-      <c r="W110" s="9"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="9"/>
+      <c r="U110" s="16"/>
+      <c r="V110" s="10"/>
+      <c r="W110" s="16"/>
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
@@ -6381,34 +7767,46 @@
       <c r="AP110" s="9"/>
       <c r="AQ110" s="9"/>
       <c r="AR110" s="9"/>
-    </row>
-    <row r="111" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+      <c r="AS110" s="9"/>
+      <c r="AT110" s="9"/>
+      <c r="AU110" s="9"/>
+      <c r="AV110" s="9"/>
+      <c r="AW110" s="9"/>
+      <c r="AX110" s="9"/>
+      <c r="AY110" s="9"/>
+      <c r="AZ110" s="9"/>
+      <c r="BA110" s="9"/>
+      <c r="BB110" s="9"/>
+      <c r="BC110" s="9"/>
+      <c r="BD110" s="9"/>
+    </row>
+    <row r="111" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
       <c r="C111" s="6"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="5"/>
+      <c r="E111" s="6"/>
       <c r="F111" s="3"/>
       <c r="G111" s="7"/>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
       <c r="M111" s="9"/>
       <c r="N111" s="9"/>
       <c r="O111" s="9"/>
       <c r="P111" s="9"/>
       <c r="Q111" s="9"/>
       <c r="R111" s="9"/>
-      <c r="S111" s="23"/>
-      <c r="T111" s="10"/>
-      <c r="U111" s="23"/>
-      <c r="V111" s="9"/>
-      <c r="W111" s="9"/>
+      <c r="S111" s="9"/>
+      <c r="T111" s="9"/>
+      <c r="U111" s="16"/>
+      <c r="V111" s="10"/>
+      <c r="W111" s="16"/>
       <c r="X111" s="9"/>
-      <c r="Y111" s="17"/>
-      <c r="Z111" s="17"/>
+      <c r="Y111" s="9"/>
+      <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
@@ -6427,31 +7825,43 @@
       <c r="AP111" s="9"/>
       <c r="AQ111" s="9"/>
       <c r="AR111" s="9"/>
-    </row>
-    <row r="112" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="AS111" s="9"/>
+      <c r="AT111" s="9"/>
+      <c r="AU111" s="9"/>
+      <c r="AV111" s="9"/>
+      <c r="AW111" s="9"/>
+      <c r="AX111" s="9"/>
+      <c r="AY111" s="9"/>
+      <c r="AZ111" s="9"/>
+      <c r="BA111" s="9"/>
+      <c r="BB111" s="9"/>
+      <c r="BC111" s="9"/>
+      <c r="BD111" s="9"/>
+    </row>
+    <row r="112" spans="1:56" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="6"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="5"/>
+      <c r="E112" s="6"/>
       <c r="F112" s="3"/>
       <c r="G112" s="7"/>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="16"/>
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
       <c r="O112" s="9"/>
       <c r="P112" s="9"/>
       <c r="Q112" s="9"/>
       <c r="R112" s="9"/>
-      <c r="S112" s="23"/>
-      <c r="T112" s="10"/>
-      <c r="U112" s="23"/>
-      <c r="V112" s="9"/>
-      <c r="W112" s="9"/>
+      <c r="S112" s="9"/>
+      <c r="T112" s="9"/>
+      <c r="U112" s="16"/>
+      <c r="V112" s="10"/>
+      <c r="W112" s="16"/>
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
@@ -6473,31 +7883,43 @@
       <c r="AP112" s="9"/>
       <c r="AQ112" s="9"/>
       <c r="AR112" s="9"/>
-    </row>
-    <row r="113" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="6"/>
+      <c r="AS112" s="9"/>
+      <c r="AT112" s="9"/>
+      <c r="AU112" s="9"/>
+      <c r="AV112" s="9"/>
+      <c r="AW112" s="9"/>
+      <c r="AX112" s="9"/>
+      <c r="AY112" s="9"/>
+      <c r="AZ112" s="9"/>
+      <c r="BA112" s="9"/>
+      <c r="BB112" s="9"/>
+      <c r="BC112" s="9"/>
+      <c r="BD112" s="9"/>
+    </row>
+    <row r="113" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="5"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="6"/>
+      <c r="E113" s="5"/>
       <c r="F113" s="3"/>
       <c r="G113" s="7"/>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
       <c r="O113" s="9"/>
       <c r="P113" s="9"/>
       <c r="Q113" s="9"/>
       <c r="R113" s="9"/>
-      <c r="S113" s="23"/>
-      <c r="T113" s="10"/>
-      <c r="U113" s="23"/>
-      <c r="V113" s="9"/>
-      <c r="W113" s="9"/>
+      <c r="S113" s="9"/>
+      <c r="T113" s="9"/>
+      <c r="U113" s="16"/>
+      <c r="V113" s="10"/>
+      <c r="W113" s="16"/>
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
@@ -6519,31 +7941,43 @@
       <c r="AP113" s="9"/>
       <c r="AQ113" s="9"/>
       <c r="AR113" s="9"/>
-    </row>
-    <row r="114" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+      <c r="AS113" s="9"/>
+      <c r="AT113" s="9"/>
+      <c r="AU113" s="9"/>
+      <c r="AV113" s="9"/>
+      <c r="AW113" s="9"/>
+      <c r="AX113" s="9"/>
+      <c r="AY113" s="9"/>
+      <c r="AZ113" s="9"/>
+      <c r="BA113" s="9"/>
+      <c r="BB113" s="9"/>
+      <c r="BC113" s="9"/>
+      <c r="BD113" s="9"/>
+    </row>
+    <row r="114" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
       <c r="C114" s="6"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="5"/>
+      <c r="E114" s="6"/>
       <c r="F114" s="3"/>
       <c r="G114" s="7"/>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
       <c r="M114" s="9"/>
-      <c r="N114" s="17"/>
+      <c r="N114" s="9"/>
       <c r="O114" s="9"/>
       <c r="P114" s="9"/>
       <c r="Q114" s="9"/>
       <c r="R114" s="9"/>
-      <c r="S114" s="23"/>
-      <c r="T114" s="10"/>
-      <c r="U114" s="23"/>
-      <c r="V114" s="9"/>
-      <c r="W114" s="9"/>
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
+      <c r="U114" s="16"/>
+      <c r="V114" s="10"/>
+      <c r="W114" s="16"/>
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
@@ -6565,31 +7999,43 @@
       <c r="AP114" s="9"/>
       <c r="AQ114" s="9"/>
       <c r="AR114" s="9"/>
-    </row>
-    <row r="115" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="AS114" s="9"/>
+      <c r="AT114" s="9"/>
+      <c r="AU114" s="9"/>
+      <c r="AV114" s="9"/>
+      <c r="AW114" s="9"/>
+      <c r="AX114" s="9"/>
+      <c r="AY114" s="9"/>
+      <c r="AZ114" s="9"/>
+      <c r="BA114" s="9"/>
+      <c r="BB114" s="9"/>
+      <c r="BC114" s="9"/>
+      <c r="BD114" s="9"/>
+    </row>
+    <row r="115" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
       <c r="C115" s="6"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="6"/>
+      <c r="E115" s="5"/>
       <c r="F115" s="3"/>
       <c r="G115" s="7"/>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="9"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="16"/>
       <c r="M115" s="9"/>
-      <c r="N115" s="17"/>
+      <c r="N115" s="9"/>
       <c r="O115" s="9"/>
       <c r="P115" s="9"/>
       <c r="Q115" s="9"/>
       <c r="R115" s="9"/>
-      <c r="S115" s="23"/>
-      <c r="T115" s="10"/>
-      <c r="U115" s="23"/>
-      <c r="V115" s="9"/>
-      <c r="W115" s="9"/>
+      <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
+      <c r="U115" s="16"/>
+      <c r="V115" s="10"/>
+      <c r="W115" s="16"/>
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
@@ -6611,10 +8057,22 @@
       <c r="AP115" s="9"/>
       <c r="AQ115" s="9"/>
       <c r="AR115" s="9"/>
-    </row>
-    <row r="116" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="AS115" s="9"/>
+      <c r="AT115" s="9"/>
+      <c r="AU115" s="9"/>
+      <c r="AV115" s="9"/>
+      <c r="AW115" s="9"/>
+      <c r="AX115" s="9"/>
+      <c r="AY115" s="9"/>
+      <c r="AZ115" s="9"/>
+      <c r="BA115" s="9"/>
+      <c r="BB115" s="9"/>
+      <c r="BC115" s="9"/>
+      <c r="BD115" s="9"/>
+    </row>
+    <row r="116" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
       <c r="C116" s="6"/>
       <c r="D116" s="3"/>
       <c r="E116" s="6"/>
@@ -6623,19 +8081,19 @@
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
-      <c r="K116" s="9"/>
-      <c r="L116" s="9"/>
+      <c r="K116" s="16"/>
+      <c r="L116" s="16"/>
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
       <c r="O116" s="9"/>
       <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
       <c r="R116" s="9"/>
-      <c r="S116" s="23"/>
-      <c r="T116" s="10"/>
-      <c r="U116" s="23"/>
-      <c r="V116" s="9"/>
-      <c r="W116" s="9"/>
+      <c r="S116" s="9"/>
+      <c r="T116" s="9"/>
+      <c r="U116" s="16"/>
+      <c r="V116" s="10"/>
+      <c r="W116" s="16"/>
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
@@ -6657,10 +8115,22 @@
       <c r="AP116" s="9"/>
       <c r="AQ116" s="9"/>
       <c r="AR116" s="9"/>
-    </row>
-    <row r="117" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
+      <c r="AS116" s="9"/>
+      <c r="AT116" s="9"/>
+      <c r="AU116" s="9"/>
+      <c r="AV116" s="9"/>
+      <c r="AW116" s="9"/>
+      <c r="AX116" s="9"/>
+      <c r="AY116" s="9"/>
+      <c r="AZ116" s="9"/>
+      <c r="BA116" s="9"/>
+      <c r="BB116" s="9"/>
+      <c r="BC116" s="9"/>
+      <c r="BD116" s="9"/>
+    </row>
+    <row r="117" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
       <c r="C117" s="6"/>
       <c r="D117" s="3"/>
       <c r="E117" s="6"/>
@@ -6669,19 +8139,19 @@
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9"/>
+      <c r="K117" s="16"/>
+      <c r="L117" s="16"/>
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
       <c r="O117" s="9"/>
       <c r="P117" s="9"/>
       <c r="Q117" s="9"/>
       <c r="R117" s="9"/>
-      <c r="S117" s="23"/>
-      <c r="T117" s="10"/>
-      <c r="U117" s="23"/>
-      <c r="V117" s="9"/>
-      <c r="W117" s="9"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+      <c r="U117" s="16"/>
+      <c r="V117" s="10"/>
+      <c r="W117" s="16"/>
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
@@ -6703,10 +8173,22 @@
       <c r="AP117" s="9"/>
       <c r="AQ117" s="9"/>
       <c r="AR117" s="9"/>
-    </row>
-    <row r="118" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="AS117" s="9"/>
+      <c r="AT117" s="9"/>
+      <c r="AU117" s="9"/>
+      <c r="AV117" s="9"/>
+      <c r="AW117" s="9"/>
+      <c r="AX117" s="9"/>
+      <c r="AY117" s="9"/>
+      <c r="AZ117" s="9"/>
+      <c r="BA117" s="9"/>
+      <c r="BB117" s="9"/>
+      <c r="BC117" s="9"/>
+      <c r="BD117" s="9"/>
+    </row>
+    <row r="118" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
       <c r="C118" s="6"/>
       <c r="D118" s="3"/>
       <c r="E118" s="6"/>
@@ -6715,19 +8197,19 @@
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9"/>
+      <c r="K118" s="16"/>
+      <c r="L118" s="16"/>
       <c r="M118" s="9"/>
       <c r="N118" s="9"/>
       <c r="O118" s="9"/>
       <c r="P118" s="9"/>
       <c r="Q118" s="9"/>
       <c r="R118" s="9"/>
-      <c r="S118" s="23"/>
-      <c r="T118" s="10"/>
-      <c r="U118" s="23"/>
-      <c r="V118" s="9"/>
-      <c r="W118" s="9"/>
+      <c r="S118" s="9"/>
+      <c r="T118" s="9"/>
+      <c r="U118" s="16"/>
+      <c r="V118" s="10"/>
+      <c r="W118" s="16"/>
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
@@ -6749,10 +8231,22 @@
       <c r="AP118" s="9"/>
       <c r="AQ118" s="9"/>
       <c r="AR118" s="9"/>
-    </row>
-    <row r="119" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
+      <c r="AS118" s="9"/>
+      <c r="AT118" s="9"/>
+      <c r="AU118" s="9"/>
+      <c r="AV118" s="9"/>
+      <c r="AW118" s="9"/>
+      <c r="AX118" s="9"/>
+      <c r="AY118" s="9"/>
+      <c r="AZ118" s="9"/>
+      <c r="BA118" s="9"/>
+      <c r="BB118" s="9"/>
+      <c r="BC118" s="9"/>
+      <c r="BD118" s="9"/>
+    </row>
+    <row r="119" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
       <c r="C119" s="6"/>
       <c r="D119" s="3"/>
       <c r="E119" s="6"/>
@@ -6761,19 +8255,19 @@
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
-      <c r="K119" s="9"/>
-      <c r="L119" s="9"/>
+      <c r="K119" s="16"/>
+      <c r="L119" s="16"/>
       <c r="M119" s="9"/>
       <c r="N119" s="9"/>
       <c r="O119" s="9"/>
       <c r="P119" s="9"/>
       <c r="Q119" s="9"/>
       <c r="R119" s="9"/>
-      <c r="S119" s="23"/>
-      <c r="T119" s="10"/>
-      <c r="U119" s="23"/>
-      <c r="V119" s="9"/>
-      <c r="W119" s="9"/>
+      <c r="S119" s="9"/>
+      <c r="T119" s="9"/>
+      <c r="U119" s="16"/>
+      <c r="V119" s="10"/>
+      <c r="W119" s="16"/>
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
@@ -6795,11 +8289,23 @@
       <c r="AP119" s="9"/>
       <c r="AQ119" s="9"/>
       <c r="AR119" s="9"/>
-    </row>
-    <row r="120" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="5"/>
+      <c r="AS119" s="9"/>
+      <c r="AT119" s="9"/>
+      <c r="AU119" s="9"/>
+      <c r="AV119" s="9"/>
+      <c r="AW119" s="9"/>
+      <c r="AX119" s="9"/>
+      <c r="AY119" s="9"/>
+      <c r="AZ119" s="9"/>
+      <c r="BA119" s="9"/>
+      <c r="BB119" s="9"/>
+      <c r="BC119" s="9"/>
+      <c r="BD119" s="9"/>
+    </row>
+    <row r="120" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="6"/>
       <c r="D120" s="3"/>
       <c r="E120" s="6"/>
       <c r="F120" s="3"/>
@@ -6807,19 +8313,19 @@
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="13"/>
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
       <c r="M120" s="9"/>
       <c r="N120" s="9"/>
       <c r="O120" s="9"/>
       <c r="P120" s="9"/>
       <c r="Q120" s="9"/>
       <c r="R120" s="9"/>
-      <c r="S120" s="23"/>
-      <c r="T120" s="10"/>
-      <c r="U120" s="23"/>
-      <c r="V120" s="9"/>
-      <c r="W120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="U120" s="16"/>
+      <c r="V120" s="10"/>
+      <c r="W120" s="16"/>
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
@@ -6841,11 +8347,23 @@
       <c r="AP120" s="9"/>
       <c r="AQ120" s="9"/>
       <c r="AR120" s="9"/>
-    </row>
-    <row r="121" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="5"/>
+      <c r="AS120" s="9"/>
+      <c r="AT120" s="9"/>
+      <c r="AU120" s="9"/>
+      <c r="AV120" s="9"/>
+      <c r="AW120" s="9"/>
+      <c r="AX120" s="9"/>
+      <c r="AY120" s="9"/>
+      <c r="AZ120" s="9"/>
+      <c r="BA120" s="9"/>
+      <c r="BB120" s="9"/>
+      <c r="BC120" s="9"/>
+      <c r="BD120" s="9"/>
+    </row>
+    <row r="121" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="6"/>
       <c r="D121" s="3"/>
       <c r="E121" s="6"/>
       <c r="F121" s="3"/>
@@ -6853,19 +8371,19 @@
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9"/>
+      <c r="K121" s="16"/>
+      <c r="L121" s="16"/>
       <c r="M121" s="9"/>
       <c r="N121" s="9"/>
       <c r="O121" s="9"/>
       <c r="P121" s="9"/>
       <c r="Q121" s="9"/>
       <c r="R121" s="9"/>
-      <c r="S121" s="23"/>
-      <c r="T121" s="10"/>
-      <c r="U121" s="23"/>
-      <c r="V121" s="9"/>
-      <c r="W121" s="9"/>
+      <c r="S121" s="9"/>
+      <c r="T121" s="9"/>
+      <c r="U121" s="16"/>
+      <c r="V121" s="10"/>
+      <c r="W121" s="16"/>
       <c r="X121" s="9"/>
       <c r="Y121" s="9"/>
       <c r="Z121" s="9"/>
@@ -6887,11 +8405,23 @@
       <c r="AP121" s="9"/>
       <c r="AQ121" s="9"/>
       <c r="AR121" s="9"/>
-    </row>
-    <row r="122" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="5"/>
+      <c r="AS121" s="9"/>
+      <c r="AT121" s="9"/>
+      <c r="AU121" s="9"/>
+      <c r="AV121" s="9"/>
+      <c r="AW121" s="9"/>
+      <c r="AX121" s="9"/>
+      <c r="AY121" s="9"/>
+      <c r="AZ121" s="9"/>
+      <c r="BA121" s="9"/>
+      <c r="BB121" s="9"/>
+      <c r="BC121" s="9"/>
+      <c r="BD121" s="9"/>
+    </row>
+    <row r="122" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="6"/>
       <c r="D122" s="3"/>
       <c r="E122" s="6"/>
       <c r="F122" s="3"/>
@@ -6899,19 +8429,19 @@
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
+      <c r="K122" s="16"/>
+      <c r="L122" s="16"/>
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
       <c r="O122" s="9"/>
       <c r="P122" s="9"/>
       <c r="Q122" s="9"/>
       <c r="R122" s="9"/>
-      <c r="S122" s="23"/>
-      <c r="T122" s="10"/>
-      <c r="U122" s="23"/>
-      <c r="V122" s="9"/>
-      <c r="W122" s="9"/>
+      <c r="S122" s="9"/>
+      <c r="T122" s="9"/>
+      <c r="U122" s="16"/>
+      <c r="V122" s="10"/>
+      <c r="W122" s="16"/>
       <c r="X122" s="9"/>
       <c r="Y122" s="9"/>
       <c r="Z122" s="9"/>
@@ -6933,11 +8463,23 @@
       <c r="AP122" s="9"/>
       <c r="AQ122" s="9"/>
       <c r="AR122" s="9"/>
-    </row>
-    <row r="123" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="5"/>
+      <c r="AS122" s="9"/>
+      <c r="AT122" s="9"/>
+      <c r="AU122" s="9"/>
+      <c r="AV122" s="9"/>
+      <c r="AW122" s="9"/>
+      <c r="AX122" s="9"/>
+      <c r="AY122" s="9"/>
+      <c r="AZ122" s="9"/>
+      <c r="BA122" s="9"/>
+      <c r="BB122" s="9"/>
+      <c r="BC122" s="9"/>
+      <c r="BD122" s="9"/>
+    </row>
+    <row r="123" spans="1:56" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="6"/>
       <c r="D123" s="3"/>
       <c r="E123" s="6"/>
       <c r="F123" s="3"/>
@@ -6945,19 +8487,19 @@
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
+      <c r="K123" s="16"/>
+      <c r="L123" s="16"/>
       <c r="M123" s="9"/>
       <c r="N123" s="9"/>
       <c r="O123" s="9"/>
       <c r="P123" s="9"/>
       <c r="Q123" s="9"/>
       <c r="R123" s="9"/>
-      <c r="S123" s="23"/>
-      <c r="T123" s="10"/>
-      <c r="U123" s="23"/>
-      <c r="V123" s="9"/>
-      <c r="W123" s="9"/>
+      <c r="S123" s="9"/>
+      <c r="T123" s="9"/>
+      <c r="U123" s="16"/>
+      <c r="V123" s="10"/>
+      <c r="W123" s="16"/>
       <c r="X123" s="9"/>
       <c r="Y123" s="9"/>
       <c r="Z123" s="9"/>
@@ -6979,1181 +8521,43 @@
       <c r="AP123" s="9"/>
       <c r="AQ123" s="9"/>
       <c r="AR123" s="9"/>
-    </row>
-    <row r="124" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
-      <c r="M124" s="9"/>
-      <c r="N124" s="9"/>
-      <c r="O124" s="9"/>
-      <c r="P124" s="9"/>
-      <c r="Q124" s="9"/>
-      <c r="R124" s="9"/>
-      <c r="S124" s="23"/>
-      <c r="T124" s="10"/>
-      <c r="U124" s="23"/>
-      <c r="V124" s="9"/>
-      <c r="W124" s="9"/>
-      <c r="X124" s="9"/>
-      <c r="Y124" s="9"/>
-      <c r="Z124" s="9"/>
-      <c r="AA124" s="9"/>
-      <c r="AB124" s="9"/>
-      <c r="AC124" s="9"/>
-      <c r="AD124" s="9"/>
-      <c r="AE124" s="9"/>
-      <c r="AF124" s="9"/>
-      <c r="AG124" s="9"/>
-      <c r="AH124" s="9"/>
-      <c r="AI124" s="9"/>
-      <c r="AJ124" s="9"/>
-      <c r="AK124" s="9"/>
-      <c r="AL124" s="9"/>
-      <c r="AM124" s="9"/>
-      <c r="AN124" s="9"/>
-      <c r="AO124" s="9"/>
-      <c r="AP124" s="9"/>
-      <c r="AQ124" s="9"/>
-      <c r="AR124" s="9"/>
-    </row>
-    <row r="125" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
-      <c r="M125" s="9"/>
-      <c r="N125" s="9"/>
-      <c r="O125" s="9"/>
-      <c r="P125" s="9"/>
-      <c r="Q125" s="9"/>
-      <c r="R125" s="9"/>
-      <c r="S125" s="23"/>
-      <c r="T125" s="10"/>
-      <c r="U125" s="23"/>
-      <c r="V125" s="9"/>
-      <c r="W125" s="9"/>
-      <c r="X125" s="9"/>
-      <c r="Y125" s="9"/>
-      <c r="Z125" s="9"/>
-      <c r="AA125" s="9"/>
-      <c r="AB125" s="9"/>
-      <c r="AC125" s="9"/>
-      <c r="AD125" s="9"/>
-      <c r="AE125" s="9"/>
-      <c r="AF125" s="9"/>
-      <c r="AG125" s="9"/>
-      <c r="AH125" s="9"/>
-      <c r="AI125" s="9"/>
-      <c r="AJ125" s="9"/>
-      <c r="AK125" s="9"/>
-      <c r="AL125" s="9"/>
-      <c r="AM125" s="9"/>
-      <c r="AN125" s="9"/>
-      <c r="AO125" s="9"/>
-      <c r="AP125" s="9"/>
-      <c r="AQ125" s="9"/>
-      <c r="AR125" s="9"/>
-    </row>
-    <row r="126" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9"/>
-      <c r="M126" s="9"/>
-      <c r="N126" s="9"/>
-      <c r="O126" s="9"/>
-      <c r="P126" s="9"/>
-      <c r="Q126" s="9"/>
-      <c r="R126" s="9"/>
-      <c r="S126" s="23"/>
-      <c r="T126" s="10"/>
-      <c r="U126" s="23"/>
-      <c r="V126" s="9"/>
-      <c r="W126" s="9"/>
-      <c r="X126" s="9"/>
-      <c r="Y126" s="9"/>
-      <c r="Z126" s="9"/>
-      <c r="AA126" s="9"/>
-      <c r="AB126" s="9"/>
-      <c r="AC126" s="9"/>
-      <c r="AD126" s="9"/>
-      <c r="AE126" s="9"/>
-      <c r="AF126" s="9"/>
-      <c r="AG126" s="9"/>
-      <c r="AH126" s="9"/>
-      <c r="AI126" s="9"/>
-      <c r="AJ126" s="9"/>
-      <c r="AK126" s="9"/>
-      <c r="AL126" s="9"/>
-      <c r="AM126" s="9"/>
-      <c r="AN126" s="9"/>
-      <c r="AO126" s="9"/>
-      <c r="AP126" s="9"/>
-      <c r="AQ126" s="9"/>
-      <c r="AR126" s="9"/>
-    </row>
-    <row r="127" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9"/>
-      <c r="M127" s="9"/>
-      <c r="N127" s="9"/>
-      <c r="O127" s="9"/>
-      <c r="P127" s="9"/>
-      <c r="Q127" s="9"/>
-      <c r="R127" s="9"/>
-      <c r="S127" s="23"/>
-      <c r="T127" s="10"/>
-      <c r="U127" s="23"/>
-      <c r="V127" s="9"/>
-      <c r="W127" s="9"/>
-      <c r="X127" s="9"/>
-      <c r="Y127" s="9"/>
-      <c r="Z127" s="9"/>
-      <c r="AA127" s="9"/>
-      <c r="AB127" s="9"/>
-      <c r="AC127" s="9"/>
-      <c r="AD127" s="9"/>
-      <c r="AE127" s="9"/>
-      <c r="AF127" s="9"/>
-      <c r="AG127" s="9"/>
-      <c r="AH127" s="9"/>
-      <c r="AI127" s="9"/>
-      <c r="AJ127" s="9"/>
-      <c r="AK127" s="9"/>
-      <c r="AL127" s="9"/>
-      <c r="AM127" s="9"/>
-      <c r="AN127" s="9"/>
-      <c r="AO127" s="9"/>
-      <c r="AP127" s="9"/>
-      <c r="AQ127" s="9"/>
-      <c r="AR127" s="9"/>
-    </row>
-    <row r="128" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9"/>
-      <c r="M128" s="9"/>
-      <c r="N128" s="9"/>
-      <c r="O128" s="9"/>
-      <c r="P128" s="9"/>
-      <c r="Q128" s="9"/>
-      <c r="R128" s="9"/>
-      <c r="S128" s="23"/>
-      <c r="T128" s="10"/>
-      <c r="U128" s="23"/>
-      <c r="V128" s="9"/>
-      <c r="W128" s="9"/>
-      <c r="X128" s="9"/>
-      <c r="Y128" s="9"/>
-      <c r="Z128" s="9"/>
-      <c r="AA128" s="9"/>
-      <c r="AB128" s="9"/>
-      <c r="AC128" s="9"/>
-      <c r="AD128" s="9"/>
-      <c r="AE128" s="9"/>
-      <c r="AF128" s="9"/>
-      <c r="AG128" s="9"/>
-      <c r="AH128" s="9"/>
-      <c r="AI128" s="9"/>
-      <c r="AJ128" s="9"/>
-      <c r="AK128" s="9"/>
-      <c r="AL128" s="9"/>
-      <c r="AM128" s="9"/>
-      <c r="AN128" s="9"/>
-      <c r="AO128" s="9"/>
-      <c r="AP128" s="9"/>
-      <c r="AQ128" s="9"/>
-      <c r="AR128" s="9"/>
-    </row>
-    <row r="129" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
-      <c r="N129" s="9"/>
-      <c r="O129" s="9"/>
-      <c r="P129" s="9"/>
-      <c r="Q129" s="9"/>
-      <c r="R129" s="9"/>
-      <c r="S129" s="23"/>
-      <c r="T129" s="10"/>
-      <c r="U129" s="23"/>
-      <c r="V129" s="9"/>
-      <c r="W129" s="9"/>
-      <c r="X129" s="9"/>
-      <c r="Y129" s="9"/>
-      <c r="Z129" s="9"/>
-      <c r="AA129" s="9"/>
-      <c r="AB129" s="9"/>
-      <c r="AC129" s="9"/>
-      <c r="AD129" s="9"/>
-      <c r="AE129" s="9"/>
-      <c r="AF129" s="9"/>
-      <c r="AG129" s="9"/>
-      <c r="AH129" s="9"/>
-      <c r="AI129" s="9"/>
-      <c r="AJ129" s="9"/>
-      <c r="AK129" s="9"/>
-      <c r="AL129" s="9"/>
-      <c r="AM129" s="9"/>
-      <c r="AN129" s="9"/>
-      <c r="AO129" s="9"/>
-      <c r="AP129" s="9"/>
-      <c r="AQ129" s="9"/>
-      <c r="AR129" s="9"/>
-    </row>
-    <row r="130" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9"/>
-      <c r="M130" s="9"/>
-      <c r="N130" s="9"/>
-      <c r="O130" s="9"/>
-      <c r="P130" s="9"/>
-      <c r="Q130" s="9"/>
-      <c r="R130" s="9"/>
-      <c r="S130" s="23"/>
-      <c r="T130" s="10"/>
-      <c r="U130" s="23"/>
-      <c r="V130" s="9"/>
-      <c r="W130" s="9"/>
-      <c r="X130" s="9"/>
-      <c r="Y130" s="9"/>
-      <c r="Z130" s="9"/>
-      <c r="AA130" s="9"/>
-      <c r="AB130" s="9"/>
-      <c r="AC130" s="9"/>
-      <c r="AD130" s="9"/>
-      <c r="AE130" s="9"/>
-      <c r="AF130" s="9"/>
-      <c r="AG130" s="9"/>
-      <c r="AH130" s="9"/>
-      <c r="AI130" s="9"/>
-      <c r="AJ130" s="9"/>
-      <c r="AK130" s="9"/>
-      <c r="AL130" s="9"/>
-      <c r="AM130" s="9"/>
-      <c r="AN130" s="9"/>
-      <c r="AO130" s="9"/>
-      <c r="AP130" s="9"/>
-      <c r="AQ130" s="9"/>
-      <c r="AR130" s="9"/>
-    </row>
-    <row r="131" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
-      <c r="N131" s="9"/>
-      <c r="O131" s="9"/>
-      <c r="P131" s="9"/>
-      <c r="Q131" s="9"/>
-      <c r="R131" s="9"/>
-      <c r="S131" s="23"/>
-      <c r="T131" s="10"/>
-      <c r="U131" s="23"/>
-      <c r="V131" s="9"/>
-      <c r="W131" s="9"/>
-      <c r="X131" s="9"/>
-      <c r="Y131" s="9"/>
-      <c r="Z131" s="9"/>
-      <c r="AA131" s="9"/>
-      <c r="AB131" s="9"/>
-      <c r="AC131" s="9"/>
-      <c r="AD131" s="9"/>
-      <c r="AE131" s="9"/>
-      <c r="AF131" s="9"/>
-      <c r="AG131" s="9"/>
-      <c r="AH131" s="9"/>
-      <c r="AI131" s="9"/>
-      <c r="AJ131" s="9"/>
-      <c r="AK131" s="9"/>
-      <c r="AL131" s="9"/>
-      <c r="AM131" s="9"/>
-      <c r="AN131" s="9"/>
-      <c r="AO131" s="9"/>
-      <c r="AP131" s="9"/>
-      <c r="AQ131" s="9"/>
-      <c r="AR131" s="9"/>
-    </row>
-    <row r="132" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-      <c r="M132" s="9"/>
-      <c r="N132" s="9"/>
-      <c r="O132" s="9"/>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="9"/>
-      <c r="R132" s="9"/>
-      <c r="S132" s="23"/>
-      <c r="T132" s="10"/>
-      <c r="U132" s="23"/>
-      <c r="V132" s="9"/>
-      <c r="W132" s="9"/>
-      <c r="X132" s="9"/>
-      <c r="Y132" s="9"/>
-      <c r="Z132" s="9"/>
-      <c r="AA132" s="9"/>
-      <c r="AB132" s="9"/>
-      <c r="AC132" s="9"/>
-      <c r="AD132" s="9"/>
-      <c r="AE132" s="9"/>
-      <c r="AF132" s="9"/>
-      <c r="AG132" s="9"/>
-      <c r="AH132" s="9"/>
-      <c r="AI132" s="9"/>
-      <c r="AJ132" s="9"/>
-      <c r="AK132" s="9"/>
-      <c r="AL132" s="9"/>
-      <c r="AM132" s="9"/>
-      <c r="AN132" s="9"/>
-      <c r="AO132" s="9"/>
-      <c r="AP132" s="9"/>
-      <c r="AQ132" s="9"/>
-      <c r="AR132" s="9"/>
-    </row>
-    <row r="133" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="9"/>
-      <c r="K133" s="9"/>
-      <c r="L133" s="9"/>
-      <c r="M133" s="9"/>
-      <c r="N133" s="9"/>
-      <c r="O133" s="9"/>
-      <c r="P133" s="9"/>
-      <c r="Q133" s="9"/>
-      <c r="R133" s="9"/>
-      <c r="S133" s="23"/>
-      <c r="T133" s="10"/>
-      <c r="U133" s="23"/>
-      <c r="V133" s="9"/>
-      <c r="W133" s="9"/>
-      <c r="X133" s="9"/>
-      <c r="Y133" s="9"/>
-      <c r="Z133" s="9"/>
-      <c r="AA133" s="9"/>
-      <c r="AB133" s="9"/>
-      <c r="AC133" s="9"/>
-      <c r="AD133" s="9"/>
-      <c r="AE133" s="9"/>
-      <c r="AF133" s="9"/>
-      <c r="AG133" s="9"/>
-      <c r="AH133" s="9"/>
-      <c r="AI133" s="9"/>
-      <c r="AJ133" s="9"/>
-      <c r="AK133" s="9"/>
-      <c r="AL133" s="9"/>
-      <c r="AM133" s="9"/>
-      <c r="AN133" s="9"/>
-      <c r="AO133" s="9"/>
-      <c r="AP133" s="9"/>
-      <c r="AQ133" s="9"/>
-      <c r="AR133" s="9"/>
-    </row>
-    <row r="134" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="9"/>
-      <c r="K134" s="9"/>
-      <c r="L134" s="9"/>
-      <c r="M134" s="9"/>
-      <c r="N134" s="9"/>
-      <c r="O134" s="9"/>
-      <c r="P134" s="9"/>
-      <c r="Q134" s="9"/>
-      <c r="R134" s="9"/>
-      <c r="S134" s="23"/>
-      <c r="T134" s="10"/>
-      <c r="U134" s="23"/>
-      <c r="V134" s="9"/>
-      <c r="W134" s="9"/>
-      <c r="X134" s="9"/>
-      <c r="Y134" s="23"/>
-      <c r="Z134" s="9"/>
-      <c r="AA134" s="9"/>
-      <c r="AB134" s="9"/>
-      <c r="AC134" s="9"/>
-      <c r="AD134" s="9"/>
-      <c r="AE134" s="9"/>
-      <c r="AF134" s="9"/>
-      <c r="AG134" s="9"/>
-      <c r="AH134" s="9"/>
-      <c r="AI134" s="9"/>
-      <c r="AJ134" s="9"/>
-      <c r="AK134" s="9"/>
-      <c r="AL134" s="9"/>
-      <c r="AM134" s="9"/>
-      <c r="AN134" s="9"/>
-      <c r="AO134" s="9"/>
-      <c r="AP134" s="9"/>
-      <c r="AQ134" s="9"/>
-      <c r="AR134" s="9"/>
-    </row>
-    <row r="135" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9"/>
-      <c r="L135" s="9"/>
-      <c r="M135" s="9"/>
-      <c r="N135" s="9"/>
-      <c r="O135" s="9"/>
-      <c r="P135" s="9"/>
-      <c r="Q135" s="9"/>
-      <c r="R135" s="9"/>
-      <c r="S135" s="23"/>
-      <c r="T135" s="10"/>
-      <c r="U135" s="23"/>
-      <c r="V135" s="9"/>
-      <c r="W135" s="9"/>
-      <c r="X135" s="9"/>
-      <c r="Y135" s="9"/>
-      <c r="Z135" s="9"/>
-      <c r="AA135" s="9"/>
-      <c r="AB135" s="9"/>
-      <c r="AC135" s="9"/>
-      <c r="AD135" s="9"/>
-      <c r="AE135" s="9"/>
-      <c r="AF135" s="9"/>
-      <c r="AG135" s="9"/>
-      <c r="AH135" s="9"/>
-      <c r="AI135" s="9"/>
-      <c r="AJ135" s="9"/>
-      <c r="AK135" s="9"/>
-      <c r="AL135" s="9"/>
-      <c r="AM135" s="9"/>
-      <c r="AN135" s="9"/>
-      <c r="AO135" s="9"/>
-      <c r="AP135" s="9"/>
-      <c r="AQ135" s="9"/>
-      <c r="AR135" s="9"/>
-    </row>
-    <row r="136" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
-      <c r="K136" s="9"/>
-      <c r="L136" s="9"/>
-      <c r="M136" s="9"/>
-      <c r="N136" s="9"/>
-      <c r="O136" s="9"/>
-      <c r="P136" s="9"/>
-      <c r="Q136" s="9"/>
-      <c r="R136" s="9"/>
-      <c r="S136" s="23"/>
-      <c r="T136" s="10"/>
-      <c r="U136" s="23"/>
-      <c r="V136" s="9"/>
-      <c r="W136" s="9"/>
-      <c r="X136" s="9"/>
-      <c r="Y136" s="9"/>
-      <c r="Z136" s="9"/>
-      <c r="AA136" s="9"/>
-      <c r="AB136" s="9"/>
-      <c r="AC136" s="9"/>
-      <c r="AD136" s="9"/>
-      <c r="AE136" s="9"/>
-      <c r="AF136" s="9"/>
-      <c r="AG136" s="9"/>
-      <c r="AH136" s="9"/>
-      <c r="AI136" s="9"/>
-      <c r="AJ136" s="9"/>
-      <c r="AK136" s="9"/>
-      <c r="AL136" s="9"/>
-      <c r="AM136" s="9"/>
-      <c r="AN136" s="9"/>
-      <c r="AO136" s="9"/>
-      <c r="AP136" s="9"/>
-      <c r="AQ136" s="9"/>
-      <c r="AR136" s="9"/>
-    </row>
-    <row r="137" spans="1:44" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="9"/>
-      <c r="K137" s="9"/>
-      <c r="L137" s="9"/>
-      <c r="M137" s="9"/>
-      <c r="N137" s="9"/>
-      <c r="O137" s="9"/>
-      <c r="P137" s="9"/>
-      <c r="Q137" s="9"/>
-      <c r="R137" s="9"/>
-      <c r="S137" s="23"/>
-      <c r="T137" s="10"/>
-      <c r="U137" s="23"/>
-      <c r="V137" s="9"/>
-      <c r="W137" s="9"/>
-      <c r="X137" s="9"/>
-      <c r="Y137" s="9"/>
-      <c r="Z137" s="9"/>
-      <c r="AA137" s="9"/>
-      <c r="AB137" s="9"/>
-      <c r="AC137" s="9"/>
-      <c r="AD137" s="9"/>
-      <c r="AE137" s="9"/>
-      <c r="AF137" s="9"/>
-      <c r="AG137" s="9"/>
-      <c r="AH137" s="9"/>
-      <c r="AI137" s="9"/>
-      <c r="AJ137" s="9"/>
-      <c r="AK137" s="9"/>
-      <c r="AL137" s="9"/>
-      <c r="AM137" s="9"/>
-      <c r="AN137" s="9"/>
-      <c r="AO137" s="9"/>
-      <c r="AP137" s="9"/>
-      <c r="AQ137" s="9"/>
-      <c r="AR137" s="9"/>
-    </row>
-    <row r="138" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="9"/>
-      <c r="K138" s="9"/>
-      <c r="L138" s="9"/>
-      <c r="M138" s="9"/>
-      <c r="N138" s="9"/>
-      <c r="O138" s="9"/>
-      <c r="P138" s="9"/>
-      <c r="Q138" s="9"/>
-      <c r="R138" s="9"/>
-      <c r="S138" s="23"/>
-      <c r="T138" s="10"/>
-      <c r="U138" s="23"/>
-      <c r="V138" s="9"/>
-      <c r="W138" s="9"/>
-      <c r="X138" s="9"/>
-      <c r="Y138" s="9"/>
-      <c r="Z138" s="9"/>
-      <c r="AA138" s="9"/>
-      <c r="AB138" s="9"/>
-      <c r="AC138" s="9"/>
-      <c r="AD138" s="9"/>
-      <c r="AE138" s="9"/>
-      <c r="AF138" s="9"/>
-      <c r="AG138" s="9"/>
-      <c r="AH138" s="9"/>
-      <c r="AI138" s="9"/>
-      <c r="AJ138" s="9"/>
-      <c r="AK138" s="9"/>
-      <c r="AL138" s="9"/>
-      <c r="AM138" s="9"/>
-      <c r="AN138" s="9"/>
-      <c r="AO138" s="9"/>
-      <c r="AP138" s="9"/>
-      <c r="AQ138" s="9"/>
-      <c r="AR138" s="9"/>
-    </row>
-    <row r="139" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="9"/>
-      <c r="K139" s="9"/>
-      <c r="L139" s="9"/>
-      <c r="M139" s="9"/>
-      <c r="N139" s="9"/>
-      <c r="O139" s="9"/>
-      <c r="P139" s="9"/>
-      <c r="Q139" s="9"/>
-      <c r="R139" s="9"/>
-      <c r="S139" s="23"/>
-      <c r="T139" s="10"/>
-      <c r="U139" s="23"/>
-      <c r="V139" s="9"/>
-      <c r="W139" s="9"/>
-      <c r="X139" s="9"/>
-      <c r="Y139" s="9"/>
-      <c r="Z139" s="9"/>
-      <c r="AA139" s="9"/>
-      <c r="AB139" s="9"/>
-      <c r="AC139" s="9"/>
-      <c r="AD139" s="9"/>
-      <c r="AE139" s="9"/>
-      <c r="AF139" s="9"/>
-      <c r="AG139" s="9"/>
-      <c r="AH139" s="9"/>
-      <c r="AI139" s="9"/>
-      <c r="AJ139" s="9"/>
-      <c r="AK139" s="9"/>
-      <c r="AL139" s="9"/>
-      <c r="AM139" s="9"/>
-      <c r="AN139" s="9"/>
-      <c r="AO139" s="9"/>
-      <c r="AP139" s="9"/>
-      <c r="AQ139" s="9"/>
-      <c r="AR139" s="9"/>
-    </row>
-    <row r="140" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="9"/>
-      <c r="K140" s="9"/>
-      <c r="L140" s="9"/>
-      <c r="M140" s="9"/>
-      <c r="N140" s="9"/>
-      <c r="O140" s="9"/>
-      <c r="P140" s="9"/>
-      <c r="Q140" s="9"/>
-      <c r="R140" s="9"/>
-      <c r="S140" s="23"/>
-      <c r="T140" s="10"/>
-      <c r="U140" s="23"/>
-      <c r="V140" s="9"/>
-      <c r="W140" s="9"/>
-      <c r="X140" s="9"/>
-      <c r="Y140" s="9"/>
-      <c r="Z140" s="9"/>
-      <c r="AA140" s="9"/>
-      <c r="AB140" s="9"/>
-      <c r="AC140" s="9"/>
-      <c r="AD140" s="9"/>
-      <c r="AE140" s="9"/>
-      <c r="AF140" s="9"/>
-      <c r="AG140" s="9"/>
-      <c r="AH140" s="9"/>
-      <c r="AI140" s="9"/>
-      <c r="AJ140" s="9"/>
-      <c r="AK140" s="9"/>
-      <c r="AL140" s="9"/>
-      <c r="AM140" s="9"/>
-      <c r="AN140" s="9"/>
-      <c r="AO140" s="9"/>
-      <c r="AP140" s="9"/>
-      <c r="AQ140" s="9"/>
-      <c r="AR140" s="9"/>
-    </row>
-    <row r="141" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="9"/>
-      <c r="K141" s="9"/>
-      <c r="L141" s="9"/>
-      <c r="M141" s="9"/>
-      <c r="N141" s="9"/>
-      <c r="O141" s="9"/>
-      <c r="P141" s="9"/>
-      <c r="Q141" s="9"/>
-      <c r="R141" s="9"/>
-      <c r="S141" s="23"/>
-      <c r="T141" s="10"/>
-      <c r="U141" s="23"/>
-      <c r="V141" s="9"/>
-      <c r="W141" s="9"/>
-      <c r="X141" s="9"/>
-      <c r="Y141" s="9"/>
-      <c r="Z141" s="9"/>
-      <c r="AA141" s="9"/>
-      <c r="AB141" s="9"/>
-      <c r="AC141" s="9"/>
-      <c r="AD141" s="9"/>
-      <c r="AE141" s="9"/>
-      <c r="AF141" s="9"/>
-      <c r="AG141" s="9"/>
-      <c r="AH141" s="9"/>
-      <c r="AI141" s="9"/>
-      <c r="AJ141" s="9"/>
-      <c r="AK141" s="9"/>
-      <c r="AL141" s="9"/>
-      <c r="AM141" s="9"/>
-      <c r="AN141" s="9"/>
-      <c r="AO141" s="9"/>
-      <c r="AP141" s="9"/>
-      <c r="AQ141" s="9"/>
-      <c r="AR141" s="9"/>
-    </row>
-    <row r="142" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="9"/>
-      <c r="L142" s="9"/>
-      <c r="M142" s="9"/>
-      <c r="N142" s="9"/>
-      <c r="O142" s="9"/>
-      <c r="P142" s="9"/>
-      <c r="Q142" s="9"/>
-      <c r="R142" s="9"/>
-      <c r="S142" s="23"/>
-      <c r="T142" s="10"/>
-      <c r="U142" s="23"/>
-      <c r="V142" s="9"/>
-      <c r="W142" s="9"/>
-      <c r="X142" s="9"/>
-      <c r="Y142" s="9"/>
-      <c r="Z142" s="9"/>
-      <c r="AA142" s="9"/>
-      <c r="AB142" s="9"/>
-      <c r="AC142" s="9"/>
-      <c r="AD142" s="9"/>
-      <c r="AE142" s="9"/>
-      <c r="AF142" s="9"/>
-      <c r="AG142" s="9"/>
-      <c r="AH142" s="9"/>
-      <c r="AI142" s="9"/>
-      <c r="AJ142" s="9"/>
-      <c r="AK142" s="9"/>
-      <c r="AL142" s="9"/>
-      <c r="AM142" s="9"/>
-      <c r="AN142" s="9"/>
-      <c r="AO142" s="9"/>
-      <c r="AP142" s="9"/>
-      <c r="AQ142" s="9"/>
-      <c r="AR142" s="9"/>
-    </row>
-    <row r="143" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="3"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="9"/>
-      <c r="K143" s="9"/>
-      <c r="L143" s="9"/>
-      <c r="M143" s="9"/>
-      <c r="N143" s="9"/>
-      <c r="O143" s="9"/>
-      <c r="P143" s="9"/>
-      <c r="Q143" s="9"/>
-      <c r="R143" s="9"/>
-      <c r="S143" s="23"/>
-      <c r="T143" s="10"/>
-      <c r="U143" s="23"/>
-      <c r="V143" s="9"/>
-      <c r="W143" s="9"/>
-      <c r="X143" s="9"/>
-      <c r="Y143" s="9"/>
-      <c r="Z143" s="9"/>
-      <c r="AA143" s="9"/>
-      <c r="AB143" s="9"/>
-      <c r="AC143" s="9"/>
-      <c r="AD143" s="9"/>
-      <c r="AE143" s="9"/>
-      <c r="AF143" s="9"/>
-      <c r="AG143" s="9"/>
-      <c r="AH143" s="9"/>
-      <c r="AI143" s="9"/>
-      <c r="AJ143" s="9"/>
-      <c r="AK143" s="9"/>
-      <c r="AL143" s="9"/>
-      <c r="AM143" s="9"/>
-      <c r="AN143" s="9"/>
-      <c r="AO143" s="9"/>
-      <c r="AP143" s="9"/>
-      <c r="AQ143" s="9"/>
-      <c r="AR143" s="9"/>
-    </row>
-    <row r="144" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="9"/>
-      <c r="K144" s="9"/>
-      <c r="L144" s="9"/>
-      <c r="M144" s="9"/>
-      <c r="N144" s="9"/>
-      <c r="O144" s="9"/>
-      <c r="P144" s="9"/>
-      <c r="Q144" s="9"/>
-      <c r="R144" s="9"/>
-      <c r="S144" s="23"/>
-      <c r="T144" s="10"/>
-      <c r="U144" s="23"/>
-      <c r="V144" s="9"/>
-      <c r="W144" s="9"/>
-      <c r="X144" s="9"/>
-      <c r="Y144" s="9"/>
-      <c r="Z144" s="9"/>
-      <c r="AA144" s="9"/>
-      <c r="AB144" s="9"/>
-      <c r="AC144" s="9"/>
-      <c r="AD144" s="9"/>
-      <c r="AE144" s="9"/>
-      <c r="AF144" s="9"/>
-      <c r="AG144" s="9"/>
-      <c r="AH144" s="9"/>
-      <c r="AI144" s="9"/>
-      <c r="AJ144" s="9"/>
-      <c r="AK144" s="9"/>
-      <c r="AL144" s="9"/>
-      <c r="AM144" s="9"/>
-      <c r="AN144" s="9"/>
-      <c r="AO144" s="9"/>
-      <c r="AP144" s="9"/>
-      <c r="AQ144" s="9"/>
-      <c r="AR144" s="9"/>
-    </row>
-    <row r="145" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="9"/>
-      <c r="K145" s="9"/>
-      <c r="L145" s="9"/>
-      <c r="M145" s="9"/>
-      <c r="N145" s="9"/>
-      <c r="O145" s="9"/>
-      <c r="P145" s="9"/>
-      <c r="Q145" s="9"/>
-      <c r="R145" s="9"/>
-      <c r="S145" s="23"/>
-      <c r="T145" s="10"/>
-      <c r="U145" s="23"/>
-      <c r="V145" s="9"/>
-      <c r="W145" s="9"/>
-      <c r="X145" s="9"/>
-      <c r="Y145" s="9"/>
-      <c r="Z145" s="9"/>
-      <c r="AA145" s="9"/>
-      <c r="AB145" s="9"/>
-      <c r="AC145" s="9"/>
-      <c r="AD145" s="9"/>
-      <c r="AE145" s="9"/>
-      <c r="AF145" s="9"/>
-      <c r="AG145" s="9"/>
-      <c r="AH145" s="9"/>
-      <c r="AI145" s="9"/>
-      <c r="AJ145" s="9"/>
-      <c r="AK145" s="9"/>
-      <c r="AL145" s="9"/>
-      <c r="AM145" s="9"/>
-      <c r="AN145" s="9"/>
-      <c r="AO145" s="9"/>
-      <c r="AP145" s="9"/>
-      <c r="AQ145" s="9"/>
-      <c r="AR145" s="9"/>
-    </row>
-    <row r="146" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="9"/>
-      <c r="K146" s="9"/>
-      <c r="L146" s="9"/>
-      <c r="M146" s="9"/>
-      <c r="N146" s="9"/>
-      <c r="O146" s="9"/>
-      <c r="P146" s="9"/>
-      <c r="Q146" s="9"/>
-      <c r="R146" s="9"/>
-      <c r="S146" s="23"/>
-      <c r="T146" s="10"/>
-      <c r="U146" s="23"/>
-      <c r="V146" s="9"/>
-      <c r="W146" s="9"/>
-      <c r="X146" s="9"/>
-      <c r="Y146" s="9"/>
-      <c r="Z146" s="9"/>
-      <c r="AA146" s="9"/>
-      <c r="AB146" s="9"/>
-      <c r="AC146" s="9"/>
-      <c r="AD146" s="9"/>
-      <c r="AE146" s="9"/>
-      <c r="AF146" s="9"/>
-      <c r="AG146" s="9"/>
-      <c r="AH146" s="9"/>
-      <c r="AI146" s="9"/>
-      <c r="AJ146" s="9"/>
-      <c r="AK146" s="9"/>
-      <c r="AL146" s="9"/>
-      <c r="AM146" s="9"/>
-      <c r="AN146" s="9"/>
-      <c r="AO146" s="9"/>
-      <c r="AP146" s="9"/>
-      <c r="AQ146" s="9"/>
-      <c r="AR146" s="9"/>
-    </row>
-    <row r="147" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="9"/>
-      <c r="K147" s="9"/>
-      <c r="L147" s="9"/>
-      <c r="M147" s="9"/>
-      <c r="N147" s="9"/>
-      <c r="O147" s="9"/>
-      <c r="P147" s="9"/>
-      <c r="Q147" s="9"/>
-      <c r="R147" s="9"/>
-      <c r="S147" s="23"/>
-      <c r="T147" s="10"/>
-      <c r="U147" s="23"/>
-      <c r="V147" s="9"/>
-      <c r="W147" s="9"/>
-      <c r="X147" s="9"/>
-      <c r="Y147" s="9"/>
-      <c r="Z147" s="9"/>
-      <c r="AA147" s="9"/>
-      <c r="AB147" s="9"/>
-      <c r="AC147" s="9"/>
-      <c r="AD147" s="9"/>
-      <c r="AE147" s="9"/>
-      <c r="AF147" s="9"/>
-      <c r="AG147" s="9"/>
-      <c r="AH147" s="9"/>
-      <c r="AI147" s="9"/>
-      <c r="AJ147" s="9"/>
-      <c r="AK147" s="9"/>
-      <c r="AL147" s="9"/>
-      <c r="AM147" s="9"/>
-      <c r="AN147" s="9"/>
-      <c r="AO147" s="9"/>
-      <c r="AP147" s="9"/>
-      <c r="AQ147" s="9"/>
-      <c r="AR147" s="9"/>
-    </row>
-    <row r="148" spans="1:44" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="9"/>
-      <c r="J148" s="9"/>
-      <c r="K148" s="9"/>
-      <c r="L148" s="9"/>
-      <c r="M148" s="9"/>
-      <c r="N148" s="9"/>
-      <c r="O148" s="9"/>
-      <c r="P148" s="9"/>
-      <c r="Q148" s="9"/>
-      <c r="R148" s="9"/>
-      <c r="S148" s="23"/>
-      <c r="T148" s="10"/>
-      <c r="U148" s="23"/>
-      <c r="V148" s="9"/>
-      <c r="W148" s="9"/>
-      <c r="X148" s="9"/>
-      <c r="Y148" s="9"/>
-      <c r="Z148" s="9"/>
-      <c r="AA148" s="9"/>
-      <c r="AB148" s="9"/>
-      <c r="AC148" s="9"/>
-      <c r="AD148" s="9"/>
-      <c r="AE148" s="9"/>
-      <c r="AF148" s="9"/>
-      <c r="AG148" s="9"/>
-      <c r="AH148" s="9"/>
-      <c r="AI148" s="9"/>
-      <c r="AJ148" s="9"/>
-      <c r="AK148" s="9"/>
-      <c r="AL148" s="9"/>
-      <c r="AM148" s="9"/>
-      <c r="AN148" s="9"/>
-      <c r="AO148" s="9"/>
-      <c r="AP148" s="9"/>
-      <c r="AQ148" s="9"/>
-      <c r="AR148" s="9"/>
+      <c r="AS123" s="9"/>
+      <c r="AT123" s="9"/>
+      <c r="AU123" s="9"/>
+      <c r="AV123" s="9"/>
+      <c r="AW123" s="9"/>
+      <c r="AX123" s="9"/>
+      <c r="AY123" s="9"/>
+      <c r="AZ123" s="9"/>
+      <c r="BA123" s="9"/>
+      <c r="BB123" s="9"/>
+      <c r="BC123" s="9"/>
+      <c r="BD123" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AS148" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AN148">
-      <sortCondition ref="A2:A148"/>
+  <autoFilter ref="A2:BE123" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AY123">
+      <sortCondition ref="A2:A123"/>
     </sortState>
   </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AP1:AP2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="BC1:BC2"/>
+    <mergeCell ref="BD1:BD2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:Y1"/>
+    <mergeCell ref="Z1:AI1"/>
+    <mergeCell ref="AJ1:AP1"/>
+    <mergeCell ref="AQ1:AV1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/src/main/resources/template/employee.xlsx
+++ b/src/main/resources/template/employee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496301F6-7265-47B0-9706-3763BFA4E33F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37E482A-114A-43F1-B21A-47D3EDBB6994}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -324,10 +324,6 @@
   </si>
   <si>
     <t>行政线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历学位做1个拓展子表信息，记录多条学历学位信息，由应用人自行点击新增</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -673,7 +669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +754,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -770,12 +787,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -785,12 +796,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -798,27 +803,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1111,7 +1095,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -1148,11 +1132,11 @@
     <col min="36" max="36" width="48.375" style="17" customWidth="1"/>
     <col min="37" max="37" width="36.75" style="17" customWidth="1"/>
     <col min="38" max="39" width="11.125" style="17" customWidth="1"/>
-    <col min="40" max="40" width="8" style="17" customWidth="1"/>
-    <col min="41" max="41" width="22.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.25" style="17" customWidth="1"/>
-    <col min="43" max="43" width="24.25" style="17" customWidth="1"/>
-    <col min="44" max="48" width="22.25" style="17" customWidth="1"/>
+    <col min="40" max="40" width="24.25" style="17" customWidth="1"/>
+    <col min="41" max="45" width="22.25" style="17" customWidth="1"/>
+    <col min="46" max="46" width="8" style="17" customWidth="1"/>
+    <col min="47" max="47" width="22.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.25" style="17" customWidth="1"/>
     <col min="49" max="49" width="37.375" style="17" customWidth="1"/>
     <col min="50" max="50" width="32.25" style="17" customWidth="1"/>
     <col min="51" max="51" width="12.625" style="17" customWidth="1"/>
@@ -1165,106 +1149,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="39" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="28" t="s">
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="42" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="28" t="s">
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="31" t="s">
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="BC1" s="31" t="s">
+      <c r="BC1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="BD1" s="34" t="s">
+      <c r="BD1" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:56" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1358,32 +1340,32 @@
       <c r="AM2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AN2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AP2" s="27" t="s">
+      <c r="AV2" s="27" t="s">
         <v>37</v>
-      </c>
-      <c r="AQ2" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR2" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS2" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="AT2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU2" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV2" s="22" t="s">
-        <v>53</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>15</v>
@@ -1400,9 +1382,9 @@
       <c r="BA2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="BB2" s="32"/>
+      <c r="BB2" s="34"/>
       <c r="BC2" s="33"/>
-      <c r="BD2" s="34"/>
+      <c r="BD2" s="39"/>
     </row>
     <row r="3" spans="1:56" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
@@ -1412,7 +1394,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>45</v>
@@ -1430,10 +1412,10 @@
         <v>35</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="K3" s="16">
         <v>24290</v>
@@ -1442,13 +1424,13 @@
         <v>1966.07</v>
       </c>
       <c r="M3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>35</v>
@@ -1460,31 +1442,31 @@
         <v>32</v>
       </c>
       <c r="S3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="U3" s="16">
         <v>40524</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W3" s="16">
         <v>40953</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y3" s="9" t="s">
         <v>35</v>
       </c>
       <c r="Z3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA3" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="AB3" s="16">
         <v>34376</v>
@@ -1502,64 +1484,64 @@
         <v>36782</v>
       </c>
       <c r="AG3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH3" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AJ3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AL3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AL3" s="9" t="s">
+      <c r="AO3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AM3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN3" s="9" t="s">
+      <c r="AR3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AO3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP3" s="9" t="s">
+      <c r="AU3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AQ3" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS3" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU3" s="9" t="s">
+      <c r="AW3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AV3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW3" s="9" t="s">
+      <c r="AX3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AX3" s="9" t="s">
+      <c r="AY3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AY3" s="9" t="s">
+      <c r="AZ3" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="AZ3" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="BA3" s="9" t="s">
         <v>35</v>
@@ -1788,13 +1770,13 @@
       <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
       <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
+      <c r="AN7" s="14"/>
       <c r="AO7" s="14"/>
       <c r="AP7" s="14"/>
       <c r="AQ7" s="14"/>
       <c r="AR7" s="14"/>
       <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
+      <c r="AT7" s="9"/>
       <c r="AU7" s="14"/>
       <c r="AV7" s="14"/>
       <c r="AW7" s="9"/>
@@ -2890,13 +2872,13 @@
       <c r="AK26" s="9"/>
       <c r="AL26" s="9"/>
       <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
+      <c r="AN26" s="14"/>
       <c r="AO26" s="14"/>
       <c r="AP26" s="14"/>
       <c r="AQ26" s="14"/>
       <c r="AR26" s="14"/>
       <c r="AS26" s="14"/>
-      <c r="AT26" s="14"/>
+      <c r="AT26" s="9"/>
       <c r="AU26" s="14"/>
       <c r="AV26" s="14"/>
       <c r="AW26" s="9"/>
@@ -8540,13 +8522,7 @@
       <sortCondition ref="A2:A123"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="17">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B1:B2"/>
+  <mergeCells count="15">
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="BB1:BB2"/>
     <mergeCell ref="BC1:BC2"/>
@@ -8556,8 +8532,12 @@
     <mergeCell ref="I1:P1"/>
     <mergeCell ref="Q1:Y1"/>
     <mergeCell ref="Z1:AI1"/>
-    <mergeCell ref="AJ1:AP1"/>
-    <mergeCell ref="AQ1:AV1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
